--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD664DB-1498-458F-9E57-45A173E93AAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF488C-399E-497F-9FA9-824EDA49C9AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1159">
   <si>
     <r>
       <rPr>
@@ -5911,10 +5911,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>product/item_product.html</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>product/product_line.html</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -5959,14 +5955,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>CUS1001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUS1002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>customer/account.html</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -6011,47 +5999,18 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-plane</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1002</t>
-  </si>
-  <si>
-    <t>PRO1002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-pencil</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1003</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-modx</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1004</t>
-  </si>
-  <si>
-    <t>PRO1004</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO1005</t>
-  </si>
-  <si>
-    <t>PRO1005</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-pied-piper-pp</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -6068,13 +6027,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1006</t>
-  </si>
-  <si>
-    <t>PRO1006</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>documenttype.documenttype</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -6286,6 +6238,270 @@
   </si>
   <si>
     <t>End Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/item_model.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.ownertype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.ownerid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountnumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accounttype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountclass</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.accountusage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>account.bankid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Number</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户属性</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Class</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Usage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/document_category.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类别</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Category</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1010</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1020</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1040</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1050</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1060</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1070</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1030</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUS1010</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUS1020</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINANCE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-archive</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-money</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finance Manage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN1010</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-sellsy</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance/bank.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行定义</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Define</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.bankcode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.shortname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.fullname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.paybanknumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.province</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.city</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行代码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Code</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Bank Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付联行号</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay Bank Number</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Province</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -7803,10 +8019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8139,39 +8355,39 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="10" t="s">
-        <v>1007</v>
+        <v>1118</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>1007</v>
+        <v>1118</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1002</v>
+        <v>1119</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>1002</v>
+        <v>1119</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1008</v>
+        <v>1120</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>1009</v>
+        <v>1121</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>1008</v>
+        <v>1120</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>1009</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" s="10" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>85</v>
@@ -8183,24 +8399,24 @@
         <v>1002</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" s="10" t="s">
-        <v>1011</v>
+        <v>1093</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1011</v>
+        <v>1093</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>85</v>
@@ -8212,24 +8428,24 @@
         <v>1002</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" s="10" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>85</v>
@@ -8241,24 +8457,24 @@
         <v>1002</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="5:13">
       <c r="E20" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>85</v>
@@ -8270,24 +8486,24 @@
         <v>1002</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" spans="5:13">
       <c r="E21" s="10" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>85</v>
@@ -8299,16 +8515,74 @@
         <v>1002</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>1027</v>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -8321,10 +8595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8480,13 +8754,13 @@
       <c r="C9" s="37"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>1022</v>
+        <v>1129</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1022</v>
+        <v>1129</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>106</v>
@@ -8527,19 +8801,19 @@
       <c r="C10" s="37"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>1023</v>
+        <v>1130</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1023</v>
+        <v>1130</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I10" s="40" t="str">
-        <f>RESOURCE!E21</f>
+        <f>RESOURCE!E22</f>
         <v>customer/account.html</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -8556,40 +8830,40 @@
         <v>1002</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="37" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8">
@@ -8599,16 +8873,16 @@
         <v>1002</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -8617,23 +8891,23 @@
       <c r="C12" s="37"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>1035</v>
+        <v>1122</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>1035</v>
+        <v>1122</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="I12" s="40" t="str">
         <f>RESOURCE!E14</f>
         <v>product/business_type.html</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K12" s="8" t="str">
         <f>E11</f>
@@ -8664,23 +8938,23 @@
       <c r="C13" s="37"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>1038</v>
+        <v>1123</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>1037</v>
+        <v>1123</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="I13" s="40" t="str">
         <f>RESOURCE!E15</f>
         <v>product/cashflow_type.html</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K13" s="8" t="str">
         <f>E11</f>
@@ -8707,23 +8981,23 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" s="8" t="s">
-        <v>1040</v>
+        <v>1128</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1040</v>
+        <v>1128</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1025</v>
+        <v>1133</v>
       </c>
       <c r="I14" s="40" t="str">
         <f>RESOURCE!E16</f>
-        <v>product/document_type.html</v>
+        <v>product/document_category.html</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K14" s="8" t="str">
         <f>E11</f>
@@ -8733,40 +9007,40 @@
         <v>30</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>1002</v>
+        <v>86</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>1008</v>
+        <v>1120</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>1009</v>
+        <v>1121</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>1008</v>
+        <v>1120</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>1009</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="E15" s="8" t="s">
-        <v>1043</v>
+        <v>1124</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1042</v>
+        <v>1124</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="I15" s="40" t="str">
-        <f>RESOURCE!E18</f>
-        <v>product/product_line.html</v>
+        <f>RESOURCE!E17</f>
+        <v>product/document_type.html</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K15" s="8" t="str">
         <f>E11</f>
@@ -8779,37 +9053,37 @@
         <v>1002</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="8" t="s">
-        <v>1045</v>
+        <v>1125</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1044</v>
+        <v>1125</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="I16" s="40" t="str">
-        <f>RESOURCE!E17</f>
-        <v>product/item_product.html</v>
+        <f>RESOURCE!E19</f>
+        <v>product/product_line.html</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K16" s="8" t="str">
         <f>E11</f>
@@ -8822,37 +9096,37 @@
         <v>1002</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>1049</v>
+        <v>1018</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>1049</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="E17" s="8" t="s">
-        <v>1051</v>
+        <v>1126</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>1050</v>
+        <v>1126</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="I17" s="40" t="str">
-        <f>RESOURCE!E19</f>
-        <v>product/product.html</v>
+        <f>RESOURCE!E18</f>
+        <v>product/item_model.html</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="K17" s="8" t="str">
         <f>E11</f>
@@ -8865,95 +9139,183 @@
         <v>1002</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="39"/>
-      <c r="B18" s="37"/>
+      <c r="E18" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I18" s="40" t="str">
+        <f>RESOURCE!E20</f>
+        <v>product/product.html</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K18" s="8" t="str">
+        <f>E11</f>
+        <v>PRODUCT</v>
+      </c>
+      <c r="L18" s="8">
+        <v>70</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>1020</v>
+      </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <v>10</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="37"/>
+      <c r="E20" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I20" s="40" t="str">
+        <f>RESOURCE!E23</f>
+        <v>finance/bank.html</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f>E19</f>
+        <v>FINANCE</v>
+      </c>
+      <c r="L20" s="8">
+        <v>10</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="39"/>
+      <c r="B21" s="37"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="9">
+    <row r="23" spans="1:17">
+      <c r="A23" s="9">
         <v>43187</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C23" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="40" t="str">
+      <c r="F23" s="40" t="str">
         <f>$E$9</f>
-        <v>CUS1001</v>
-      </c>
-      <c r="G20" s="40" t="str">
+        <v>CUS1010</v>
+      </c>
+      <c r="G23" s="40" t="str">
         <f>RESOURCE!E8</f>
         <v>customer/customer.html</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="E21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="40" t="str">
-        <f>$E$9</f>
-        <v>CUS1001</v>
-      </c>
-      <c r="G21" s="40" t="str">
-        <f>RESOURCE!E9</f>
-        <v>afd/customer/query</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="E22" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="40" t="str">
-        <f t="shared" ref="F22" si="0">$E$9</f>
-        <v>CUS1001</v>
-      </c>
-      <c r="G22" s="40" t="str">
-        <f>RESOURCE!E10</f>
-        <v>afd/customer/remove</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="E23" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="40" t="str">
-        <f>$E$9</f>
-        <v>CUS1001</v>
-      </c>
-      <c r="G23" s="40" t="str">
-        <f>RESOURCE!E11</f>
-        <v>afd/customer/submit</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -8962,11 +9324,11 @@
       </c>
       <c r="F24" s="40" t="str">
         <f>$E$9</f>
-        <v>CUS1001</v>
+        <v>CUS1010</v>
       </c>
       <c r="G24" s="40" t="str">
-        <f>RESOURCE!E12</f>
-        <v>common/childCode</v>
+        <f>RESOURCE!E9</f>
+        <v>afd/customer/query</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -8974,51 +9336,51 @@
         <v>108</v>
       </c>
       <c r="F25" s="40" t="str">
-        <f>$E$9</f>
-        <v>CUS1001</v>
+        <f t="shared" ref="F25" si="0">$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G25" s="40" t="str">
-        <f>RESOURCE!E13</f>
-        <v>sys/attachment/category/queryTree</v>
+        <f>RESOURCE!E10</f>
+        <v>afd/customer/remove</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="E26" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="51" t="str">
-        <f>E10</f>
-        <v>CUS1002</v>
+      <c r="F26" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G26" s="40" t="str">
-        <f>RESOURCE!E21</f>
-        <v>customer/account.html</v>
+        <f>RESOURCE!E11</f>
+        <v>afd/customer/submit</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="E27" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="51" t="str">
-        <f>E12</f>
-        <v>PRO1001</v>
+      <c r="F27" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G27" s="40" t="str">
-        <f>RESOURCE!E14</f>
-        <v>product/business_type.html</v>
+        <f>RESOURCE!E12</f>
+        <v>common/childCode</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="E28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="51" t="str">
-        <f t="shared" ref="F28:F31" si="1">E13</f>
-        <v>PRO1002</v>
+      <c r="F28" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G28" s="40" t="str">
-        <f>RESOURCE!E15</f>
-        <v>product/cashflow_type.html</v>
+        <f>RESOURCE!E13</f>
+        <v>sys/attachment/category/queryTree</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -9026,12 +9388,12 @@
         <v>108</v>
       </c>
       <c r="F29" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v>PRO1003</v>
+        <f>E10</f>
+        <v>CUS1020</v>
       </c>
       <c r="G29" s="40" t="str">
-        <f>RESOURCE!E16</f>
-        <v>product/document_type.html</v>
+        <f>RESOURCE!E22</f>
+        <v>customer/account.html</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -9039,12 +9401,12 @@
         <v>108</v>
       </c>
       <c r="F30" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v>PRO1004</v>
+        <f>E12</f>
+        <v>PRO1010</v>
       </c>
       <c r="G30" s="40" t="str">
-        <f>RESOURCE!E18</f>
-        <v>product/product_line.html</v>
+        <f>RESOURCE!E14</f>
+        <v>product/business_type.html</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -9052,12 +9414,12 @@
         <v>108</v>
       </c>
       <c r="F31" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v>PRO1005</v>
+        <f>E13</f>
+        <v>PRO1020</v>
       </c>
       <c r="G31" s="40" t="str">
-        <f>RESOURCE!E17</f>
-        <v>product/item_product.html</v>
+        <f>RESOURCE!E15</f>
+        <v>product/cashflow_type.html</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -9065,12 +9427,12 @@
         <v>108</v>
       </c>
       <c r="F32" s="51" t="str">
-        <f>E17</f>
-        <v>PRO1006</v>
+        <f t="shared" ref="F32:F34" si="1">E15</f>
+        <v>PRO1040</v>
       </c>
       <c r="G32" s="40" t="str">
-        <f>RESOURCE!E19</f>
-        <v>product/product.html</v>
+        <f>RESOURCE!E17</f>
+        <v>product/document_type.html</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -9078,11 +9440,50 @@
         <v>108</v>
       </c>
       <c r="F33" s="51" t="str">
-        <f>E17</f>
-        <v>PRO1006</v>
+        <f t="shared" si="1"/>
+        <v>PRO1050</v>
       </c>
       <c r="G33" s="40" t="str">
+        <f>RESOURCE!E19</f>
+        <v>product/product_line.html</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v>PRO1060</v>
+      </c>
+      <c r="G34" s="40" t="str">
+        <f>RESOURCE!E18</f>
+        <v>product/item_model.html</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="51" t="str">
+        <f>E18</f>
+        <v>PRO1070</v>
+      </c>
+      <c r="G35" s="40" t="str">
         <f>RESOURCE!E20</f>
+        <v>product/product.html</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="51" t="str">
+        <f>E18</f>
+        <v>PRO1070</v>
+      </c>
+      <c r="G36" s="40" t="str">
+        <f>RESOURCE!E21</f>
         <v>product/product_config.html</v>
       </c>
     </row>
@@ -9095,10 +9496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E762DFEF-3E6B-4E1D-88E4-C51F4783274F}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9175,7 +9576,7 @@
       </c>
       <c r="G9" s="40" t="str">
         <f>FUNCTION!E9</f>
-        <v>CUS1001</v>
+        <v>CUS1010</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9188,7 +9589,7 @@
       </c>
       <c r="G10" s="40" t="str">
         <f>FUNCTION!E10</f>
-        <v>CUS1002</v>
+        <v>CUS1020</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9214,7 +9615,7 @@
       </c>
       <c r="G12" s="40" t="str">
         <f>FUNCTION!E12</f>
-        <v>PRO1001</v>
+        <v>PRO1010</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9227,7 +9628,7 @@
       </c>
       <c r="G13" s="40" t="str">
         <f>FUNCTION!E13</f>
-        <v>PRO1002</v>
+        <v>PRO1020</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9240,7 +9641,7 @@
       </c>
       <c r="G14" s="40" t="str">
         <f>FUNCTION!E14</f>
-        <v>PRO1003</v>
+        <v>PRO1030</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9253,7 +9654,7 @@
       </c>
       <c r="G15" s="40" t="str">
         <f>FUNCTION!E15</f>
-        <v>PRO1004</v>
+        <v>PRO1040</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9266,7 +9667,7 @@
       </c>
       <c r="G16" s="40" t="str">
         <f>FUNCTION!E16</f>
-        <v>PRO1005</v>
+        <v>PRO1050</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -9279,7 +9680,7 @@
       </c>
       <c r="G17" s="40" t="str">
         <f>FUNCTION!E17</f>
-        <v>PRO1006</v>
+        <v>PRO1060</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -9287,38 +9688,103 @@
         <v>107</v>
       </c>
       <c r="F18" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G18" s="40" t="str">
+        <f>FUNCTION!E18</f>
+        <v>PRO1070</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G19" s="40" t="str">
+        <f>FUNCTION!E19</f>
+        <v>FINANCE</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G20" s="40" t="str">
+        <f>FUNCTION!E20</f>
+        <v>FIN1010</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="51" t="str">
         <f>ACCOUNT!E$9</f>
         <v>EMPLOYEE</v>
       </c>
-      <c r="G18" s="51" t="str">
+      <c r="G21" s="51" t="str">
         <f>FUNCTION!E8</f>
         <v>CUSTOMER</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="51" t="str">
+    <row r="22" spans="5:7">
+      <c r="E22" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="51" t="str">
         <f>ACCOUNT!E$9</f>
         <v>EMPLOYEE</v>
       </c>
-      <c r="G19" s="51" t="str">
+      <c r="G22" s="51" t="str">
         <f>FUNCTION!E9</f>
-        <v>CUS1001</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="51" t="str">
+        <v>CUS1010</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="51" t="str">
         <f>ACCOUNT!E$9</f>
         <v>EMPLOYEE</v>
       </c>
-      <c r="G20" s="51" t="str">
+      <c r="G23" s="51" t="str">
         <f>FUNCTION!E10</f>
-        <v>CUS1002</v>
+        <v>CUS1020</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="51" t="str">
+        <f>ACCOUNT!E$9</f>
+        <v>EMPLOYEE</v>
+      </c>
+      <c r="G24" s="40" t="str">
+        <f>FUNCTION!E19</f>
+        <v>FINANCE</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="51" t="str">
+        <f>ACCOUNT!E$9</f>
+        <v>EMPLOYEE</v>
+      </c>
+      <c r="G25" s="40" t="str">
+        <f>FUNCTION!E20</f>
+        <v>FIN1010</v>
       </c>
     </row>
   </sheetData>
@@ -9329,10 +9795,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C174" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" topLeftCell="C204" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11376,7 +11842,7 @@
         <v>107</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>109</v>
@@ -11390,7 +11856,7 @@
         <v>107</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>110</v>
@@ -11404,13 +11870,13 @@
         <v>107</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="151" spans="5:8">
@@ -11418,7 +11884,7 @@
         <v>107</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>110</v>
@@ -11432,13 +11898,13 @@
         <v>107</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="153" spans="5:8">
@@ -11446,13 +11912,13 @@
         <v>107</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="154" spans="5:8">
@@ -11460,7 +11926,7 @@
         <v>107</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>109</v>
@@ -11474,7 +11940,7 @@
         <v>107</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>110</v>
@@ -11488,13 +11954,13 @@
         <v>107</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="157" spans="5:8">
@@ -11502,13 +11968,13 @@
         <v>107</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="158" spans="5:8">
@@ -11516,13 +11982,13 @@
         <v>107</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="159" spans="5:8">
@@ -11530,13 +11996,13 @@
         <v>107</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="5:8">
@@ -11544,13 +12010,13 @@
         <v>107</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="161" spans="5:8">
@@ -11558,13 +12024,13 @@
         <v>107</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="162" spans="5:8">
@@ -11572,13 +12038,13 @@
         <v>107</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="163" spans="5:8">
@@ -11586,13 +12052,13 @@
         <v>107</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="164" spans="5:8">
@@ -11600,13 +12066,13 @@
         <v>107</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="165" spans="5:8">
@@ -11614,13 +12080,13 @@
         <v>107</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="166" spans="5:8">
@@ -11628,13 +12094,13 @@
         <v>107</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="167" spans="5:8">
@@ -11642,13 +12108,13 @@
         <v>107</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="168" spans="5:8">
@@ -11656,13 +12122,13 @@
         <v>107</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="169" spans="5:8">
@@ -11670,13 +12136,13 @@
         <v>107</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="170" spans="5:8">
@@ -11684,13 +12150,13 @@
         <v>107</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="171" spans="5:8">
@@ -11698,13 +12164,13 @@
         <v>107</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="172" spans="5:8">
@@ -11712,13 +12178,13 @@
         <v>107</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="173" spans="5:8">
@@ -11726,13 +12192,13 @@
         <v>107</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -11740,7 +12206,7 @@
         <v>107</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>109</v>
@@ -11754,7 +12220,7 @@
         <v>107</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>110</v>
@@ -11768,13 +12234,13 @@
         <v>107</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -11782,13 +12248,13 @@
         <v>107</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="178" spans="5:8">
@@ -11796,13 +12262,13 @@
         <v>107</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -11810,13 +12276,13 @@
         <v>107</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -11824,7 +12290,7 @@
         <v>107</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>109</v>
@@ -11838,7 +12304,7 @@
         <v>107</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>110</v>
@@ -11852,7 +12318,7 @@
         <v>107</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>109</v>
@@ -11866,7 +12332,7 @@
         <v>107</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>110</v>
@@ -11880,7 +12346,7 @@
         <v>107</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="G184" s="8" t="s">
         <v>109</v>
@@ -11894,7 +12360,7 @@
         <v>107</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>110</v>
@@ -11908,7 +12374,7 @@
         <v>107</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>109</v>
@@ -11922,13 +12388,13 @@
         <v>107</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -11936,7 +12402,7 @@
         <v>107</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>109</v>
@@ -11950,13 +12416,13 @@
         <v>107</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -11964,13 +12430,13 @@
         <v>107</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -11978,13 +12444,13 @@
         <v>107</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="192" spans="5:8">
@@ -11992,13 +12458,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -12006,13 +12472,405 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8">
+      <c r="E194" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="195" spans="5:8">
+      <c r="E195" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="196" spans="5:8">
+      <c r="E196" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="197" spans="5:8">
+      <c r="E197" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H197" s="8" t="s">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="198" spans="5:8">
+      <c r="E198" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="199" spans="5:8">
+      <c r="E199" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="200" spans="5:8">
+      <c r="E200" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="201" spans="5:8">
+      <c r="E201" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="202" spans="5:8">
+      <c r="E202" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="203" spans="5:8">
+      <c r="E203" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="204" spans="5:8">
+      <c r="E204" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="205" spans="5:8">
+      <c r="E205" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="206" spans="5:8">
+      <c r="E206" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="207" spans="5:8">
+      <c r="E207" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="208" spans="5:8">
+      <c r="E208" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8">
+      <c r="E209" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="210" spans="5:8">
+      <c r="E210" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="211" spans="5:8">
+      <c r="E211" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="212" spans="5:8">
+      <c r="E212" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="213" spans="5:8">
+      <c r="E213" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="214" spans="5:8">
+      <c r="E214" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="215" spans="5:8">
+      <c r="E215" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8">
+      <c r="E216" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="217" spans="5:8">
+      <c r="E217" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="218" spans="5:8">
+      <c r="E218" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="219" spans="5:8">
+      <c r="E219" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="220" spans="5:8">
+      <c r="E220" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="221" spans="5:8">
+      <c r="E221" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFF488C-399E-497F-9FA9-824EDA49C9AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14131134-B649-47B4-9453-822CD78BB056}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1159">
   <si>
     <r>
       <rPr>
@@ -8021,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:M23"/>
+    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8595,10 +8595,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9427,12 +9427,12 @@
         <v>108</v>
       </c>
       <c r="F32" s="51" t="str">
-        <f t="shared" ref="F32:F34" si="1">E15</f>
-        <v>PRO1040</v>
+        <f>E14</f>
+        <v>PRO1030</v>
       </c>
       <c r="G32" s="40" t="str">
-        <f>RESOURCE!E17</f>
-        <v>product/document_type.html</v>
+        <f>RESOURCE!E16</f>
+        <v>product/document_category.html</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -9440,12 +9440,12 @@
         <v>108</v>
       </c>
       <c r="F33" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v>PRO1050</v>
+        <f t="shared" ref="F33:F35" si="1">E15</f>
+        <v>PRO1040</v>
       </c>
       <c r="G33" s="40" t="str">
-        <f>RESOURCE!E19</f>
-        <v>product/product_line.html</v>
+        <f>RESOURCE!E17</f>
+        <v>product/document_type.html</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -9454,11 +9454,11 @@
       </c>
       <c r="F34" s="51" t="str">
         <f t="shared" si="1"/>
-        <v>PRO1060</v>
+        <v>PRO1050</v>
       </c>
       <c r="G34" s="40" t="str">
-        <f>RESOURCE!E18</f>
-        <v>product/item_model.html</v>
+        <f>RESOURCE!E19</f>
+        <v>product/product_line.html</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -9466,12 +9466,12 @@
         <v>108</v>
       </c>
       <c r="F35" s="51" t="str">
-        <f>E18</f>
-        <v>PRO1070</v>
+        <f t="shared" si="1"/>
+        <v>PRO1060</v>
       </c>
       <c r="G35" s="40" t="str">
-        <f>RESOURCE!E20</f>
-        <v>product/product.html</v>
+        <f>RESOURCE!E18</f>
+        <v>product/item_model.html</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -9483,8 +9483,34 @@
         <v>PRO1070</v>
       </c>
       <c r="G36" s="40" t="str">
+        <f>RESOURCE!E20</f>
+        <v>product/product.html</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="51" t="str">
+        <f>E18</f>
+        <v>PRO1070</v>
+      </c>
+      <c r="G37" s="40" t="str">
         <f>RESOURCE!E21</f>
         <v>product/product_config.html</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="51" t="str">
+        <f>E20</f>
+        <v>FIN1010</v>
+      </c>
+      <c r="G38" s="40" t="str">
+        <f>RESOURCE!E23</f>
+        <v>finance/bank.html</v>
       </c>
     </row>
   </sheetData>
@@ -9498,7 +9524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E762DFEF-3E6B-4E1D-88E4-C51F4783274F}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -9797,7 +9823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C204" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C204" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14131134-B649-47B4-9453-822CD78BB056}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A1EB2-5355-40EA-8E9F-CFAAE512FAE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8597,7 +8597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -9823,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView topLeftCell="C204" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView tabSelected="1" topLeftCell="C141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A1EB2-5355-40EA-8E9F-CFAAE512FAE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F192A-33A3-437C-AF6E-D1813F6F69A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9823,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C141" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="C201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F192A-33A3-437C-AF6E-D1813F6F69A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53905B19-C1C1-402C-AF39-E721D73EF811}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6031,10 +6031,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>documenttype.decription</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>documenttype.documentcategory</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -6502,6 +6498,10 @@
   </si>
   <si>
     <t>City</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>documenttype.description</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -8355,31 +8355,31 @@
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="10" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="K16" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>1120</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="17" spans="5:13">
@@ -8413,10 +8413,10 @@
     </row>
     <row r="18" spans="5:13">
       <c r="E18" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>85</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="23" spans="5:13">
       <c r="E23" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>85</v>
@@ -8573,16 +8573,16 @@
         <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>1140</v>
-      </c>
       <c r="L23" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>1139</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -8754,13 +8754,13 @@
       <c r="C9" s="37"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>106</v>
@@ -8801,13 +8801,13 @@
       <c r="C10" s="37"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>1022</v>
@@ -8891,13 +8891,13 @@
       <c r="C12" s="37"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>1032</v>
@@ -8938,13 +8938,13 @@
       <c r="C13" s="37"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>1033</v>
@@ -8981,16 +8981,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I14" s="40" t="str">
         <f>RESOURCE!E16</f>
@@ -9010,27 +9010,27 @@
         <v>86</v>
       </c>
       <c r="N14" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>1121</v>
-      </c>
       <c r="P14" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>1120</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="E15" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>1022</v>
@@ -9067,13 +9067,13 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>1034</v>
@@ -9110,13 +9110,13 @@
     </row>
     <row r="17" spans="1:17">
       <c r="E17" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>1036</v>
@@ -9153,13 +9153,13 @@
     </row>
     <row r="18" spans="1:17">
       <c r="E18" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>1035</v>
@@ -9196,19 +9196,19 @@
     </row>
     <row r="19" spans="1:17">
       <c r="C19" s="37" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>1132</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="8" t="s">
@@ -9219,34 +9219,34 @@
         <v>10</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="C20" s="37"/>
       <c r="E20" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>1136</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1137</v>
       </c>
       <c r="I20" s="40" t="str">
         <f>RESOURCE!E23</f>
@@ -9263,19 +9263,19 @@
         <v>10</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N20" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>1140</v>
-      </c>
       <c r="P20" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>1139</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -9823,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C201" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" topLeftCell="C132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11896,13 +11896,13 @@
         <v>107</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>1040</v>
+        <v>1158</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="151" spans="5:8">
@@ -11910,7 +11910,7 @@
         <v>107</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1040</v>
+        <v>1158</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>110</v>
@@ -11924,13 +11924,13 @@
         <v>107</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="153" spans="5:8">
@@ -11938,13 +11938,13 @@
         <v>107</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="154" spans="5:8">
@@ -11952,7 +11952,7 @@
         <v>107</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>109</v>
@@ -11966,7 +11966,7 @@
         <v>107</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>110</v>
@@ -11980,13 +11980,13 @@
         <v>107</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="157" spans="5:8">
@@ -11994,13 +11994,13 @@
         <v>107</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="158" spans="5:8">
@@ -12008,13 +12008,13 @@
         <v>107</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="159" spans="5:8">
@@ -12022,13 +12022,13 @@
         <v>107</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="160" spans="5:8">
@@ -12036,13 +12036,13 @@
         <v>107</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="161" spans="5:8">
@@ -12050,13 +12050,13 @@
         <v>107</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="162" spans="5:8">
@@ -12064,13 +12064,13 @@
         <v>107</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="163" spans="5:8">
@@ -12078,13 +12078,13 @@
         <v>107</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="164" spans="5:8">
@@ -12092,13 +12092,13 @@
         <v>107</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="165" spans="5:8">
@@ -12106,13 +12106,13 @@
         <v>107</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G165" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="166" spans="5:8">
@@ -12120,13 +12120,13 @@
         <v>107</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G166" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="167" spans="5:8">
@@ -12134,13 +12134,13 @@
         <v>107</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="168" spans="5:8">
@@ -12148,13 +12148,13 @@
         <v>107</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G168" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="169" spans="5:8">
@@ -12162,13 +12162,13 @@
         <v>107</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G169" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="170" spans="5:8">
@@ -12176,13 +12176,13 @@
         <v>107</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="171" spans="5:8">
@@ -12190,13 +12190,13 @@
         <v>107</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G171" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="172" spans="5:8">
@@ -12204,7 +12204,7 @@
         <v>107</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>109</v>
@@ -12218,13 +12218,13 @@
         <v>107</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -12232,7 +12232,7 @@
         <v>107</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>109</v>
@@ -12246,7 +12246,7 @@
         <v>107</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>110</v>
@@ -12260,13 +12260,13 @@
         <v>107</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -12274,7 +12274,7 @@
         <v>107</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>110</v>
@@ -12288,13 +12288,13 @@
         <v>107</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -12302,13 +12302,13 @@
         <v>107</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -12316,7 +12316,7 @@
         <v>107</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>109</v>
@@ -12330,7 +12330,7 @@
         <v>107</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>110</v>
@@ -12344,7 +12344,7 @@
         <v>107</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>109</v>
@@ -12358,7 +12358,7 @@
         <v>107</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>110</v>
@@ -12372,7 +12372,7 @@
         <v>107</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G184" s="8" t="s">
         <v>109</v>
@@ -12386,7 +12386,7 @@
         <v>107</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>110</v>
@@ -12400,7 +12400,7 @@
         <v>107</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>109</v>
@@ -12414,13 +12414,13 @@
         <v>107</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -12428,7 +12428,7 @@
         <v>107</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>109</v>
@@ -12442,13 +12442,13 @@
         <v>107</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -12456,13 +12456,13 @@
         <v>107</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -12470,13 +12470,13 @@
         <v>107</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="192" spans="5:8">
@@ -12484,13 +12484,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -12498,13 +12498,13 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -12512,13 +12512,13 @@
         <v>107</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="195" spans="5:8">
@@ -12526,13 +12526,13 @@
         <v>107</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="196" spans="5:8">
@@ -12540,13 +12540,13 @@
         <v>107</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G196" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="197" spans="5:8">
@@ -12554,13 +12554,13 @@
         <v>107</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="198" spans="5:8">
@@ -12568,13 +12568,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -12582,13 +12582,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -12596,13 +12596,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -12610,13 +12610,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -12624,13 +12624,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -12638,13 +12638,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -12652,13 +12652,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -12666,13 +12666,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -12680,13 +12680,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -12694,13 +12694,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -12708,13 +12708,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -12722,13 +12722,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -12736,13 +12736,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -12750,13 +12750,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -12764,13 +12764,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -12778,13 +12778,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -12792,13 +12792,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -12806,13 +12806,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -12820,13 +12820,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -12834,13 +12834,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -12848,13 +12848,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -12862,13 +12862,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -12876,13 +12876,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -12890,13 +12890,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53905B19-C1C1-402C-AF39-E721D73EF811}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE9024-2931-4AEE-892C-81D93CEF4C1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1162">
   <si>
     <r>
       <rPr>
@@ -6502,6 +6502,18 @@
   </si>
   <si>
     <t>documenttype.description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemmodel.select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择租赁物模型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Item Model</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -9821,10 +9833,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView topLeftCell="C160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12204,13 +12216,13 @@
         <v>107</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1071</v>
+        <v>1159</v>
       </c>
       <c r="G172" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1014</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="173" spans="5:8">
@@ -12218,13 +12230,13 @@
         <v>107</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1071</v>
+        <v>1159</v>
       </c>
       <c r="G173" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="174" spans="5:8">
@@ -12232,13 +12244,13 @@
         <v>107</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G174" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>964</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="175" spans="5:8">
@@ -12246,13 +12258,13 @@
         <v>107</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>965</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="176" spans="5:8">
@@ -12260,13 +12272,13 @@
         <v>107</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>1083</v>
+        <v>964</v>
       </c>
     </row>
     <row r="177" spans="5:8">
@@ -12274,13 +12286,13 @@
         <v>107</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1019</v>
+        <v>965</v>
       </c>
     </row>
     <row r="178" spans="5:8">
@@ -12288,13 +12300,13 @@
         <v>107</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="179" spans="5:8">
@@ -12302,13 +12314,13 @@
         <v>107</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1085</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="180" spans="5:8">
@@ -12316,13 +12328,13 @@
         <v>107</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>452</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="181" spans="5:8">
@@ -12330,13 +12342,13 @@
         <v>107</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>454</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="182" spans="5:8">
@@ -12344,13 +12356,13 @@
         <v>107</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="5:8">
@@ -12358,13 +12370,13 @@
         <v>107</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="5:8">
@@ -12372,13 +12384,13 @@
         <v>107</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G184" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>964</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="5:8">
@@ -12386,13 +12398,13 @@
         <v>107</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>965</v>
+        <v>455</v>
       </c>
     </row>
     <row r="186" spans="5:8">
@@ -12400,13 +12412,13 @@
         <v>107</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>740</v>
+        <v>964</v>
       </c>
     </row>
     <row r="187" spans="5:8">
@@ -12414,13 +12426,13 @@
         <v>107</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>1086</v>
+        <v>965</v>
       </c>
     </row>
     <row r="188" spans="5:8">
@@ -12428,13 +12440,13 @@
         <v>107</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>492</v>
+        <v>740</v>
       </c>
     </row>
     <row r="189" spans="5:8">
@@ -12442,13 +12454,13 @@
         <v>107</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="190" spans="5:8">
@@ -12456,13 +12468,13 @@
         <v>107</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>1089</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="5:8">
@@ -12470,13 +12482,13 @@
         <v>107</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="192" spans="5:8">
@@ -12484,13 +12496,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -12498,13 +12510,13 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -12512,13 +12524,13 @@
         <v>107</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="195" spans="5:8">
@@ -12526,13 +12538,13 @@
         <v>107</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="196" spans="5:8">
@@ -12540,13 +12552,13 @@
         <v>107</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G196" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="197" spans="5:8">
@@ -12554,13 +12566,13 @@
         <v>107</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="198" spans="5:8">
@@ -12568,13 +12580,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -12582,13 +12594,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -12596,13 +12608,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -12610,13 +12622,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -12624,13 +12636,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -12638,13 +12650,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -12652,13 +12664,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -12666,13 +12678,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -12680,13 +12692,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -12694,13 +12706,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -12708,13 +12720,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -12722,13 +12734,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -12736,13 +12748,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -12750,13 +12762,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1147</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -12764,13 +12776,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -12778,13 +12790,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -12792,13 +12804,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -12806,13 +12818,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -12820,13 +12832,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -12834,13 +12846,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -12848,13 +12860,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -12862,13 +12874,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -12876,13 +12888,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -12890,12 +12902,40 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="222" spans="5:8">
+      <c r="E222" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8">
+      <c r="E223" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H223" s="8" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -17903,8 +17943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B364F-B533-4E89-81E2-C4A6D2ED900B}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE9024-2931-4AEE-892C-81D93CEF4C1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1694E8F-3E47-47B6-9CC9-B72756CE999E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1216">
   <si>
     <r>
       <rPr>
@@ -59,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -91,7 +90,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -110,7 +108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -129,7 +126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -180,7 +176,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -199,7 +194,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -218,7 +212,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -241,7 +234,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -262,7 +254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -284,7 +275,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -305,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -336,7 +325,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -367,7 +355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -386,7 +373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -405,7 +391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -424,7 +409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -443,7 +427,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -472,7 +455,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -491,7 +473,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -510,7 +491,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -529,7 +509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -560,7 +539,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -579,7 +557,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -598,7 +575,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -618,7 +594,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -637,7 +612,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -657,7 +631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -688,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -707,7 +679,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -731,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -750,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -769,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -788,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -807,7 +774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -838,7 +804,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -869,7 +834,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -900,7 +864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -919,7 +882,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -943,7 +905,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -962,7 +923,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -981,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -1001,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1021,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1041,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1062,7 +1018,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1082,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1098,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1119,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1150,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1169,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1190,7 +1140,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1222,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1241,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1260,7 +1207,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1294,7 +1240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1313,7 +1258,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1332,7 +1276,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1351,7 +1294,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1396,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1441,7 +1382,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1475,7 +1415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1494,7 +1433,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1513,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1533,7 +1470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1557,7 +1493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1576,7 +1511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1595,7 +1529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1615,7 +1548,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1669,7 +1601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1688,7 +1619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1707,7 +1637,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1727,7 +1656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1746,7 +1674,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1765,7 +1692,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1784,7 +1710,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1804,7 +1729,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1823,7 +1747,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1842,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1861,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1926,7 +1847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1957,7 +1877,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1976,7 +1895,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2007,7 +1925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">url </t>
     </r>
@@ -2068,7 +1985,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3329,7 +3245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -3339,7 +3254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>TART_VALUE</t>
     </r>
@@ -3351,7 +3265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
@@ -3361,7 +3274,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>URRENT_VALUE</t>
     </r>
@@ -3373,7 +3285,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3383,7 +3294,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>ESET_FREQUENCY</t>
     </r>
@@ -3395,7 +3305,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3405,7 +3314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>ESET_DATE</t>
     </r>
@@ -5547,7 +5455,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5566,7 +5473,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -6514,6 +6420,243 @@
   </si>
   <si>
     <t>Select Item Model</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARIABLE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>${company}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEVER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OV_BANK</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_BANK</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行LOV</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankId</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankMapper.selectBank</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>fullName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.fullname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.city</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eft</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.province</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank.paybanknumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>payBankNumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_CUSTOMER</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择客商</t>
+  </si>
+  <si>
+    <t>customerId</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer.customerName</t>
+  </si>
+  <si>
+    <t>customer.customerName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_ITEM_MODEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">租赁物模型LOV </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerMapper.selectCustomer</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemModelMapper.select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelId</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>itemmodel.select</t>
+  </si>
+  <si>
+    <t>itemmodel.color</t>
+  </si>
+  <si>
+    <t>itemmodel.model</t>
+  </si>
+  <si>
+    <t>itemmodel.series</t>
+  </si>
+  <si>
+    <t>itemmodel.brand</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>customer.telphone</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer.idNo</t>
+  </si>
+  <si>
+    <t>telphone</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>idNo</t>
+  </si>
+  <si>
+    <t>product.version</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -6524,7 +6667,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6543,13 +6686,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6562,27 +6704,23 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6602,7 +6740,6 @@
       <b/>
       <sz val="12"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6622,7 +6759,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6683,14 +6819,17 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9833,10 +9972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView topLeftCell="C160" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12496,13 +12635,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1081</v>
+        <v>1213</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1089</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -12510,13 +12649,13 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1081</v>
+        <v>1213</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1088</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -12524,13 +12663,13 @@
         <v>107</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="195" spans="5:8">
@@ -12538,13 +12677,13 @@
         <v>107</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="196" spans="5:8">
@@ -12552,13 +12691,13 @@
         <v>107</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="G196" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="197" spans="5:8">
@@ -12566,13 +12705,13 @@
         <v>107</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="198" spans="5:8">
@@ -12580,13 +12719,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -12594,13 +12733,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -12608,13 +12747,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -12622,13 +12761,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -12636,13 +12775,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -12650,13 +12789,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -12664,13 +12803,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -12678,13 +12817,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -12692,13 +12831,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -12706,13 +12845,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -12720,13 +12859,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -12734,13 +12873,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -12748,13 +12887,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -12762,13 +12901,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -12776,13 +12915,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -12790,13 +12929,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1147</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -12804,13 +12943,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -12818,13 +12957,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -12832,13 +12971,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -12846,13 +12985,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -12860,13 +12999,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -12874,13 +13013,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -12888,13 +13027,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -12902,13 +13041,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -12916,13 +13055,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -12930,12 +13069,40 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8">
+      <c r="E224" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="E225" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H225" s="8" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -17941,18 +18108,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B364F-B533-4E89-81E2-C4A6D2ED900B}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.78515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
@@ -17961,8 +18128,9 @@
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.92578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="20" width="10.42578125" customWidth="1"/>
@@ -18060,107 +18228,682 @@
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="D8" s="47" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L8">
+        <v>600</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A10" s="9">
+      <c r="D9" s="47" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L9">
+        <v>600</v>
+      </c>
+      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="47" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L10">
+        <v>800</v>
+      </c>
+      <c r="M10">
+        <v>300</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A12" s="9">
         <v>43189</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E12" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F12" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G12" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H12" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I12" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J12" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K12" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L12" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M12" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P12" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q12" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R12" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="S10" s="43" t="s">
+      <c r="S12" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="T10" s="43" t="s">
+      <c r="T12" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="U10" s="43" t="s">
+      <c r="U12" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="V10" s="43" t="s">
+      <c r="V12" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W12" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="X10" s="43" t="s">
+      <c r="X12" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="Y10" s="43" t="s">
+      <c r="Y12" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="Z10" s="43" t="s">
+      <c r="Z12" s="43" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="E13" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F13" t="str">
+        <f>$E$8</f>
+        <v>LOV_BANK</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z13" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="E14" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ref="F14:F16" si="0">$E$8</f>
+        <v>LOV_BANK</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z14" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="E15" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>LOV_BANK</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z15" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="E16" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>LOV_BANK</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>200</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z16" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="17" spans="5:26">
+      <c r="E17" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F17" t="str">
+        <f>$E$9</f>
+        <v>LOV_CUSTOMER</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Y17" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z17" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="18" spans="5:26">
+      <c r="E18" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" ref="F18:F19" si="1">$E$9</f>
+        <v>LOV_CUSTOMER</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z18" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="19" spans="5:26">
+      <c r="E19" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>LOV_CUSTOMER</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>80</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z19" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="20" spans="5:26">
+      <c r="E20" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F20" t="str">
+        <f>$E$10</f>
+        <v>LOV_ITEM_MODEL</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Y20" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z20" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="21" spans="5:26">
+      <c r="E21" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" ref="F21:F23" si="2">$E$10</f>
+        <v>LOV_ITEM_MODEL</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z21" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="22" spans="5:26">
+      <c r="E22" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>LOV_ITEM_MODEL</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>150</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z22" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="23" spans="5:26">
+      <c r="E23" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>LOV_ITEM_MODEL</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="37" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Z23" s="37" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -18172,10 +18915,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B714D549-EFBE-43BB-889A-74423BE2B1C3}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -18303,98 +19046,84 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="D14" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G14" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I14" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="40" t="str">
-        <f>E8</f>
-        <v>CUSTOMER</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8">
-        <v>3</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="40" t="str">
-        <f>E8</f>
-        <v>CUSTOMER</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" s="10" t="s">
@@ -18405,13 +19134,24 @@
         <v>CUSTOMER</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I15">
+        <v>390</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
+        <v>4</v>
+      </c>
+      <c r="L15">
         <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -18419,125 +19159,254 @@
         <v>107</v>
       </c>
       <c r="F16" s="40" t="str">
+        <f>E8</f>
+        <v>CUSTOMER</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="40" t="str">
+        <f>E8</f>
+        <v>CUSTOMER</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="40" t="str">
         <f>$E$9</f>
         <v>CAR</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:14">
-      <c r="E17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="40" t="str">
-        <f t="shared" ref="F17:F18" si="0">$E$9</f>
+    <row r="19" spans="5:14">
+      <c r="E19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="40" t="str">
+        <f t="shared" ref="F19:F20" si="0">$E$9</f>
         <v>CAR</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J19" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="5:14">
-      <c r="E18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="40" t="str">
+    <row r="20" spans="5:14">
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>CAR</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N20" s="37" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="40" t="str">
+    <row r="21" spans="5:14">
+      <c r="E21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="40" t="str">
         <f>$E$10</f>
         <v>ORDER</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H21" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="40" t="str">
-        <f t="shared" ref="F20:F21" si="1">$E$10</f>
+    <row r="22" spans="5:14">
+      <c r="E22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="40" t="str">
+        <f t="shared" ref="F22" si="1">$E$10</f>
         <v>ORDER</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J22" s="37" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="40" t="str">
-        <f t="shared" si="1"/>
+    <row r="23" spans="5:14">
+      <c r="E23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="40" t="str">
+        <f>$E$10</f>
         <v>ORDER</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>1</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N23" s="37" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="40" t="str">
+        <f>$E$11</f>
+        <v>PRODUCT</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="40" t="str">
+        <f>$E$11</f>
+        <v>PRODUCT</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="40" t="str">
+        <f>$E$12</f>
+        <v>COMPANY</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="40" t="str">
+        <f>$E$12</f>
+        <v>COMPANY</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>100001</v>
+      </c>
+      <c r="M27">
+        <v>100001</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1694E8F-3E47-47B6-9CC9-B72756CE999E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7E96E-738D-40BA-BF2B-9A10BC0DDDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1219">
   <si>
     <r>
       <rPr>
@@ -6657,6 +6657,18 @@
   </si>
   <si>
     <t>Version</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.editor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编辑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Edit</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -9972,10 +9984,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12719,13 +12731,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1093</v>
+        <v>1216</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1101</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -12733,13 +12745,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1093</v>
+        <v>1216</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1102</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -12747,13 +12759,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -12761,13 +12773,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -12775,13 +12787,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -12789,13 +12801,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -12803,13 +12815,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -12817,13 +12829,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -12831,13 +12843,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -12845,13 +12857,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -12859,13 +12871,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -12873,13 +12885,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -12887,13 +12899,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -12901,13 +12913,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -12915,13 +12927,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -12929,13 +12941,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -12943,13 +12955,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -12957,13 +12969,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1147</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -12971,13 +12983,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -12985,13 +12997,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -12999,13 +13011,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -13013,13 +13025,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -13027,13 +13039,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -13041,13 +13053,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -13055,13 +13067,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -13069,13 +13081,13 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -13083,13 +13095,13 @@
         <v>107</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -13097,12 +13109,40 @@
         <v>107</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="E226" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="E227" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H227" s="8" t="s">
         <v>1157</v>
       </c>
     </row>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7E96E-738D-40BA-BF2B-9A10BC0DDDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F09D19-C4A2-48FC-AE9E-1CB8B378D498}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="1254">
   <si>
     <r>
       <rPr>
@@ -59,6 +59,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -90,6 +91,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -108,6 +110,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -126,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -176,6 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -194,6 +199,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -212,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -234,6 +241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -254,6 +262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -275,6 +284,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -295,6 +305,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -325,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -355,6 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -373,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -391,6 +405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -409,6 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -427,6 +443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -455,6 +472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -473,6 +491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -491,6 +510,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -509,6 +529,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -539,6 +560,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -557,6 +579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -575,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -594,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -612,6 +637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -631,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -661,6 +688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -679,6 +707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -702,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -720,6 +750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -738,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -756,6 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -774,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -804,6 +838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -834,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -864,6 +900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -882,6 +919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -905,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -923,6 +962,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -941,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -960,6 +1001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -979,6 +1021,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -998,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1018,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1037,6 +1082,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1052,6 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1072,6 +1119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1102,6 +1150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1120,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1140,6 +1190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1222,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1207,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1240,6 +1294,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1258,6 +1313,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1276,6 +1332,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1294,6 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1338,6 +1396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1382,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1415,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1433,6 +1494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1451,6 +1513,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1470,6 +1533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1493,6 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1511,6 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1529,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1548,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1601,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1619,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1637,6 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1656,6 +1727,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1674,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1692,6 +1765,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1710,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1729,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1747,6 +1823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1765,6 +1842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1783,6 +1861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1847,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1877,6 +1957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1895,6 +1976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1925,6 +2007,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">url </t>
     </r>
@@ -1985,6 +2068,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3245,6 +3329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -3254,6 +3339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>TART_VALUE</t>
     </r>
@@ -3265,6 +3351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
@@ -3274,6 +3361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>URRENT_VALUE</t>
     </r>
@@ -3285,6 +3373,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3294,6 +3383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>ESET_FREQUENCY</t>
     </r>
@@ -3305,6 +3395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3314,6 +3405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>ESET_DATE</t>
     </r>
@@ -5455,6 +5547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5473,6 +5566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -6669,6 +6763,146 @@
   </si>
   <si>
     <t>Product Edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.configtype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.columnname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.columncode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.datatype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.systemflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.prompt</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.displayflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.displayorder</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.requireflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.readonlyflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.precision</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.defaultvalue</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>简码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统标志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示标志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Flag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必输标志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Require Flag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读标志</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Value</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -6704,6 +6938,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6716,23 +6951,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6752,6 +6991,7 @@
       <b/>
       <sz val="12"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6771,6 +7011,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6831,17 +7072,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9984,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12759,13 +13003,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1093</v>
+        <v>1219</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1101</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -12773,13 +13017,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1093</v>
+        <v>1219</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1102</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -12787,13 +13031,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1094</v>
+        <v>1220</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1103</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -12801,13 +13045,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1094</v>
+        <v>1220</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1104</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -12815,13 +13059,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1095</v>
+        <v>1221</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1105</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -12829,13 +13073,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1095</v>
+        <v>1221</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1106</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -12843,13 +13087,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1096</v>
+        <v>1222</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1107</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -12857,13 +13101,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1096</v>
+        <v>1222</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1108</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -12871,13 +13115,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1097</v>
+        <v>1223</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1109</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -12885,13 +13129,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1097</v>
+        <v>1223</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1110</v>
+        <v>991</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -12899,13 +13143,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1098</v>
+        <v>1224</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1111</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -12913,13 +13157,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1098</v>
+        <v>1224</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1112</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -12927,13 +13171,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1099</v>
+        <v>1225</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1113</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -12941,13 +13185,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1099</v>
+        <v>1225</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1114</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -12955,13 +13199,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1100</v>
+        <v>1226</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1115</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -12969,13 +13213,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1100</v>
+        <v>1226</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1116</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -12983,13 +13227,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1140</v>
+        <v>1227</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1146</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -12997,13 +13241,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1140</v>
+        <v>1227</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1147</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -13011,13 +13255,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1141</v>
+        <v>1228</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1148</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -13025,13 +13269,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1141</v>
+        <v>1228</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1149</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -13039,13 +13283,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1142</v>
+        <v>1229</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1150</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -13053,13 +13297,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1142</v>
+        <v>1229</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1151</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -13067,13 +13311,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1143</v>
+        <v>1230</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1152</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -13081,13 +13325,13 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1143</v>
+        <v>1230</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>1153</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -13095,13 +13339,13 @@
         <v>107</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1144</v>
+        <v>1093</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1154</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -13109,13 +13353,13 @@
         <v>107</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1144</v>
+        <v>1093</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
-        <v>1155</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -13123,13 +13367,13 @@
         <v>107</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1145</v>
+        <v>1094</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>1156</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -13137,12 +13381,348 @@
         <v>107</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>1145</v>
+        <v>1094</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H227" s="8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="E228" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="E229" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="230" spans="5:8">
+      <c r="E230" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="231" spans="5:8">
+      <c r="E231" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="E232" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="E233" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="E234" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="E235" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="E236" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="237" spans="5:8">
+      <c r="E237" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="238" spans="5:8">
+      <c r="E238" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="239" spans="5:8">
+      <c r="E239" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="240" spans="5:8">
+      <c r="E240" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="241" spans="5:8">
+      <c r="E241" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="242" spans="5:8">
+      <c r="E242" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F242" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H242" s="8" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="243" spans="5:8">
+      <c r="E243" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="244" spans="5:8">
+      <c r="E244" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="245" spans="5:8">
+      <c r="E245" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="246" spans="5:8">
+      <c r="E246" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="247" spans="5:8">
+      <c r="E247" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="248" spans="5:8">
+      <c r="E248" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="249" spans="5:8">
+      <c r="E249" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="250" spans="5:8">
+      <c r="E250" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="251" spans="5:8">
+      <c r="E251" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H251" s="8" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -13158,7 +13738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C15EE9-CCDA-450A-AB8E-618745B613EA}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView topLeftCell="B218" workbookViewId="0">
+    <sheetView topLeftCell="B194" workbookViewId="0">
       <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F09D19-C4A2-48FC-AE9E-1CB8B378D498}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6DDD8-A5C3-4618-9EC1-9996289E3552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="1278">
   <si>
     <r>
       <rPr>
@@ -6903,6 +6903,102 @@
   </si>
   <si>
     <t>Default Value</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/product_formula.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品表达式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Formula</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro/product/getColumns</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取表字段</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>get Table Columns</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.formula</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formula</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.matrixtype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.matrixinitial</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.matrixinterval</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.calcseq</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.calcformula</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix Initial</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix Interval</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate Sequence</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate Formula</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>步长</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行顺序</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算公式</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -8426,10 +8522,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8936,42 +9032,42 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" s="10" t="s">
-        <v>1021</v>
+        <v>1254</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1021</v>
+        <v>1254</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>1002</v>
+        <v>86</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>1002</v>
+        <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>1023</v>
+        <v>1255</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1024</v>
+        <v>1256</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1023</v>
+        <v>1255</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>1024</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" s="10" t="s">
-        <v>1137</v>
+        <v>1257</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1137</v>
+        <v>1257</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>86</v>
@@ -8980,15 +9076,73 @@
         <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -9002,10 +9156,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9220,7 +9374,7 @@
         <v>1022</v>
       </c>
       <c r="I10" s="40" t="str">
-        <f>RESOURCE!E22</f>
+        <f>RESOURCE!E24</f>
         <v>customer/account.html</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -9656,7 +9810,7 @@
         <v>1136</v>
       </c>
       <c r="I20" s="40" t="str">
-        <f>RESOURCE!E23</f>
+        <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -9799,7 +9953,7 @@
         <v>CUS1020</v>
       </c>
       <c r="G29" s="40" t="str">
-        <f>RESOURCE!E22</f>
+        <f>RESOURCE!E24</f>
         <v>customer/account.html</v>
       </c>
     </row>
@@ -9886,7 +10040,7 @@
         <v>108</v>
       </c>
       <c r="F36" s="51" t="str">
-        <f>E18</f>
+        <f>$E$18</f>
         <v>PRO1070</v>
       </c>
       <c r="G36" s="40" t="str">
@@ -9899,7 +10053,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="51" t="str">
-        <f>E18</f>
+        <f t="shared" ref="F37:F39" si="2">$E$18</f>
         <v>PRO1070</v>
       </c>
       <c r="G37" s="40" t="str">
@@ -9912,11 +10066,37 @@
         <v>108</v>
       </c>
       <c r="F38" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G38" s="40" t="str">
+        <f>RESOURCE!E22</f>
+        <v>product/product_formula.html</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G39" s="40" t="str">
+        <f>RESOURCE!E23</f>
+        <v>pro/product/getColumns</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="51" t="str">
         <f>E20</f>
         <v>FIN1010</v>
       </c>
-      <c r="G38" s="40" t="str">
-        <f>RESOURCE!E23</f>
+      <c r="G40" s="40" t="str">
+        <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
     </row>
@@ -10228,10 +10408,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="C219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13003,13 +13183,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1219</v>
+        <v>1260</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1231</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -13017,13 +13197,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1219</v>
+        <v>1260</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1232</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -13031,13 +13211,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -13045,13 +13225,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -13059,13 +13239,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -13073,13 +13253,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -13087,13 +13267,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -13101,13 +13281,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -13115,13 +13295,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -13129,13 +13309,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>991</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -13143,13 +13323,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -13157,13 +13337,13 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1241</v>
+        <v>991</v>
       </c>
     </row>
     <row r="212" spans="5:8">
@@ -13171,13 +13351,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -13185,13 +13365,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -13199,13 +13379,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -13213,13 +13393,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -13227,13 +13407,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -13241,13 +13421,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -13255,13 +13435,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -13269,13 +13449,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -13283,13 +13463,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -13297,13 +13477,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -13311,13 +13491,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -13325,13 +13505,13 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -13339,13 +13519,13 @@
         <v>107</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1093</v>
+        <v>1230</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1101</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -13353,13 +13533,13 @@
         <v>107</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1093</v>
+        <v>1230</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
-        <v>1102</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -13367,13 +13547,13 @@
         <v>107</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1094</v>
+        <v>1263</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>1103</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -13381,13 +13561,13 @@
         <v>107</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>1094</v>
+        <v>1263</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>1104</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="228" spans="5:8">
@@ -13395,13 +13575,13 @@
         <v>107</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>1095</v>
+        <v>1264</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>1105</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="229" spans="5:8">
@@ -13409,13 +13589,13 @@
         <v>107</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>1095</v>
+        <v>1264</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>1106</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="230" spans="5:8">
@@ -13423,13 +13603,13 @@
         <v>107</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>1096</v>
+        <v>1265</v>
       </c>
       <c r="G230" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>1107</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="231" spans="5:8">
@@ -13437,13 +13617,13 @@
         <v>107</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>1096</v>
+        <v>1265</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>1108</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="232" spans="5:8">
@@ -13451,13 +13631,13 @@
         <v>107</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>1097</v>
+        <v>1266</v>
       </c>
       <c r="G232" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>1109</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="233" spans="5:8">
@@ -13465,13 +13645,13 @@
         <v>107</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>1097</v>
+        <v>1266</v>
       </c>
       <c r="G233" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H233" s="8" t="s">
-        <v>1110</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="234" spans="5:8">
@@ -13479,13 +13659,13 @@
         <v>107</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>1098</v>
+        <v>1267</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H234" s="8" t="s">
-        <v>1111</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -13493,13 +13673,13 @@
         <v>107</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>1098</v>
+        <v>1267</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>1112</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="236" spans="5:8">
@@ -13507,13 +13687,13 @@
         <v>107</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G236" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H236" s="8" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="237" spans="5:8">
@@ -13521,13 +13701,13 @@
         <v>107</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="G237" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H237" s="8" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="238" spans="5:8">
@@ -13535,13 +13715,13 @@
         <v>107</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H238" s="8" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="239" spans="5:8">
@@ -13549,13 +13729,13 @@
         <v>107</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="G239" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H239" s="8" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="240" spans="5:8">
@@ -13563,13 +13743,13 @@
         <v>107</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>1140</v>
+        <v>1095</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H240" s="8" t="s">
-        <v>1146</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="241" spans="5:8">
@@ -13577,13 +13757,13 @@
         <v>107</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>1140</v>
+        <v>1095</v>
       </c>
       <c r="G241" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H241" s="8" t="s">
-        <v>1147</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="242" spans="5:8">
@@ -13591,13 +13771,13 @@
         <v>107</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>1141</v>
+        <v>1096</v>
       </c>
       <c r="G242" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H242" s="8" t="s">
-        <v>1148</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="243" spans="5:8">
@@ -13605,13 +13785,13 @@
         <v>107</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>1141</v>
+        <v>1096</v>
       </c>
       <c r="G243" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H243" s="8" t="s">
-        <v>1149</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="244" spans="5:8">
@@ -13619,13 +13799,13 @@
         <v>107</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>1142</v>
+        <v>1097</v>
       </c>
       <c r="G244" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H244" s="8" t="s">
-        <v>1150</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="245" spans="5:8">
@@ -13633,13 +13813,13 @@
         <v>107</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>1142</v>
+        <v>1097</v>
       </c>
       <c r="G245" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H245" s="8" t="s">
-        <v>1151</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="246" spans="5:8">
@@ -13647,13 +13827,13 @@
         <v>107</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>1143</v>
+        <v>1098</v>
       </c>
       <c r="G246" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H246" s="8" t="s">
-        <v>1152</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="247" spans="5:8">
@@ -13661,13 +13841,13 @@
         <v>107</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>1143</v>
+        <v>1098</v>
       </c>
       <c r="G247" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H247" s="8" t="s">
-        <v>1153</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="248" spans="5:8">
@@ -13675,13 +13855,13 @@
         <v>107</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>1144</v>
+        <v>1099</v>
       </c>
       <c r="G248" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H248" s="8" t="s">
-        <v>1154</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="249" spans="5:8">
@@ -13689,13 +13869,13 @@
         <v>107</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>1144</v>
+        <v>1099</v>
       </c>
       <c r="G249" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>1155</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="250" spans="5:8">
@@ -13703,13 +13883,13 @@
         <v>107</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>1145</v>
+        <v>1100</v>
       </c>
       <c r="G250" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>1156</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="251" spans="5:8">
@@ -13717,12 +13897,180 @@
         <v>107</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>1145</v>
+        <v>1100</v>
       </c>
       <c r="G251" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H251" s="8" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="252" spans="5:8">
+      <c r="E252" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="253" spans="5:8">
+      <c r="E253" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="254" spans="5:8">
+      <c r="E254" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="255" spans="5:8">
+      <c r="E255" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="256" spans="5:8">
+      <c r="E256" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G256" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="257" spans="5:8">
+      <c r="E257" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="258" spans="5:8">
+      <c r="E258" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="259" spans="5:8">
+      <c r="E259" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="260" spans="5:8">
+      <c r="E260" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H260" s="8" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="261" spans="5:8">
+      <c r="E261" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="262" spans="5:8">
+      <c r="E262" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="263" spans="5:8">
+      <c r="E263" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H263" s="8" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -13738,8 +14086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C15EE9-CCDA-450A-AB8E-618745B613EA}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView topLeftCell="B194" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6DDD8-A5C3-4618-9EC1-9996289E3552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30592E6E-7457-4C0A-964E-B8EAF6CBF1FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10410,7 +10410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
@@ -19885,8 +19885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B714D549-EFBE-43BB-889A-74423BE2B1C3}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20304,18 +20304,7 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>1170</v>
-      </c>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="10" t="s">
@@ -20330,6 +20319,18 @@
       </c>
       <c r="I25">
         <v>2</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="26" spans="5:14">

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30592E6E-7457-4C0A-964E-B8EAF6CBF1FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F73A0-0CF6-459C-B4F3-3EA625F12E50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1468">
   <si>
     <r>
       <rPr>
@@ -6569,22 +6569,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OV_BANK</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>LOV_BANK</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7001,6 +6985,783 @@
     <t>计算公式</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>评估信息添加</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Evaluate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估信息添加</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估信息查询</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate Query</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_evaluate.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>afd/item/evaluate/selectByItemId/{itemId}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-area-chart</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.annualdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.annualdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.cartype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.drivingdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.drivingdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标识</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Flag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.enginenumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.enginenumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机号</t>
+  </si>
+  <si>
+    <t>Engine Number</t>
+  </si>
+  <si>
+    <t>Guide Price</t>
+  </si>
+  <si>
+    <t>车内颜色</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>发票价格</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice Price</t>
+  </si>
+  <si>
+    <t>车辆钥匙</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Line Code</t>
+  </si>
+  <si>
+    <t>抵押详情</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loan Remark</t>
+  </si>
+  <si>
+    <t>借款情况</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>里程数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Outside Color</t>
+  </si>
+  <si>
+    <t>出厂日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>emark</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>车架号</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合评分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.compositescore</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Composite Score</t>
+  </si>
+  <si>
+    <t>itemevaluate.configscore</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>车配置评分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config Score</t>
+  </si>
+  <si>
+    <t>评估价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.evaluateprice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluate Price</t>
+  </si>
+  <si>
+    <t>评估类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation Date</t>
+  </si>
+  <si>
+    <t>评估人</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>车体内部评分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsideScore</t>
+  </si>
+  <si>
+    <t>车体外部评分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutsideScore</t>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>车骨架评分</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeleton Score</t>
+  </si>
+  <si>
+    <t>Trade Price</t>
+  </si>
+  <si>
+    <t>产品线描述</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productline.select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 年检日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.cartype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶证登记日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.enabledflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inside Color</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>车体颜色</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行交易价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择产品线</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Manage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productline.descrption</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITM1010</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物管理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Manage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.guideprice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.insidecolor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.insurance</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.invoiceprice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.key</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.license</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.linecode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.loanremark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.loantype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.mileage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.model</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.outsidecolor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.releasedate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.remark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.vin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.enabledflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.evaluatetype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.evaluationdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.evaluator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.insidescore</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.outsidescore</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.remark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.skeletonscore</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemevaluate.tradeprice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitassign.unitid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitassign.startdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期从</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitassign.enddate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期至</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>End Date</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitassign.enabledflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标识</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Flag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/good.html</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/good.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品展示</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good View</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1080</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-empire</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Fview</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.goodname</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.companyid</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司描述</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.documentcategory</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类别</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.documenttype</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.productcode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Code</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Description</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.unitprice</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品单价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.totalnumber</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Number</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.totalamount</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品总额度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Amount</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.surplusamount</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余额度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surplus Amount</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.enabledflag</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.startdate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>good.enddate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标识</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期从</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期至</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/unit_assign.html</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/unit_assign.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构分配</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit Assign</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro/unit/assign/selectByproductCode/{productCode}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分配机构查找</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitAssign Select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7009,7 +7770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7183,6 +7944,11 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7321,7 +8087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7434,6 +8200,7 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7801,9 +8568,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.2109375" style="16" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.2109375" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
@@ -7813,16 +8580,16 @@
     <col min="11" max="11" width="19.140625" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -7831,21 +8598,21 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -7954,11 +8721,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="8" t="s">
@@ -7996,19 +8763,19 @@
       <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="36" t="s">
@@ -8032,10 +8799,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D71624E-2A17-4576-9C6D-6D37C89837EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -8522,10 +9289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:M23"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9032,10 +9799,10 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" s="10" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -9047,24 +9814,24 @@
         <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>1256</v>
-      </c>
       <c r="L22" s="8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>1255</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>92</v>
@@ -9076,16 +9843,16 @@
         <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>1258</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>1259</v>
-      </c>
       <c r="L23" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>1258</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="24" spans="5:13">
@@ -9144,6 +9911,180 @@
       </c>
       <c r="M25" s="8" t="s">
         <v>1139</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="E26" s="10" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="E27" s="10" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="E28" s="10" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="E29" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="E30" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -9156,15 +10097,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.2109375" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
@@ -9173,7 +10114,7 @@
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="32.140625" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.2109375" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
@@ -9756,153 +10697,250 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="C19" s="37" t="s">
-        <v>1130</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>1131</v>
+        <v>1421</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1131</v>
+        <v>1027</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1131</v>
+        <v>1421</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I19" s="40"/>
+        <v>1422</v>
+      </c>
+      <c r="I19" s="40" t="str">
+        <f>RESOURCE!E29</f>
+        <v>product/good.html</v>
+      </c>
       <c r="J19" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="str">
+        <f>E11</f>
+        <v>PRODUCT</v>
+      </c>
       <c r="L19" s="8">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1118</v>
+        <v>86</v>
       </c>
       <c r="N19" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="C20" s="37" t="s">
         <v>1130</v>
       </c>
-      <c r="O19" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="C20" s="37"/>
       <c r="E20" s="8" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>1131</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
+        <v>10</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="C21" s="37"/>
+      <c r="E21" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="F21" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="I20" s="40" t="str">
+      <c r="I21" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="K20" s="8" t="str">
-        <f>E19</f>
+      <c r="K21" s="8" t="str">
+        <f>E20</f>
         <v>FINANCE</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L21" s="8">
         <v>10</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O21" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P21" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q21" s="8" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="39"/>
-      <c r="B21" s="37"/>
-    </row>
     <row r="22" spans="1:17">
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
+        <v>25</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="E23" s="56" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I23" s="51" t="str">
+        <f>RESOURCE!E28</f>
+        <v>item/item.html</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K23" s="8" t="str">
+        <f>E22</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L23" s="8">
+        <v>10</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="D24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="9">
+    <row r="25" spans="1:17">
+      <c r="A25" s="9">
         <v>43187</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C25" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="40" t="str">
+      <c r="F25" s="40" t="str">
         <f>$E$9</f>
         <v>CUS1010</v>
       </c>
-      <c r="G23" s="40" t="str">
+      <c r="G25" s="40" t="str">
         <f>RESOURCE!E8</f>
         <v>customer/customer.html</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="E24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="40" t="str">
-        <f>$E$9</f>
-        <v>CUS1010</v>
-      </c>
-      <c r="G24" s="40" t="str">
-        <f>RESOURCE!E9</f>
-        <v>afd/customer/query</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="E25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="40" t="str">
-        <f t="shared" ref="F25" si="0">$E$9</f>
-        <v>CUS1010</v>
-      </c>
-      <c r="G25" s="40" t="str">
-        <f>RESOURCE!E10</f>
-        <v>afd/customer/remove</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -9914,8 +10952,8 @@
         <v>CUS1010</v>
       </c>
       <c r="G26" s="40" t="str">
-        <f>RESOURCE!E11</f>
-        <v>afd/customer/submit</v>
+        <f>RESOURCE!E9</f>
+        <v>afd/customer/query</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -9923,12 +10961,12 @@
         <v>108</v>
       </c>
       <c r="F27" s="40" t="str">
-        <f>$E$9</f>
+        <f t="shared" ref="F27" si="0">$E$9</f>
         <v>CUS1010</v>
       </c>
       <c r="G27" s="40" t="str">
-        <f>RESOURCE!E12</f>
-        <v>common/childCode</v>
+        <f>RESOURCE!E10</f>
+        <v>afd/customer/remove</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -9940,34 +10978,34 @@
         <v>CUS1010</v>
       </c>
       <c r="G28" s="40" t="str">
-        <f>RESOURCE!E13</f>
-        <v>sys/attachment/category/queryTree</v>
+        <f>RESOURCE!E11</f>
+        <v>afd/customer/submit</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="E29" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="51" t="str">
-        <f>E10</f>
-        <v>CUS1020</v>
+      <c r="F29" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G29" s="40" t="str">
-        <f>RESOURCE!E24</f>
-        <v>customer/account.html</v>
+        <f>RESOURCE!E12</f>
+        <v>common/childCode</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="E30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="51" t="str">
-        <f>E12</f>
-        <v>PRO1010</v>
+      <c r="F30" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G30" s="40" t="str">
-        <f>RESOURCE!E14</f>
-        <v>product/business_type.html</v>
+        <f>RESOURCE!E13</f>
+        <v>sys/attachment/category/queryTree</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -9975,12 +11013,12 @@
         <v>108</v>
       </c>
       <c r="F31" s="51" t="str">
-        <f>E13</f>
-        <v>PRO1020</v>
+        <f>E10</f>
+        <v>CUS1020</v>
       </c>
       <c r="G31" s="40" t="str">
-        <f>RESOURCE!E15</f>
-        <v>product/cashflow_type.html</v>
+        <f>RESOURCE!E24</f>
+        <v>customer/account.html</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -9988,117 +11026,231 @@
         <v>108</v>
       </c>
       <c r="F32" s="51" t="str">
+        <f>E12</f>
+        <v>PRO1010</v>
+      </c>
+      <c r="G32" s="40" t="str">
+        <f>RESOURCE!E14</f>
+        <v>product/business_type.html</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="E33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="51" t="str">
+        <f>E13</f>
+        <v>PRO1020</v>
+      </c>
+      <c r="G33" s="40" t="str">
+        <f>RESOURCE!E15</f>
+        <v>product/cashflow_type.html</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="E34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="51" t="str">
         <f>E14</f>
         <v>PRO1030</v>
       </c>
-      <c r="G32" s="40" t="str">
+      <c r="G34" s="40" t="str">
         <f>RESOURCE!E16</f>
         <v>product/document_category.html</v>
       </c>
     </row>
-    <row r="33" spans="5:7">
-      <c r="E33" s="10" t="s">
+    <row r="35" spans="1:10">
+      <c r="E35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="51" t="str">
-        <f t="shared" ref="F33:F35" si="1">E15</f>
+      <c r="F35" s="51" t="str">
+        <f t="shared" ref="F35:F37" si="1">E15</f>
         <v>PRO1040</v>
       </c>
-      <c r="G33" s="40" t="str">
+      <c r="G35" s="40" t="str">
         <f>RESOURCE!E17</f>
         <v>product/document_type.html</v>
       </c>
     </row>
-    <row r="34" spans="5:7">
-      <c r="E34" s="10" t="s">
+    <row r="36" spans="1:10">
+      <c r="E36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="51" t="str">
+      <c r="F36" s="51" t="str">
         <f t="shared" si="1"/>
         <v>PRO1050</v>
       </c>
-      <c r="G34" s="40" t="str">
+      <c r="G36" s="40" t="str">
         <f>RESOURCE!E19</f>
         <v>product/product_line.html</v>
       </c>
     </row>
-    <row r="35" spans="5:7">
-      <c r="E35" s="10" t="s">
+    <row r="37" spans="1:10">
+      <c r="E37" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="51" t="str">
+      <c r="F37" s="51" t="str">
         <f t="shared" si="1"/>
         <v>PRO1060</v>
       </c>
-      <c r="G35" s="40" t="str">
+      <c r="G37" s="40" t="str">
         <f>RESOURCE!E18</f>
         <v>product/item_model.html</v>
       </c>
     </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="10" t="s">
+    <row r="38" spans="1:10">
+      <c r="E38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="51" t="str">
+      <c r="F38" s="51" t="str">
         <f>$E$18</f>
         <v>PRO1070</v>
       </c>
-      <c r="G36" s="40" t="str">
+      <c r="G38" s="40" t="str">
         <f>RESOURCE!E20</f>
         <v>product/product.html</v>
       </c>
     </row>
-    <row r="37" spans="5:7">
-      <c r="E37" s="10" t="s">
+    <row r="39" spans="1:10">
+      <c r="E39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="51" t="str">
-        <f t="shared" ref="F37:F39" si="2">$E$18</f>
+      <c r="F39" s="51" t="str">
+        <f t="shared" ref="F39:F43" si="2">$E$18</f>
         <v>PRO1070</v>
       </c>
-      <c r="G37" s="40" t="str">
+      <c r="G39" s="40" t="str">
         <f>RESOURCE!E21</f>
         <v>product/product_config.html</v>
       </c>
     </row>
-    <row r="38" spans="5:7">
-      <c r="E38" s="10" t="s">
+    <row r="40" spans="1:10">
+      <c r="E40" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="51" t="str">
+      <c r="F40" s="51" t="str">
         <f t="shared" si="2"/>
         <v>PRO1070</v>
       </c>
-      <c r="G38" s="40" t="str">
+      <c r="G40" s="40" t="str">
         <f>RESOURCE!E22</f>
         <v>product/product_formula.html</v>
       </c>
     </row>
-    <row r="39" spans="5:7">
-      <c r="E39" s="10" t="s">
+    <row r="41" spans="1:10">
+      <c r="E41" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="51" t="str">
+      <c r="F41" s="51" t="str">
         <f t="shared" si="2"/>
         <v>PRO1070</v>
       </c>
-      <c r="G39" s="40" t="str">
+      <c r="G41" s="40" t="str">
         <f>RESOURCE!E23</f>
         <v>pro/product/getColumns</v>
       </c>
     </row>
-    <row r="40" spans="5:7">
-      <c r="E40" s="10" t="s">
+    <row r="42" spans="1:10">
+      <c r="E42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="51" t="str">
-        <f>E20</f>
+      <c r="F42" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G42" s="40" t="str">
+        <f>RESOURCE!E30</f>
+        <v>product/unit_assign.html</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="E43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G43" s="40" t="str">
+        <f>RESOURCE!E31</f>
+        <v>pro/unit/assign/selectByproductCode/{productCode}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="E44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="51" t="str">
+        <f>$E$19</f>
+        <v>PRO1080</v>
+      </c>
+      <c r="G44" s="40" t="str">
+        <f>RESOURCE!E29</f>
+        <v>product/good.html</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="E45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="51" t="str">
+        <f>E21</f>
         <v>FIN1010</v>
       </c>
-      <c r="G40" s="40" t="str">
+      <c r="G45" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="D46" s="6"/>
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G46" s="40" t="str">
+        <f>RESOURCE!E28</f>
+        <v>item/item.html</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="39"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="E47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G47" s="40" t="str">
+        <f>RESOURCE!E27</f>
+        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
+      </c>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="E48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G48" s="40" t="str">
+        <f>RESOURCE!E26</f>
+        <v>item/item_evaluate.html</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -10108,11 +11260,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E762DFEF-3E6B-4E1D-88E4-C51F4783274F}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10318,7 +11470,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G19" s="40" t="str">
-        <f>FUNCTION!E19</f>
+        <f>FUNCTION!E20</f>
         <v>FINANCE</v>
       </c>
     </row>
@@ -10331,7 +11483,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G20" s="40" t="str">
-        <f>FUNCTION!E20</f>
+        <f>FUNCTION!E21</f>
         <v>FIN1010</v>
       </c>
     </row>
@@ -10383,7 +11535,7 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G24" s="40" t="str">
-        <f>FUNCTION!E19</f>
+        <f>FUNCTION!E20</f>
         <v>FINANCE</v>
       </c>
     </row>
@@ -10396,8 +11548,47 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G25" s="40" t="str">
-        <f>FUNCTION!E20</f>
+        <f>FUNCTION!E21</f>
         <v>FIN1010</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G26" s="51" t="str">
+        <f>FUNCTION!E22</f>
+        <v>ITEM</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G27" s="51" t="str">
+        <f>FUNCTION!E23</f>
+        <v>ITM1010</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G28" s="51" t="str">
+        <f>FUNCTION!E19</f>
+        <v>PRO1080</v>
       </c>
     </row>
   </sheetData>
@@ -10408,10 +11599,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView topLeftCell="C219" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H364" sqref="H364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10423,7 +11614,7 @@
     <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="43.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13071,13 +14262,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -13085,13 +14276,13 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -13155,13 +14346,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -13169,13 +14360,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -13183,13 +14374,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -13197,13 +14388,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -13211,13 +14402,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -13225,13 +14416,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -13239,13 +14430,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -13253,13 +14444,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -13267,13 +14458,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -13281,13 +14472,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -13295,13 +14486,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -13309,13 +14500,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -13323,13 +14514,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -13337,7 +14528,7 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
@@ -13351,13 +14542,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -13365,13 +14556,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -13379,13 +14570,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -13393,13 +14584,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -13407,13 +14598,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -13421,13 +14612,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -13435,13 +14626,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -13449,13 +14640,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -13463,13 +14654,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -13477,13 +14668,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -13491,13 +14682,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -13505,13 +14696,13 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -13519,13 +14710,13 @@
         <v>107</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -13533,13 +14724,13 @@
         <v>107</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -13547,13 +14738,13 @@
         <v>107</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -13561,13 +14752,13 @@
         <v>107</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="228" spans="5:8">
@@ -13575,13 +14766,13 @@
         <v>107</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="229" spans="5:8">
@@ -13589,13 +14780,13 @@
         <v>107</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="230" spans="5:8">
@@ -13603,13 +14794,13 @@
         <v>107</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G230" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="231" spans="5:8">
@@ -13617,13 +14808,13 @@
         <v>107</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="232" spans="5:8">
@@ -13631,13 +14822,13 @@
         <v>107</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G232" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="233" spans="5:8">
@@ -13645,13 +14836,13 @@
         <v>107</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G233" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H233" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="234" spans="5:8">
@@ -13659,13 +14850,13 @@
         <v>107</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H234" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -13673,13 +14864,13 @@
         <v>107</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="236" spans="5:8">
@@ -14072,6 +15263,1434 @@
       </c>
       <c r="H263" s="8" t="s">
         <v>1157</v>
+      </c>
+    </row>
+    <row r="264" spans="5:8">
+      <c r="E264" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H264" s="8" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="265" spans="5:8">
+      <c r="E265" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="266" spans="5:8">
+      <c r="E266" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="267" spans="5:8">
+      <c r="E267" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="268" spans="5:8">
+      <c r="E268" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="269" spans="5:8">
+      <c r="E269" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8">
+      <c r="E270" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G270" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H270" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="271" spans="5:8">
+      <c r="E271" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="272" spans="5:8">
+      <c r="E272" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H272" s="8" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="273" spans="5:8">
+      <c r="E273" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="274" spans="5:8">
+      <c r="E274" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G274" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H274" s="8" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="275" spans="5:8">
+      <c r="E275" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="276" spans="5:8">
+      <c r="E276" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H276" s="8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="277" spans="5:8">
+      <c r="E277" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="278" spans="5:8">
+      <c r="E278" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H278" s="8" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="279" spans="5:8">
+      <c r="E279" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="280" spans="5:8">
+      <c r="E280" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F280" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H280" s="8" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="281" spans="5:8">
+      <c r="E281" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F282" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H282" s="8" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="284" spans="5:8">
+      <c r="E284" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F284" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H284" s="8" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="286" spans="5:8">
+      <c r="E286" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="287" spans="5:8">
+      <c r="E287" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="288" spans="5:8">
+      <c r="E288" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G288" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H288" s="8" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8">
+      <c r="E289" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="290" spans="5:8">
+      <c r="E290" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H290" s="8" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8">
+      <c r="E291" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8">
+      <c r="E292" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G292" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H292" s="8" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="293" spans="5:8">
+      <c r="E293" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F293" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8">
+      <c r="E294" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H294" s="8" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8">
+      <c r="E295" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8">
+      <c r="E296" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F296" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G296" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H296" s="8" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
+      <c r="E297" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F297" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="298" spans="5:8">
+      <c r="E298" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G298" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H298" s="8" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="299" spans="5:8">
+      <c r="E299" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F299" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="300" spans="5:8">
+      <c r="E300" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F300" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G300" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H300" s="8" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="301" spans="5:8">
+      <c r="E301" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F301" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="302" spans="5:8">
+      <c r="E302" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F302" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G302" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H302" s="8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8">
+      <c r="E303" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F303" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8">
+      <c r="E304" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F304" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G304" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H304" s="8" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="305" spans="5:8">
+      <c r="E305" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F305" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="306" spans="5:8">
+      <c r="E306" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F306" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G306" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H306" s="8" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="307" spans="5:8">
+      <c r="E307" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F307" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G307" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="308" spans="5:8">
+      <c r="E308" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F308" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G308" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="309" spans="5:8">
+      <c r="E309" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G309" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="310" spans="5:8">
+      <c r="E310" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F310" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G310" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H310" s="8" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="311" spans="5:8">
+      <c r="E311" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F311" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G311" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="312" spans="5:8">
+      <c r="E312" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F312" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G312" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H312" s="8" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="313" spans="5:8">
+      <c r="E313" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F313" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="314" spans="5:8">
+      <c r="E314" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F314" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G314" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H314" s="8" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="315" spans="5:8">
+      <c r="E315" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F315" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="316" spans="5:8">
+      <c r="E316" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G316" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H316" s="8" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="317" spans="5:8">
+      <c r="E317" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="318" spans="5:8">
+      <c r="E318" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G318" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H318" s="8" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="319" spans="5:8">
+      <c r="E319" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="320" spans="5:8">
+      <c r="E320" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F320" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G320" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H320" s="8" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="321" spans="5:8">
+      <c r="E321" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="322" spans="5:8">
+      <c r="E322" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F322" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H322" s="8" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="323" spans="5:8">
+      <c r="E323" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="324" spans="5:8">
+      <c r="E324" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F324" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G324" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="325" spans="5:8">
+      <c r="E325" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="326" spans="5:8">
+      <c r="E326" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F326" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G326" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H326" s="8" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="327" spans="5:8">
+      <c r="E327" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="328" spans="5:8">
+      <c r="E328" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G328" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H328" s="8" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="329" spans="5:8">
+      <c r="E329" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="330" spans="5:8">
+      <c r="E330" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G330" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H330" s="8" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="331" spans="5:8">
+      <c r="E331" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="332" spans="5:8">
+      <c r="E332" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G332" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H332" s="8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="333" spans="5:8">
+      <c r="E333" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="334" spans="5:8">
+      <c r="E334" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G334" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H334" s="8" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="335" spans="5:8">
+      <c r="E335" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G335" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H335" s="8" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="336" spans="5:8">
+      <c r="E336" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G336" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H336" s="8" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="337" spans="5:8">
+      <c r="E337" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F337" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G337" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H337" s="8" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="338" spans="5:8">
+      <c r="E338" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F338" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G338" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H338" s="8" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="339" spans="5:8">
+      <c r="E339" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F339" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="340" spans="5:8">
+      <c r="E340" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F340" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G340" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H340" s="8" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="341" spans="5:8">
+      <c r="E341" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F341" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="342" spans="5:8">
+      <c r="E342" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F342" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G342" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H342" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="343" spans="5:8">
+      <c r="E343" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F343" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G343" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="344" spans="5:8">
+      <c r="E344" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F344" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G344" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H344" s="8" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="345" spans="5:8">
+      <c r="E345" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F345" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G345" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="346" spans="5:8">
+      <c r="E346" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F346" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G346" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H346" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="347" spans="5:8">
+      <c r="E347" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F347" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G347" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="348" spans="5:8">
+      <c r="E348" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F348" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G348" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H348" s="8" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="349" spans="5:8">
+      <c r="E349" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F349" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="350" spans="5:8">
+      <c r="E350" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F350" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G350" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H350" s="8" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="351" spans="5:8">
+      <c r="E351" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F351" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="352" spans="5:8">
+      <c r="E352" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F352" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H352" s="8" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="353" spans="5:8">
+      <c r="E353" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F353" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="354" spans="5:8">
+      <c r="E354" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F354" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G354" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H354" s="8" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="355" spans="5:8">
+      <c r="E355" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F355" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G355" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="356" spans="5:8">
+      <c r="E356" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F356" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G356" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H356" s="8" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="357" spans="5:8">
+      <c r="E357" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F357" s="8" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G357" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="358" spans="5:8">
+      <c r="E358" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F358" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G358" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H358" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="359" spans="5:8">
+      <c r="E359" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G359" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="360" spans="5:8">
+      <c r="E360" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F360" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G360" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H360" s="8" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="361" spans="5:8">
+      <c r="E361" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F361" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="362" spans="5:8">
+      <c r="E362" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F362" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G362" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H362" s="8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="363" spans="5:8">
+      <c r="E363" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F363" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="364" spans="5:8">
+      <c r="E364" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F364" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G364" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H364" s="8" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="365" spans="5:8">
+      <c r="E365" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F365" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -14083,17 +16702,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C15EE9-CCDA-450A-AB8E-618745B613EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="B65" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.2109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
@@ -19075,11 +21694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B364F-B533-4E89-81E2-C4A6D2ED900B}">
-  <dimension ref="A1:Z23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -19087,7 +21706,7 @@
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.78515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
@@ -19196,29 +21815,27 @@
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>1173</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="H8" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>1175</v>
-      </c>
       <c r="J8" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>1178</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>1179</v>
       </c>
       <c r="L8">
         <v>600</v>
@@ -19227,13 +21844,13 @@
         <v>300</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>1164</v>
@@ -19242,29 +21859,27 @@
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G9" t="s">
         <v>1189</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>1192</v>
-      </c>
       <c r="K9" s="8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L9">
         <v>600</v>
@@ -19273,13 +21888,13 @@
         <v>300</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>1164</v>
@@ -19288,29 +21903,27 @@
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>1195</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>1196</v>
-      </c>
       <c r="H10" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>1199</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="K10" s="8" t="s">
         <v>1200</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>1201</v>
       </c>
       <c r="L10">
         <v>800</v>
@@ -19319,145 +21932,169 @@
         <v>300</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A12" s="9">
+    <row r="11" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A11" s="9">
         <v>43189</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="43" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E11" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F11" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G11" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H11" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I11" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J11" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K11" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L11" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M11" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="N11" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O11" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P11" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="Q12" s="43" t="s">
+      <c r="Q11" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="R12" s="43" t="s">
+      <c r="R11" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="S12" s="43" t="s">
+      <c r="S11" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="T12" s="43" t="s">
+      <c r="T11" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="U12" s="43" t="s">
+      <c r="U11" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="V12" s="43" t="s">
+      <c r="V11" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="W12" s="43" t="s">
+      <c r="W11" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="X12" s="43" t="s">
+      <c r="X11" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="Y12" s="43" t="s">
+      <c r="Y11" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="Z12" s="43" t="s">
+      <c r="Z11" s="43" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="E12" s="47" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F12" s="51" t="str">
+        <f>$E$8</f>
+        <v>LOV_BANK</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Z12" s="37" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="E13" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F13" t="str">
-        <f>$E$8</f>
+        <v>1180</v>
+      </c>
+      <c r="F13" s="51" t="str">
+        <f t="shared" ref="F13:F15" si="0">$E$8</f>
         <v>LOV_BANK</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>80</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Y13" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z13" s="37" t="s">
         <v>1164</v>
@@ -19465,10 +22102,10 @@
     </row>
     <row r="14" spans="1:26">
       <c r="E14" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" ref="F14:F16" si="0">$E$8</f>
+        <v>1180</v>
+      </c>
+      <c r="F14" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>LOV_BANK</v>
       </c>
       <c r="G14" s="37" t="s">
@@ -19481,22 +22118,25 @@
         <v>1187</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
       </c>
       <c r="Y14" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z14" s="37" t="s">
         <v>1164</v>
@@ -19504,41 +22144,41 @@
     </row>
     <row r="15" spans="1:26">
       <c r="E15" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F15" t="str">
+        <v>1180</v>
+      </c>
+      <c r="F15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>LOV_BANK</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>1188</v>
+      <c r="I15" t="s">
+        <v>1176</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z15" s="37" t="s">
         <v>1164</v>
@@ -19546,41 +22186,38 @@
     </row>
     <row r="16" spans="1:26">
       <c r="E16" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>LOV_BANK</v>
+        <v>1180</v>
+      </c>
+      <c r="F16" s="51" t="str">
+        <f>$E$9</f>
+        <v>LOV_CUSTOMER</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>1179</v>
+        <v>1208</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I16" t="s">
-        <v>1177</v>
+      <c r="I16" s="37" t="s">
+        <v>1210</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>1180</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
+        <v>1179</v>
       </c>
       <c r="Y16" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z16" s="37" t="s">
         <v>1164</v>
@@ -19588,38 +22225,41 @@
     </row>
     <row r="17" spans="5:26">
       <c r="E17" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F17" t="str">
-        <f>$E$9</f>
+        <v>1180</v>
+      </c>
+      <c r="F17" s="51" t="str">
+        <f t="shared" ref="F17:F18" si="1">$E$9</f>
         <v>LOV_CUSTOMER</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" t="s">
         <v>1209</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" t="s">
         <v>1211</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
       </c>
       <c r="Y17" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z17" s="37" t="s">
         <v>1164</v>
@@ -19627,41 +22267,41 @@
     </row>
     <row r="18" spans="5:26">
       <c r="E18" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" ref="F18:F19" si="1">$E$9</f>
+        <v>1180</v>
+      </c>
+      <c r="F18" s="51" t="str">
+        <f t="shared" si="1"/>
         <v>LOV_CUSTOMER</v>
       </c>
       <c r="G18" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I18" t="s">
-        <v>1212</v>
+      <c r="I18" s="37" t="s">
+        <v>1191</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M18" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z18" s="37" t="s">
         <v>1164</v>
@@ -19669,41 +22309,38 @@
     </row>
     <row r="19" spans="5:26">
       <c r="E19" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>LOV_CUSTOMER</v>
+        <v>1180</v>
+      </c>
+      <c r="F19" s="51" t="str">
+        <f>$E$10</f>
+        <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G19" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>1192</v>
+      <c r="I19" t="s">
+        <v>1205</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>1180</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
+        <v>1179</v>
       </c>
       <c r="Y19" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z19" s="37" t="s">
         <v>1164</v>
@@ -19711,10 +22348,10 @@
     </row>
     <row r="20" spans="5:26">
       <c r="E20" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F20" t="str">
-        <f>$E$10</f>
+        <v>1180</v>
+      </c>
+      <c r="F20" s="51" t="str">
+        <f t="shared" ref="F20:F22" si="2">$E$10</f>
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G20" t="s">
@@ -19724,25 +22361,28 @@
         <v>1164</v>
       </c>
       <c r="I20" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
       </c>
       <c r="Y20" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z20" s="37" t="s">
         <v>1164</v>
@@ -19750,10 +22390,10 @@
     </row>
     <row r="21" spans="5:26">
       <c r="E21" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" ref="F21:F23" si="2">$E$10</f>
+        <v>1180</v>
+      </c>
+      <c r="F21" s="51" t="str">
+        <f t="shared" si="2"/>
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G21" t="s">
@@ -19763,28 +22403,28 @@
         <v>1164</v>
       </c>
       <c r="I21" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M21" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z21" s="37" t="s">
         <v>1164</v>
@@ -19792,9 +22432,9 @@
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F22" t="str">
+        <v>1180</v>
+      </c>
+      <c r="F22" s="51" t="str">
         <f t="shared" si="2"/>
         <v>LOV_ITEM_MODEL</v>
       </c>
@@ -19808,69 +22448,27 @@
         <v>1207</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="23" spans="5:26">
-      <c r="E23" s="47" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>LOV_ITEM_MODEL</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1208</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>120</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>1180</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="37" t="s">
-        <v>1180</v>
-      </c>
-      <c r="Z23" s="37" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -19882,11 +22480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B714D549-EFBE-43BB-889A-74423BE2B1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20304,7 +22902,6 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="5:14">
       <c r="E25" s="10" t="s">

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F73A0-0CF6-459C-B4F3-3EA625F12E50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC98F331-49A9-43D4-9722-97464DC79C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1479">
   <si>
     <r>
       <rPr>
@@ -7747,19 +7747,74 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>pro/unit/assign/selectByproductCode/{productCode}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分配机构查找</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitAssign Select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/item_edit.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物编辑页面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Edit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/assign_unit.html</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/assign_unit.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品机构分配</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign Unit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro/unit/assign/batchassign</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>SERVICE</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>pro/unit/assign/selectByproductCode/{productCode}</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品分配机构查找</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitAssign Select</t>
+    <t>产品机构批量分配</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Assign</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -8565,22 +8620,22 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.2109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.2109375" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -8649,7 +8704,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="49.5">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -8663,7 +8718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -8674,7 +8729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -8704,7 +8759,7 @@
       <c r="C14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="33">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -8777,7 +8832,7 @@
       </c>
       <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="3:5" ht="49.5">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -8806,11 +8861,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.0703125" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9289,28 +9344,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.58203125" customWidth="1"/>
+    <col min="6" max="6" width="34.58203125" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.58203125" customWidth="1"/>
+    <col min="11" max="11" width="19.58203125" customWidth="1"/>
+    <col min="12" max="12" width="29.58203125" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="14" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -10060,13 +10115,13 @@
     </row>
     <row r="31" spans="5:13">
       <c r="E31" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>1464</v>
+        <v>1280</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>86</v>
@@ -10075,16 +10130,103 @@
         <v>86</v>
       </c>
       <c r="J31" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="E32" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>1466</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="F32" s="13" t="s">
         <v>1467</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
+      <c r="E33" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>1478</v>
       </c>
     </row>
   </sheetData>
@@ -10097,30 +10239,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A43" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.2109375" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.2109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="21.58203125" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="21.58203125" customWidth="1"/>
+    <col min="15" max="15" width="16.58203125" customWidth="1"/>
     <col min="16" max="17" width="28" customWidth="1"/>
-    <col min="18" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="18" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -11034,7 +11176,7 @@
         <v>product/business_type.html</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="4:9">
       <c r="E33" s="10" t="s">
         <v>108</v>
       </c>
@@ -11047,7 +11189,7 @@
         <v>product/cashflow_type.html</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="4:9">
       <c r="E34" s="10" t="s">
         <v>108</v>
       </c>
@@ -11060,7 +11202,7 @@
         <v>product/document_category.html</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="4:9">
       <c r="E35" s="10" t="s">
         <v>108</v>
       </c>
@@ -11073,7 +11215,7 @@
         <v>product/document_type.html</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="4:9">
       <c r="E36" s="10" t="s">
         <v>108</v>
       </c>
@@ -11086,7 +11228,7 @@
         <v>product/product_line.html</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="4:9">
       <c r="E37" s="10" t="s">
         <v>108</v>
       </c>
@@ -11099,7 +11241,7 @@
         <v>product/item_model.html</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="4:9">
       <c r="E38" s="10" t="s">
         <v>108</v>
       </c>
@@ -11112,12 +11254,12 @@
         <v>product/product.html</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="4:9">
       <c r="E39" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F39" s="51" t="str">
-        <f t="shared" ref="F39:F43" si="2">$E$18</f>
+        <f t="shared" ref="F39:F45" si="2">$E$18</f>
         <v>PRO1070</v>
       </c>
       <c r="G39" s="40" t="str">
@@ -11125,7 +11267,7 @@
         <v>product/product_config.html</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="4:9">
       <c r="E40" s="10" t="s">
         <v>108</v>
       </c>
@@ -11138,7 +11280,7 @@
         <v>product/product_formula.html</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="4:9">
       <c r="E41" s="10" t="s">
         <v>108</v>
       </c>
@@ -11151,7 +11293,7 @@
         <v>pro/product/getColumns</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="4:9">
       <c r="E42" s="10" t="s">
         <v>108</v>
       </c>
@@ -11164,7 +11306,7 @@
         <v>product/unit_assign.html</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="4:9">
       <c r="E43" s="10" t="s">
         <v>108</v>
       </c>
@@ -11177,66 +11319,58 @@
         <v>pro/unit/assign/selectByproductCode/{productCode}</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="E44" s="10" t="s">
+    <row r="44" spans="4:9">
+      <c r="E44" s="10"/>
+      <c r="F44" s="51" t="str">
+        <f>$E$18</f>
+        <v>PRO1070</v>
+      </c>
+      <c r="G44" s="40" t="str">
+        <f>RESOURCE!E33</f>
+        <v>product/assign_unit.html</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="E45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="51" t="str">
+      <c r="F45" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G45" s="40" t="str">
+        <f>RESOURCE!E34</f>
+        <v>pro/unit/assign/batchassign</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="51" t="str">
         <f>$E$19</f>
         <v>PRO1080</v>
       </c>
-      <c r="G44" s="40" t="str">
+      <c r="G46" s="40" t="str">
         <f>RESOURCE!E29</f>
         <v>product/good.html</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="E45" s="10" t="s">
+    <row r="47" spans="4:9">
+      <c r="E47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="51" t="str">
+      <c r="F47" s="51" t="str">
         <f>E21</f>
         <v>FIN1010</v>
       </c>
-      <c r="G45" s="40" t="str">
+      <c r="G47" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="D46" s="6"/>
-      <c r="E46" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="51" t="str">
-        <f>E23</f>
-        <v>ITM1010</v>
-      </c>
-      <c r="G46" s="40" t="str">
-        <f>RESOURCE!E28</f>
-        <v>item/item.html</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="39"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="E47" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="51" t="str">
-        <f>E23</f>
-        <v>ITM1010</v>
-      </c>
-      <c r="G47" s="40" t="str">
-        <f>RESOURCE!E27</f>
-        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
-      </c>
-      <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="4:9">
+      <c r="D48" s="6"/>
       <c r="E48" s="10" t="s">
         <v>108</v>
       </c>
@@ -11245,12 +11379,57 @@
         <v>ITM1010</v>
       </c>
       <c r="G48" s="40" t="str">
+        <f>RESOURCE!E28</f>
+        <v>item/item.html</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="39"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="E49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G49" s="40" t="str">
+        <f>RESOURCE!E27</f>
+        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
+      </c>
+      <c r="H49" s="37"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="E50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G50" s="40" t="str">
         <f>RESOURCE!E26</f>
         <v>item/item_evaluate.html</v>
       </c>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="E51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="51" t="str">
+        <f>E23</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G51" s="40" t="str">
+        <f>RESOURCE!E32</f>
+        <v>item/item_edit.html</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -11267,11 +11446,11 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.92578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11288,7 +11467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
@@ -11601,20 +11780,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H365"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A354" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H364" sqref="H364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.92578125" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="5.9140625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.2109375" customWidth="1"/>
+    <col min="4" max="5" width="13.58203125" customWidth="1"/>
+    <col min="6" max="6" width="31.4140625" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="9" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16705,24 +16884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView topLeftCell="B65" workbookViewId="0">
+    <sheetView topLeftCell="B176" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.4140625" customWidth="1"/>
+    <col min="8" max="8" width="33.4140625" customWidth="1"/>
+    <col min="9" max="9" width="34.58203125" customWidth="1"/>
+    <col min="10" max="10" width="19.4140625" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21697,32 +21876,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.2109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.92578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.58203125" customWidth="1"/>
+    <col min="12" max="12" width="10.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.58203125" customWidth="1"/>
+    <col min="19" max="20" width="10.4140625" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -21758,7 +21937,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="47">
+    <row r="7" spans="1:26" ht="48">
       <c r="A7" s="9">
         <v>43189</v>
       </c>
@@ -22483,27 +22662,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J34" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="24.58203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.4140625" customWidth="1"/>
+    <col min="8" max="8" width="33.4140625" customWidth="1"/>
+    <col min="9" max="9" width="34.58203125" customWidth="1"/>
+    <col min="10" max="11" width="19.4140625" customWidth="1"/>
+    <col min="12" max="12" width="17.58203125" customWidth="1"/>
+    <col min="13" max="13" width="19.58203125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="17" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC98F331-49A9-43D4-9722-97464DC79C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8B87C-1EA0-4045-A924-B790497B48DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="1522">
   <si>
     <r>
       <rPr>
@@ -6688,9 +6688,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>itemmodel.select</t>
-  </si>
-  <si>
     <t>itemmodel.color</t>
   </si>
   <si>
@@ -6698,9 +6695,6 @@
   </si>
   <si>
     <t>itemmodel.series</t>
-  </si>
-  <si>
-    <t>itemmodel.brand</t>
   </si>
   <si>
     <t>color</t>
@@ -7564,10 +7558,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>PRO1080</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-empire</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7815,6 +7805,212 @@
   </si>
   <si>
     <t>Batch Assign</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品测算</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品测算</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/product_calculate.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/product_calculate.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fa fa-calculator</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Cacalate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品测算</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Cacalate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO1090 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1080</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO1090 </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO1080</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Cacalate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.productCode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemmodel.brand</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>roduct.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>productName</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.productName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Name</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Code</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_PRODUCT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductMapper.select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemmodel.select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.product</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.product</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOV_PRODUCT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.itemCode</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁物编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_GB</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Code</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -8620,22 +8816,22 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.2109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.2109375" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.25" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -8704,7 +8900,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="49.5">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -8718,7 +8914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="66">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -8759,7 +8955,7 @@
       <c r="C14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="33">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -8832,7 +9028,7 @@
       </c>
       <c r="E26" s="57"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="49.5">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -8857,15 +9053,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.08203125" customWidth="1"/>
+    <col min="8" max="8" width="23.0703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9344,28 +9540,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.58203125" customWidth="1"/>
-    <col min="6" max="6" width="34.58203125" customWidth="1"/>
-    <col min="7" max="7" width="11.58203125" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.58203125" customWidth="1"/>
-    <col min="11" max="11" width="19.58203125" customWidth="1"/>
-    <col min="12" max="12" width="29.58203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -9854,10 +10050,10 @@
     </row>
     <row r="22" spans="5:13">
       <c r="E22" s="10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -9869,24 +10065,24 @@
         <v>86</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" s="10" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>92</v>
@@ -9898,16 +10094,16 @@
         <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="24" spans="5:13">
@@ -9970,13 +10166,13 @@
     </row>
     <row r="26" spans="5:13">
       <c r="E26" s="10" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>86</v>
@@ -9985,27 +10181,27 @@
         <v>86</v>
       </c>
       <c r="J26" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>1276</v>
+      </c>
+      <c r="L26" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>1278</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>1279</v>
-      </c>
       <c r="M26" s="8" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="27" spans="5:13">
       <c r="E27" s="10" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>86</v>
@@ -10014,27 +10210,27 @@
         <v>86</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="E28" s="10" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>86</v>
@@ -10043,27 +10239,27 @@
         <v>86</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="29" spans="5:13">
       <c r="E29" s="10" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>86</v>
@@ -10072,27 +10268,27 @@
         <v>86</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="30" spans="5:13">
       <c r="E30" s="10" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>86</v>
@@ -10101,27 +10297,27 @@
         <v>86</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="31" spans="5:13">
       <c r="E31" s="10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>86</v>
@@ -10130,27 +10326,27 @@
         <v>86</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="32" spans="5:13">
       <c r="E32" s="10" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>86</v>
@@ -10159,27 +10355,27 @@
         <v>86</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="33" spans="5:13">
       <c r="E33" s="10" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>86</v>
@@ -10188,27 +10384,27 @@
         <v>86</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="34" spans="5:13">
       <c r="E34" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>86</v>
@@ -10217,16 +10413,45 @@
         <v>86</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13">
+      <c r="E35" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>1477</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="J35" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>1477</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>1478</v>
+      <c r="K35" s="8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -10239,30 +10464,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" customWidth="1"/>
-    <col min="5" max="5" width="21.58203125" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="42.58203125" customWidth="1"/>
-    <col min="8" max="8" width="19.4140625" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.4140625" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="21.58203125" customWidth="1"/>
-    <col min="15" max="15" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.2109375" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.2109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="17" width="28" customWidth="1"/>
-    <col min="18" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="18" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -10840,16 +11065,16 @@
     </row>
     <row r="19" spans="1:17">
       <c r="E19" s="8" t="s">
-        <v>1421</v>
+        <v>1491</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1421</v>
+        <v>1489</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I19" s="40" t="str">
         <f>RESOURCE!E29</f>
@@ -10869,223 +11094,252 @@
         <v>86</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="C20" s="37" t="s">
-        <v>1130</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>1131</v>
+        <v>1490</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1131</v>
+        <v>1027</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>1131</v>
+        <v>1488</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I20" s="40"/>
+        <v>1483</v>
+      </c>
+      <c r="I20" s="51" t="str">
+        <f>RESOURCE!E35</f>
+        <v>product/product_calculate.html</v>
+      </c>
       <c r="J20" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>1480</v>
+      </c>
       <c r="L20" s="8">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1118</v>
+        <v>1484</v>
       </c>
       <c r="N20" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="C21" s="37" t="s">
         <v>1130</v>
       </c>
-      <c r="O20" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="C21" s="37"/>
       <c r="E21" s="8" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>1131</v>
       </c>
       <c r="G21" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
+        <v>10</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22" s="37"/>
+      <c r="E22" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="F22" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="I21" s="40" t="str">
+      <c r="I22" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="K21" s="8" t="str">
-        <f>E20</f>
+      <c r="K22" s="8" t="str">
+        <f>E21</f>
         <v>FINANCE</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L22" s="8">
         <v>10</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N22" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O22" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P22" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q22" s="8" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="C22" s="37" t="s">
+    <row r="23" spans="1:17">
+      <c r="C23" s="37" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <v>25</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="E24" s="56" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>1372</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8">
-        <v>25</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>1376</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>1377</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="39"/>
-      <c r="B23" s="37"/>
-      <c r="E23" s="56" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>1371</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I23" s="51" t="str">
+      <c r="I24" s="51" t="str">
         <f>RESOURCE!E28</f>
         <v>item/item.html</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J24" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K24" s="8" t="str">
+        <f>E23</f>
+        <v>ITEM</v>
+      </c>
+      <c r="L24" s="8">
+        <v>10</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N24" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="K23" s="8" t="str">
-        <f>E22</f>
-        <v>ITEM</v>
-      </c>
-      <c r="L23" s="8">
-        <v>10</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="O24" s="8" t="s">
         <v>1373</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>1374</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>1375</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="D24" s="6" t="s">
+      <c r="P24" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="D25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="9">
+    <row r="26" spans="1:17">
+      <c r="A26" s="9">
         <v>43187</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C26" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="40" t="str">
-        <f>$E$9</f>
-        <v>CUS1010</v>
-      </c>
-      <c r="G25" s="40" t="str">
-        <f>RESOURCE!E8</f>
-        <v>customer/customer.html</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
       <c r="E26" s="10" t="s">
         <v>108</v>
       </c>
@@ -11094,8 +11348,8 @@
         <v>CUS1010</v>
       </c>
       <c r="G26" s="40" t="str">
-        <f>RESOURCE!E9</f>
-        <v>afd/customer/query</v>
+        <f>RESOURCE!E8</f>
+        <v>customer/customer.html</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -11103,12 +11357,12 @@
         <v>108</v>
       </c>
       <c r="F27" s="40" t="str">
-        <f t="shared" ref="F27" si="0">$E$9</f>
+        <f>$E$9</f>
         <v>CUS1010</v>
       </c>
       <c r="G27" s="40" t="str">
-        <f>RESOURCE!E10</f>
-        <v>afd/customer/remove</v>
+        <f>RESOURCE!E9</f>
+        <v>afd/customer/query</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -11116,12 +11370,12 @@
         <v>108</v>
       </c>
       <c r="F28" s="40" t="str">
-        <f>$E$9</f>
+        <f t="shared" ref="F28" si="0">$E$9</f>
         <v>CUS1010</v>
       </c>
       <c r="G28" s="40" t="str">
-        <f>RESOURCE!E11</f>
-        <v>afd/customer/submit</v>
+        <f>RESOURCE!E10</f>
+        <v>afd/customer/remove</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -11133,8 +11387,8 @@
         <v>CUS1010</v>
       </c>
       <c r="G29" s="40" t="str">
-        <f>RESOURCE!E12</f>
-        <v>common/childCode</v>
+        <f>RESOURCE!E11</f>
+        <v>afd/customer/submit</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -11146,21 +11400,21 @@
         <v>CUS1010</v>
       </c>
       <c r="G30" s="40" t="str">
-        <f>RESOURCE!E13</f>
-        <v>sys/attachment/category/queryTree</v>
+        <f>RESOURCE!E12</f>
+        <v>common/childCode</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="E31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="51" t="str">
-        <f>E10</f>
-        <v>CUS1020</v>
+      <c r="F31" s="40" t="str">
+        <f>$E$9</f>
+        <v>CUS1010</v>
       </c>
       <c r="G31" s="40" t="str">
-        <f>RESOURCE!E24</f>
-        <v>customer/account.html</v>
+        <f>RESOURCE!E13</f>
+        <v>sys/attachment/category/queryTree</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -11168,119 +11422,119 @@
         <v>108</v>
       </c>
       <c r="F32" s="51" t="str">
+        <f>E10</f>
+        <v>CUS1020</v>
+      </c>
+      <c r="G32" s="40" t="str">
+        <f>RESOURCE!E24</f>
+        <v>customer/account.html</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="51" t="str">
         <f>E12</f>
         <v>PRO1010</v>
       </c>
-      <c r="G32" s="40" t="str">
+      <c r="G33" s="40" t="str">
         <f>RESOURCE!E14</f>
         <v>product/business_type.html</v>
       </c>
     </row>
-    <row r="33" spans="4:9">
-      <c r="E33" s="10" t="s">
+    <row r="34" spans="5:7">
+      <c r="E34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="51" t="str">
+      <c r="F34" s="51" t="str">
         <f>E13</f>
         <v>PRO1020</v>
       </c>
-      <c r="G33" s="40" t="str">
+      <c r="G34" s="40" t="str">
         <f>RESOURCE!E15</f>
         <v>product/cashflow_type.html</v>
       </c>
     </row>
-    <row r="34" spans="4:9">
-      <c r="E34" s="10" t="s">
+    <row r="35" spans="5:7">
+      <c r="E35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="51" t="str">
+      <c r="F35" s="51" t="str">
         <f>E14</f>
         <v>PRO1030</v>
       </c>
-      <c r="G34" s="40" t="str">
+      <c r="G35" s="40" t="str">
         <f>RESOURCE!E16</f>
         <v>product/document_category.html</v>
       </c>
     </row>
-    <row r="35" spans="4:9">
-      <c r="E35" s="10" t="s">
+    <row r="36" spans="5:7">
+      <c r="E36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="51" t="str">
-        <f t="shared" ref="F35:F37" si="1">E15</f>
+      <c r="F36" s="51" t="str">
+        <f t="shared" ref="F36:F38" si="1">E15</f>
         <v>PRO1040</v>
       </c>
-      <c r="G35" s="40" t="str">
+      <c r="G36" s="40" t="str">
         <f>RESOURCE!E17</f>
         <v>product/document_type.html</v>
       </c>
     </row>
-    <row r="36" spans="4:9">
-      <c r="E36" s="10" t="s">
+    <row r="37" spans="5:7">
+      <c r="E37" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="51" t="str">
+      <c r="F37" s="51" t="str">
         <f t="shared" si="1"/>
         <v>PRO1050</v>
       </c>
-      <c r="G36" s="40" t="str">
+      <c r="G37" s="40" t="str">
         <f>RESOURCE!E19</f>
         <v>product/product_line.html</v>
       </c>
     </row>
-    <row r="37" spans="4:9">
-      <c r="E37" s="10" t="s">
+    <row r="38" spans="5:7">
+      <c r="E38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="51" t="str">
+      <c r="F38" s="51" t="str">
         <f t="shared" si="1"/>
         <v>PRO1060</v>
       </c>
-      <c r="G37" s="40" t="str">
+      <c r="G38" s="40" t="str">
         <f>RESOURCE!E18</f>
         <v>product/item_model.html</v>
       </c>
     </row>
-    <row r="38" spans="4:9">
-      <c r="E38" s="10" t="s">
+    <row r="39" spans="5:7">
+      <c r="E39" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="51" t="str">
+      <c r="F39" s="51" t="str">
         <f>$E$18</f>
         <v>PRO1070</v>
       </c>
-      <c r="G38" s="40" t="str">
+      <c r="G39" s="40" t="str">
         <f>RESOURCE!E20</f>
         <v>product/product.html</v>
       </c>
     </row>
-    <row r="39" spans="4:9">
-      <c r="E39" s="10" t="s">
+    <row r="40" spans="5:7">
+      <c r="E40" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="51" t="str">
-        <f t="shared" ref="F39:F45" si="2">$E$18</f>
+      <c r="F40" s="51" t="str">
+        <f t="shared" ref="F40:F46" si="2">$E$18</f>
         <v>PRO1070</v>
       </c>
-      <c r="G39" s="40" t="str">
+      <c r="G40" s="40" t="str">
         <f>RESOURCE!E21</f>
         <v>product/product_config.html</v>
       </c>
     </row>
-    <row r="40" spans="4:9">
-      <c r="E40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="51" t="str">
-        <f t="shared" si="2"/>
-        <v>PRO1070</v>
-      </c>
-      <c r="G40" s="40" t="str">
-        <f>RESOURCE!E22</f>
-        <v>product/product_formula.html</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9">
+    <row r="41" spans="5:7">
       <c r="E41" s="10" t="s">
         <v>108</v>
       </c>
@@ -11289,11 +11543,11 @@
         <v>PRO1070</v>
       </c>
       <c r="G41" s="40" t="str">
-        <f>RESOURCE!E23</f>
-        <v>pro/product/getColumns</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9">
+        <f>RESOURCE!E22</f>
+        <v>product/product_formula.html</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
       <c r="E42" s="10" t="s">
         <v>108</v>
       </c>
@@ -11302,11 +11556,11 @@
         <v>PRO1070</v>
       </c>
       <c r="G42" s="40" t="str">
-        <f>RESOURCE!E30</f>
-        <v>product/unit_assign.html</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9">
+        <f>RESOURCE!E23</f>
+        <v>pro/product/getColumns</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
       <c r="E43" s="10" t="s">
         <v>108</v>
       </c>
@@ -11315,118 +11569,146 @@
         <v>PRO1070</v>
       </c>
       <c r="G43" s="40" t="str">
+        <f>RESOURCE!E30</f>
+        <v>product/unit_assign.html</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
+      </c>
+      <c r="G44" s="40" t="str">
         <f>RESOURCE!E31</f>
         <v>pro/unit/assign/selectByproductCode/{productCode}</v>
       </c>
     </row>
-    <row r="44" spans="4:9">
-      <c r="E44" s="10"/>
-      <c r="F44" s="51" t="str">
+    <row r="45" spans="5:7">
+      <c r="E45" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="51" t="str">
         <f>$E$18</f>
         <v>PRO1070</v>
       </c>
-      <c r="G44" s="40" t="str">
+      <c r="G45" s="40" t="str">
         <f>RESOURCE!E33</f>
         <v>product/assign_unit.html</v>
       </c>
     </row>
-    <row r="45" spans="4:9">
-      <c r="E45" s="10" t="s">
+    <row r="46" spans="5:7">
+      <c r="E46" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="51" t="str">
+      <c r="F46" s="51" t="str">
         <f t="shared" si="2"/>
         <v>PRO1070</v>
       </c>
-      <c r="G45" s="40" t="str">
+      <c r="G46" s="40" t="str">
         <f>RESOURCE!E34</f>
         <v>pro/unit/assign/batchassign</v>
       </c>
     </row>
-    <row r="46" spans="4:9">
-      <c r="E46" s="10" t="s">
+    <row r="47" spans="5:7">
+      <c r="E47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="51" t="str">
+      <c r="F47" s="51" t="str">
         <f>$E$19</f>
         <v>PRO1080</v>
       </c>
-      <c r="G46" s="40" t="str">
+      <c r="G47" s="40" t="str">
         <f>RESOURCE!E29</f>
         <v>product/good.html</v>
       </c>
     </row>
-    <row r="47" spans="4:9">
-      <c r="E47" s="10" t="s">
+    <row r="48" spans="5:7">
+      <c r="E48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="51" t="str">
-        <f>E21</f>
+      <c r="F48" s="51" t="str">
+        <f>$E$20</f>
+        <v xml:space="preserve">PRO1090 </v>
+      </c>
+      <c r="G48" s="51" t="str">
+        <f>RESOURCE!E35</f>
+        <v>product/product_calculate.html</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="E49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="51" t="str">
+        <f>E22</f>
         <v>FIN1010</v>
       </c>
-      <c r="G47" s="40" t="str">
+      <c r="G49" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
     </row>
-    <row r="48" spans="4:9">
-      <c r="D48" s="6"/>
-      <c r="E48" s="10" t="s">
+    <row r="50" spans="1:10">
+      <c r="D50" s="6"/>
+      <c r="E50" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="51" t="str">
-        <f>E23</f>
+      <c r="F50" s="51" t="str">
+        <f>E24</f>
         <v>ITM1010</v>
       </c>
-      <c r="G48" s="40" t="str">
+      <c r="G50" s="40" t="str">
         <f>RESOURCE!E28</f>
         <v>item/item.html</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="39"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="E49" s="10" t="s">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="39"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="E51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="51" t="str">
-        <f>E23</f>
+      <c r="F51" s="51" t="str">
+        <f>E24</f>
         <v>ITM1010</v>
       </c>
-      <c r="G49" s="40" t="str">
+      <c r="G51" s="40" t="str">
         <f>RESOURCE!E27</f>
         <v>afd/item/evaluate/selectByItemId/{itemId}</v>
       </c>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="E50" s="10" t="s">
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="E52" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="51" t="str">
-        <f>E23</f>
+      <c r="F52" s="51" t="str">
+        <f>E24</f>
         <v>ITM1010</v>
       </c>
-      <c r="G50" s="40" t="str">
+      <c r="G52" s="40" t="str">
         <f>RESOURCE!E26</f>
         <v>item/item_evaluate.html</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="E51" s="10" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="E53" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="51" t="str">
-        <f>E23</f>
+      <c r="F53" s="51" t="str">
+        <f>E24</f>
         <v>ITM1010</v>
       </c>
-      <c r="G51" s="40" t="str">
+      <c r="G53" s="40" t="str">
         <f>RESOURCE!E32</f>
         <v>item/item_edit.html</v>
       </c>
@@ -11440,17 +11722,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.92578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11467,7 +11749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997">
+    <row r="4" spans="1:8" ht="33">
       <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
@@ -11649,7 +11931,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G19" s="40" t="str">
-        <f>FUNCTION!E20</f>
+        <f>FUNCTION!E21</f>
         <v>FINANCE</v>
       </c>
     </row>
@@ -11662,7 +11944,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G20" s="40" t="str">
-        <f>FUNCTION!E21</f>
+        <f>FUNCTION!E22</f>
         <v>FIN1010</v>
       </c>
     </row>
@@ -11714,7 +11996,7 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G24" s="40" t="str">
-        <f>FUNCTION!E20</f>
+        <f>FUNCTION!E21</f>
         <v>FINANCE</v>
       </c>
     </row>
@@ -11727,7 +12009,7 @@
         <v>EMPLOYEE</v>
       </c>
       <c r="G25" s="40" t="str">
-        <f>FUNCTION!E21</f>
+        <f>FUNCTION!E22</f>
         <v>FIN1010</v>
       </c>
     </row>
@@ -11740,7 +12022,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G26" s="51" t="str">
-        <f>FUNCTION!E22</f>
+        <f>FUNCTION!E23</f>
         <v>ITEM</v>
       </c>
     </row>
@@ -11753,7 +12035,7 @@
         <v>ADMIN</v>
       </c>
       <c r="G27" s="51" t="str">
-        <f>FUNCTION!E23</f>
+        <f>FUNCTION!E24</f>
         <v>ITM1010</v>
       </c>
     </row>
@@ -11768,6 +12050,19 @@
       <c r="G28" s="51" t="str">
         <f>FUNCTION!E19</f>
         <v>PRO1080</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="51" t="str">
+        <f>ACCOUNT!$E$8</f>
+        <v>ADMIN</v>
+      </c>
+      <c r="G29" s="51" t="str">
+        <f>FUNCTION!E20</f>
+        <v xml:space="preserve">PRO1090 </v>
       </c>
     </row>
   </sheetData>
@@ -11778,22 +12073,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H364" sqref="H364"/>
+    <sheetView tabSelected="1" topLeftCell="D357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F374" sqref="F374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="5.9140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.92578125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="13.58203125" customWidth="1"/>
-    <col min="6" max="6" width="31.4140625" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" customWidth="1"/>
-    <col min="9" max="1025" width="10.25" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14441,13 +14736,13 @@
         <v>107</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="193" spans="5:8">
@@ -14455,13 +14750,13 @@
         <v>107</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="194" spans="5:8">
@@ -14525,13 +14820,13 @@
         <v>107</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="199" spans="5:8">
@@ -14539,13 +14834,13 @@
         <v>107</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="200" spans="5:8">
@@ -14553,13 +14848,13 @@
         <v>107</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="201" spans="5:8">
@@ -14567,13 +14862,13 @@
         <v>107</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="202" spans="5:8">
@@ -14581,13 +14876,13 @@
         <v>107</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="203" spans="5:8">
@@ -14595,13 +14890,13 @@
         <v>107</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="204" spans="5:8">
@@ -14609,13 +14904,13 @@
         <v>107</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="205" spans="5:8">
@@ -14623,13 +14918,13 @@
         <v>107</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="206" spans="5:8">
@@ -14637,13 +14932,13 @@
         <v>107</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="207" spans="5:8">
@@ -14651,13 +14946,13 @@
         <v>107</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="208" spans="5:8">
@@ -14665,13 +14960,13 @@
         <v>107</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="209" spans="5:8">
@@ -14679,13 +14974,13 @@
         <v>107</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="210" spans="5:8">
@@ -14693,13 +14988,13 @@
         <v>107</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -14707,7 +15002,7 @@
         <v>107</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>110</v>
@@ -14721,13 +15016,13 @@
         <v>107</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="213" spans="5:8">
@@ -14735,13 +15030,13 @@
         <v>107</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="214" spans="5:8">
@@ -14749,13 +15044,13 @@
         <v>107</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="215" spans="5:8">
@@ -14763,13 +15058,13 @@
         <v>107</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="216" spans="5:8">
@@ -14777,13 +15072,13 @@
         <v>107</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="217" spans="5:8">
@@ -14791,13 +15086,13 @@
         <v>107</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="218" spans="5:8">
@@ -14805,13 +15100,13 @@
         <v>107</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="219" spans="5:8">
@@ -14819,13 +15114,13 @@
         <v>107</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="220" spans="5:8">
@@ -14833,13 +15128,13 @@
         <v>107</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="221" spans="5:8">
@@ -14847,13 +15142,13 @@
         <v>107</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="222" spans="5:8">
@@ -14861,13 +15156,13 @@
         <v>107</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="223" spans="5:8">
@@ -14875,13 +15170,13 @@
         <v>107</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="224" spans="5:8">
@@ -14889,13 +15184,13 @@
         <v>107</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="225" spans="5:8">
@@ -14903,13 +15198,13 @@
         <v>107</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="226" spans="5:8">
@@ -14917,13 +15212,13 @@
         <v>107</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="227" spans="5:8">
@@ -14931,13 +15226,13 @@
         <v>107</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="228" spans="5:8">
@@ -14945,13 +15240,13 @@
         <v>107</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="229" spans="5:8">
@@ -14959,13 +15254,13 @@
         <v>107</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="230" spans="5:8">
@@ -14973,13 +15268,13 @@
         <v>107</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G230" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="231" spans="5:8">
@@ -14987,13 +15282,13 @@
         <v>107</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H231" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="232" spans="5:8">
@@ -15001,13 +15296,13 @@
         <v>107</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G232" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H232" s="8" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="233" spans="5:8">
@@ -15015,13 +15310,13 @@
         <v>107</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G233" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H233" s="8" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="234" spans="5:8">
@@ -15029,13 +15324,13 @@
         <v>107</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H234" s="8" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="235" spans="5:8">
@@ -15043,13 +15338,13 @@
         <v>107</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="236" spans="5:8">
@@ -15449,13 +15744,13 @@
         <v>107</v>
       </c>
       <c r="F264" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G264" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="G264" s="8" t="s">
-        <v>1291</v>
-      </c>
       <c r="H264" s="8" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="265" spans="5:8">
@@ -15463,13 +15758,13 @@
         <v>107</v>
       </c>
       <c r="F265" s="8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G265" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="G265" s="8" t="s">
-        <v>1292</v>
-      </c>
       <c r="H265" s="8" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="266" spans="5:8">
@@ -15477,10 +15772,10 @@
         <v>107</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G266" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H266" s="8" t="s">
         <v>579</v>
@@ -15491,10 +15786,10 @@
         <v>107</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H267" s="8" t="s">
         <v>580</v>
@@ -15505,13 +15800,13 @@
         <v>107</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="269" spans="5:8">
@@ -15519,13 +15814,13 @@
         <v>107</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H269" s="8" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="270" spans="5:8">
@@ -15533,13 +15828,13 @@
         <v>107</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H270" s="8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="271" spans="5:8">
@@ -15547,13 +15842,13 @@
         <v>107</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G271" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H271" s="8" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="272" spans="5:8">
@@ -15561,13 +15856,13 @@
         <v>107</v>
       </c>
       <c r="F272" s="8" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G272" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H272" s="8" t="s">
         <v>1302</v>
-      </c>
-      <c r="G272" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H272" s="8" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="273" spans="5:8">
@@ -15575,13 +15870,13 @@
         <v>107</v>
       </c>
       <c r="F273" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H273" s="8" t="s">
         <v>1303</v>
-      </c>
-      <c r="G273" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H273" s="8" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="274" spans="5:8">
@@ -15589,13 +15884,13 @@
         <v>107</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H274" s="8" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="275" spans="5:8">
@@ -15603,13 +15898,13 @@
         <v>107</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H275" s="8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="276" spans="5:8">
@@ -15617,13 +15912,13 @@
         <v>107</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H276" s="8" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="277" spans="5:8">
@@ -15631,13 +15926,13 @@
         <v>107</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H277" s="8" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="278" spans="5:8">
@@ -15645,13 +15940,13 @@
         <v>107</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="279" spans="5:8">
@@ -15659,13 +15954,13 @@
         <v>107</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H279" s="8" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="280" spans="5:8">
@@ -15673,13 +15968,13 @@
         <v>107</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H280" s="8" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="281" spans="5:8">
@@ -15687,13 +15982,13 @@
         <v>107</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H281" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="282" spans="5:8">
@@ -15701,13 +15996,13 @@
         <v>107</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H282" s="8" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="283" spans="5:8">
@@ -15715,13 +16010,13 @@
         <v>107</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H283" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="284" spans="5:8">
@@ -15729,13 +16024,13 @@
         <v>107</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="285" spans="5:8">
@@ -15743,13 +16038,13 @@
         <v>107</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H285" s="8" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="286" spans="5:8">
@@ -15757,10 +16052,10 @@
         <v>107</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G286" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H286" s="8" t="s">
         <v>1014</v>
@@ -15771,13 +16066,13 @@
         <v>107</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G287" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="288" spans="5:8">
@@ -15785,13 +16080,13 @@
         <v>107</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="289" spans="5:8">
@@ -15799,13 +16094,13 @@
         <v>107</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G289" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="290" spans="5:8">
@@ -15813,13 +16108,13 @@
         <v>107</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H290" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="291" spans="5:8">
@@ -15827,13 +16122,13 @@
         <v>107</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G291" s="8" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="H291" s="8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="292" spans="5:8">
@@ -15841,13 +16136,13 @@
         <v>107</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H292" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="293" spans="5:8">
@@ -15855,13 +16150,13 @@
         <v>107</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H293" s="8" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="294" spans="5:8">
@@ -15869,10 +16164,10 @@
         <v>107</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H294" s="8" t="s">
         <v>1063</v>
@@ -15883,13 +16178,13 @@
         <v>107</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="296" spans="5:8">
@@ -15897,13 +16192,13 @@
         <v>107</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G296" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="297" spans="5:8">
@@ -15911,13 +16206,13 @@
         <v>107</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="298" spans="5:8">
@@ -15925,13 +16220,13 @@
         <v>107</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H298" s="8" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="299" spans="5:8">
@@ -15939,13 +16234,13 @@
         <v>107</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H299" s="8" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="300" spans="5:8">
@@ -15953,13 +16248,13 @@
         <v>107</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G300" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H300" s="8" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="301" spans="5:8">
@@ -15967,13 +16262,13 @@
         <v>107</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G301" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H301" s="8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="302" spans="5:8">
@@ -15981,13 +16276,13 @@
         <v>107</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G302" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="303" spans="5:8">
@@ -15995,13 +16290,13 @@
         <v>107</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G303" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H303" s="8" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="304" spans="5:8">
@@ -16009,13 +16304,13 @@
         <v>107</v>
       </c>
       <c r="F304" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G304" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H304" s="8" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="305" spans="5:8">
@@ -16023,13 +16318,13 @@
         <v>107</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G305" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="306" spans="5:8">
@@ -16037,13 +16332,13 @@
         <v>107</v>
       </c>
       <c r="F306" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G306" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="307" spans="5:8">
@@ -16051,13 +16346,13 @@
         <v>107</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G307" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H307" s="8" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="308" spans="5:8">
@@ -16065,13 +16360,13 @@
         <v>107</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G308" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="309" spans="5:8">
@@ -16079,7 +16374,7 @@
         <v>107</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G309" s="8" t="s">
         <v>110</v>
@@ -16093,13 +16388,13 @@
         <v>107</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G310" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="311" spans="5:8">
@@ -16107,13 +16402,13 @@
         <v>107</v>
       </c>
       <c r="F311" s="8" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G311" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H311" s="8" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="312" spans="5:8">
@@ -16121,13 +16416,13 @@
         <v>107</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G312" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H312" s="8" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="313" spans="5:8">
@@ -16135,7 +16430,7 @@
         <v>107</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G313" s="8" t="s">
         <v>110</v>
@@ -16149,13 +16444,13 @@
         <v>107</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G314" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H314" s="8" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="315" spans="5:8">
@@ -16163,13 +16458,13 @@
         <v>107</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G315" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H315" s="8" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="316" spans="5:8">
@@ -16177,13 +16472,13 @@
         <v>107</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G316" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H316" s="8" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="317" spans="5:8">
@@ -16191,13 +16486,13 @@
         <v>107</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G317" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H317" s="8" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="318" spans="5:8">
@@ -16205,13 +16500,13 @@
         <v>107</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="G318" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H318" s="8" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="319" spans="5:8">
@@ -16219,13 +16514,13 @@
         <v>107</v>
       </c>
       <c r="F319" s="8" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="G319" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H319" s="8" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="320" spans="5:8">
@@ -16233,13 +16528,13 @@
         <v>107</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G320" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H320" s="8" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="321" spans="5:8">
@@ -16247,13 +16542,13 @@
         <v>107</v>
       </c>
       <c r="F321" s="8" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="G321" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H321" s="8" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="322" spans="5:8">
@@ -16261,13 +16556,13 @@
         <v>107</v>
       </c>
       <c r="F322" s="8" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G322" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H322" s="8" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="323" spans="5:8">
@@ -16275,13 +16570,13 @@
         <v>107</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G323" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H323" s="8" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="324" spans="5:8">
@@ -16289,13 +16584,13 @@
         <v>107</v>
       </c>
       <c r="F324" s="8" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G324" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H324" s="8" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="325" spans="5:8">
@@ -16303,13 +16598,13 @@
         <v>107</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G325" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H325" s="8" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="326" spans="5:8">
@@ -16317,13 +16612,13 @@
         <v>107</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G326" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="327" spans="5:8">
@@ -16331,13 +16626,13 @@
         <v>107</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="328" spans="5:8">
@@ -16345,13 +16640,13 @@
         <v>107</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H328" s="8" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="329" spans="5:8">
@@ -16359,13 +16654,13 @@
         <v>107</v>
       </c>
       <c r="F329" s="8" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G329" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H329" s="8" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="330" spans="5:8">
@@ -16373,13 +16668,13 @@
         <v>107</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H330" s="8" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="331" spans="5:8">
@@ -16387,13 +16682,13 @@
         <v>107</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G331" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H331" s="8" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="332" spans="5:8">
@@ -16401,13 +16696,13 @@
         <v>107</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="G332" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H332" s="8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="333" spans="5:8">
@@ -16415,13 +16710,13 @@
         <v>107</v>
       </c>
       <c r="F333" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H333" s="8" t="s">
         <v>1405</v>
-      </c>
-      <c r="G333" s="8" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H333" s="8" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="334" spans="5:8">
@@ -16429,13 +16724,13 @@
         <v>107</v>
       </c>
       <c r="F334" s="8" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G334" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H334" s="8" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="335" spans="5:8">
@@ -16443,13 +16738,13 @@
         <v>107</v>
       </c>
       <c r="F335" s="8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G335" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H335" s="8" t="s">
         <v>1408</v>
-      </c>
-      <c r="G335" s="8" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H335" s="8" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="336" spans="5:8">
@@ -16457,13 +16752,13 @@
         <v>107</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G336" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H336" s="8" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="337" spans="5:8">
@@ -16471,13 +16766,13 @@
         <v>107</v>
       </c>
       <c r="F337" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G337" s="8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H337" s="8" t="s">
         <v>1411</v>
-      </c>
-      <c r="G337" s="8" t="s">
-        <v>1404</v>
-      </c>
-      <c r="H337" s="8" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="338" spans="5:8">
@@ -16485,13 +16780,13 @@
         <v>107</v>
       </c>
       <c r="F338" s="8" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G338" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H338" s="8" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="339" spans="5:8">
@@ -16499,13 +16794,13 @@
         <v>107</v>
       </c>
       <c r="F339" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H339" s="8" t="s">
         <v>1414</v>
-      </c>
-      <c r="G339" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H339" s="8" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="340" spans="5:8">
@@ -16513,13 +16808,13 @@
         <v>107</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G340" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H340" s="8" t="s">
         <v>1424</v>
-      </c>
-      <c r="H340" s="8" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="341" spans="5:8">
@@ -16527,13 +16822,13 @@
         <v>107</v>
       </c>
       <c r="F341" s="8" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="G341" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H341" s="8" t="s">
         <v>1425</v>
-      </c>
-      <c r="H341" s="8" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="342" spans="5:8">
@@ -16541,13 +16836,13 @@
         <v>107</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H342" s="8" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="343" spans="5:8">
@@ -16555,10 +16850,10 @@
         <v>107</v>
       </c>
       <c r="F343" s="8" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H343" s="8" t="s">
         <v>180</v>
@@ -16569,13 +16864,13 @@
         <v>107</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G344" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H344" s="8" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="345" spans="5:8">
@@ -16583,10 +16878,10 @@
         <v>107</v>
       </c>
       <c r="F345" s="8" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H345" s="8" t="s">
         <v>1046</v>
@@ -16597,13 +16892,13 @@
         <v>107</v>
       </c>
       <c r="F346" s="8" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H346" s="8" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="347" spans="5:8">
@@ -16611,13 +16906,13 @@
         <v>107</v>
       </c>
       <c r="F347" s="8" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H347" s="8" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="348" spans="5:8">
@@ -16625,13 +16920,13 @@
         <v>107</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G348" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H348" s="8" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="349" spans="5:8">
@@ -16639,13 +16934,13 @@
         <v>107</v>
       </c>
       <c r="F349" s="8" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H349" s="8" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="350" spans="5:8">
@@ -16653,13 +16948,13 @@
         <v>107</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G350" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H350" s="8" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="351" spans="5:8">
@@ -16667,13 +16962,13 @@
         <v>107</v>
       </c>
       <c r="F351" s="8" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G351" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H351" s="8" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="352" spans="5:8">
@@ -16681,13 +16976,13 @@
         <v>107</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G352" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H352" s="8" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="353" spans="5:8">
@@ -16695,13 +16990,13 @@
         <v>107</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G353" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H353" s="8" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="354" spans="5:8">
@@ -16709,13 +17004,13 @@
         <v>107</v>
       </c>
       <c r="F354" s="8" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="G354" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H354" s="8" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="355" spans="5:8">
@@ -16723,13 +17018,13 @@
         <v>107</v>
       </c>
       <c r="F355" s="8" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="G355" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H355" s="8" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="356" spans="5:8">
@@ -16737,13 +17032,13 @@
         <v>107</v>
       </c>
       <c r="F356" s="8" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="G356" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H356" s="8" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="357" spans="5:8">
@@ -16751,13 +17046,13 @@
         <v>107</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H357" s="8" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="358" spans="5:8">
@@ -16765,13 +17060,13 @@
         <v>107</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="G358" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H358" s="8" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="359" spans="5:8">
@@ -16779,13 +17074,13 @@
         <v>107</v>
       </c>
       <c r="F359" s="8" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="G359" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H359" s="8" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="360" spans="5:8">
@@ -16793,13 +17088,13 @@
         <v>107</v>
       </c>
       <c r="F360" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G360" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H360" s="8" t="s">
         <v>1454</v>
-      </c>
-      <c r="G360" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H360" s="8" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="361" spans="5:8">
@@ -16807,13 +17102,13 @@
         <v>107</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="G361" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H361" s="8" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="362" spans="5:8">
@@ -16821,13 +17116,13 @@
         <v>107</v>
       </c>
       <c r="F362" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G362" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H362" s="8" t="s">
         <v>1455</v>
-      </c>
-      <c r="G362" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H362" s="8" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="363" spans="5:8">
@@ -16835,10 +17130,10 @@
         <v>107</v>
       </c>
       <c r="F363" s="8" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G363" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H363" s="8" t="s">
         <v>1088</v>
@@ -16849,13 +17144,13 @@
         <v>107</v>
       </c>
       <c r="F364" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G364" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H364" s="8" t="s">
         <v>1456</v>
-      </c>
-      <c r="G364" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H364" s="8" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="365" spans="5:8">
@@ -16863,13 +17158,125 @@
         <v>107</v>
       </c>
       <c r="F365" s="8" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="G365" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="H365" s="8" t="s">
         <v>1091</v>
+      </c>
+    </row>
+    <row r="366" spans="5:8">
+      <c r="E366" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F366" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G366" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H366" s="8" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="367" spans="5:8">
+      <c r="E367" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F367" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="368" spans="5:8">
+      <c r="E368" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F368" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G368" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H368" s="8" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="369" spans="5:8">
+      <c r="E369" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="370" spans="5:8">
+      <c r="E370" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F370" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G370" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H370" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="371" spans="5:8">
+      <c r="E371" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F371" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="372" spans="5:8">
+      <c r="E372" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F372" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G372" s="8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H372" s="8" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="373" spans="5:8">
+      <c r="E373" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F373" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -16884,24 +17291,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView topLeftCell="B176" workbookViewId="0">
+    <sheetView topLeftCell="B119" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.4140625" customWidth="1"/>
-    <col min="8" max="8" width="33.4140625" customWidth="1"/>
-    <col min="9" max="9" width="34.58203125" customWidth="1"/>
-    <col min="10" max="10" width="19.4140625" customWidth="1"/>
-    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.2109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21874,34 +22281,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.58203125" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" customWidth="1"/>
-    <col min="11" max="11" width="22.58203125" customWidth="1"/>
-    <col min="12" max="12" width="10.4140625" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
-    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="11.58203125" customWidth="1"/>
-    <col min="19" max="20" width="10.4140625" customWidth="1"/>
-    <col min="21" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.92578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" customWidth="1"/>
+    <col min="19" max="20" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -21937,7 +22344,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="48">
+    <row r="7" spans="1:26" ht="47">
       <c r="A7" s="9">
         <v>43189</v>
       </c>
@@ -22102,7 +22509,7 @@
         <v>1199</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1200</v>
+        <v>1511</v>
       </c>
       <c r="L10">
         <v>800</v>
@@ -22123,142 +22530,147 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L11">
+        <v>600</v>
+      </c>
+      <c r="M11">
+        <v>300</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A12" s="9">
         <v>43189</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="43" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E12" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F12" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G12" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H12" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I12" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J12" s="43" t="s">
         <v>303</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K12" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L12" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M12" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N12" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P12" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="Q11" s="43" t="s">
+      <c r="Q12" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="R11" s="43" t="s">
+      <c r="R12" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="S11" s="43" t="s">
+      <c r="S12" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T12" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="U11" s="43" t="s">
+      <c r="U12" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="V11" s="43" t="s">
+      <c r="V12" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="W11" s="43" t="s">
+      <c r="W12" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="X11" s="43" t="s">
+      <c r="X12" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="Y11" s="43" t="s">
+      <c r="Y12" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="Z11" s="43" t="s">
+      <c r="Z12" s="43" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="E12" s="47" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F12" s="51" t="str">
+    <row r="13" spans="1:26">
+      <c r="E13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="51" t="str">
         <f>$E$8</f>
         <v>LOV_BANK</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G13" s="37" t="s">
         <v>1181</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>80</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>1179</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>1179</v>
-      </c>
-      <c r="Y12" s="37" t="s">
-        <v>1179</v>
-      </c>
-      <c r="Z12" s="37" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="E13" s="47" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F13" s="51" t="str">
-        <f t="shared" ref="F13:F15" si="0">$E$8</f>
-        <v>LOV_BANK</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>1184</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>80</v>
@@ -22284,35 +22696,32 @@
         <v>1180</v>
       </c>
       <c r="F14" s="51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F14:F16" si="0">$E$8</f>
         <v>LOV_BANK</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>1183</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="Q14" s="37" t="s">
         <v>1179</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
       </c>
       <c r="Y14" s="37" t="s">
         <v>1179</v>
@@ -22330,19 +22739,19 @@
         <v>LOV_BANK</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I15" t="s">
-        <v>1176</v>
+      <c r="I15" s="37" t="s">
+        <v>1187</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="37" t="s">
         <v>1183</v>
@@ -22354,7 +22763,7 @@
         <v>1179</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="37" t="s">
         <v>1179</v>
@@ -22368,32 +22777,35 @@
         <v>1180</v>
       </c>
       <c r="F16" s="51" t="str">
-        <f>$E$9</f>
-        <v>LOV_CUSTOMER</v>
+        <f t="shared" si="0"/>
+        <v>LOV_BANK</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>1208</v>
+        <v>1178</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>1210</v>
+      <c r="I16" t="s">
+        <v>1176</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L16" s="37" t="s">
         <v>1183</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="Q16" s="37" t="s">
         <v>1179</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
       </c>
       <c r="Y16" s="37" t="s">
         <v>1179</v>
@@ -22407,35 +22819,32 @@
         <v>1180</v>
       </c>
       <c r="F17" s="51" t="str">
-        <f t="shared" ref="F17:F18" si="1">$E$9</f>
+        <f>$E$9</f>
         <v>LOV_CUSTOMER</v>
       </c>
-      <c r="G17" t="s">
-        <v>1209</v>
+      <c r="G17" s="37" t="s">
+        <v>1206</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I17" t="s">
-        <v>1211</v>
+      <c r="I17" s="37" t="s">
+        <v>1208</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>1183</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="Q17" s="37" t="s">
         <v>1179</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
       </c>
       <c r="Y17" s="37" t="s">
         <v>1179</v>
@@ -22449,23 +22858,23 @@
         <v>1180</v>
       </c>
       <c r="F18" s="51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F18:F19" si="1">$E$9</f>
         <v>LOV_CUSTOMER</v>
       </c>
       <c r="G18" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>1191</v>
+      <c r="I18" t="s">
+        <v>1209</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>1183</v>
@@ -22477,7 +22886,7 @@
         <v>1179</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="37" t="s">
         <v>1179</v>
@@ -22491,32 +22900,35 @@
         <v>1180</v>
       </c>
       <c r="F19" s="51" t="str">
-        <f>$E$10</f>
-        <v>LOV_ITEM_MODEL</v>
+        <f t="shared" si="1"/>
+        <v>LOV_CUSTOMER</v>
       </c>
       <c r="G19" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="I19" t="s">
-        <v>1205</v>
+      <c r="I19" s="37" t="s">
+        <v>1191</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L19" s="37" t="s">
         <v>1183</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="Q19" s="37" t="s">
         <v>1179</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
       </c>
       <c r="Y19" s="37" t="s">
         <v>1179</v>
@@ -22530,35 +22942,32 @@
         <v>1180</v>
       </c>
       <c r="F20" s="51" t="str">
-        <f t="shared" ref="F20:F22" si="2">$E$10</f>
+        <f>$E$10</f>
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G20" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I20" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="37" t="s">
         <v>1183</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="Q20" s="37" t="s">
         <v>1179</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
       </c>
       <c r="Y20" s="37" t="s">
         <v>1179</v>
@@ -22572,23 +22981,23 @@
         <v>1180</v>
       </c>
       <c r="F21" s="51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F21:F22" si="2">$E$10</f>
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G21" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I21" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L21" s="37" t="s">
         <v>1183</v>
@@ -22600,7 +23009,7 @@
         <v>1179</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="37" t="s">
         <v>1179</v>
@@ -22610,27 +23019,27 @@
       </c>
     </row>
     <row r="22" spans="5:26">
-      <c r="E22" s="47" t="s">
-        <v>1180</v>
+      <c r="E22" s="10" t="s">
+        <v>1505</v>
       </c>
       <c r="F22" s="51" t="str">
         <f t="shared" si="2"/>
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G22" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>1164</v>
       </c>
       <c r="I22" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L22" s="37" t="s">
         <v>1183</v>
@@ -22642,7 +23051,7 @@
         <v>1179</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="37" t="s">
         <v>1179</v>
@@ -22650,6 +23059,135 @@
       <c r="Z22" s="37" t="s">
         <v>1164</v>
       </c>
+    </row>
+    <row r="23" spans="5:26">
+      <c r="E23" s="47" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F23" s="51" t="str">
+        <f>$E$10</f>
+        <v>LOV_ITEM_MODEL</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>120</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="37" t="s">
+        <v>1179</v>
+      </c>
+      <c r="Z23" s="37" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="24" spans="5:26">
+      <c r="E24" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="51" t="str">
+        <f>$E$11</f>
+        <v>LOV_PRODUCT</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>120</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z24" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="5:26">
+      <c r="E25" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="51" t="str">
+        <f>$E$11</f>
+        <v>LOV_PRODUCT</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>120</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z25" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="5:26">
+      <c r="E26" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -22666,23 +23204,23 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" customWidth="1"/>
-    <col min="2" max="3" width="10.4140625" customWidth="1"/>
-    <col min="4" max="4" width="24.58203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="35.4140625" customWidth="1"/>
-    <col min="8" max="8" width="33.4140625" customWidth="1"/>
-    <col min="9" max="9" width="34.58203125" customWidth="1"/>
-    <col min="10" max="11" width="19.4140625" customWidth="1"/>
-    <col min="12" max="12" width="17.58203125" customWidth="1"/>
-    <col min="13" max="13" width="19.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
-    <col min="17" max="1025" width="10.4140625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="1025" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8B87C-1EA0-4045-A924-B790497B48DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3AACA6-964B-4E18-85A1-C7DDC10AA9F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1533">
   <si>
     <r>
       <rPr>
@@ -59,7 +59,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -91,7 +90,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -110,7 +108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -129,7 +126,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -180,7 +176,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -199,7 +194,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -218,7 +212,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -241,7 +234,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -262,7 +254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -284,7 +275,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -305,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -336,7 +325,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -367,7 +355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -386,7 +373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -405,7 +391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -424,7 +409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -443,7 +427,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -472,7 +455,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -491,7 +473,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -510,7 +491,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -529,7 +509,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -560,7 +539,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -579,7 +557,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -598,7 +575,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -618,7 +594,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -637,7 +612,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -657,7 +631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -688,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -707,7 +679,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -731,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -750,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -769,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -788,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -807,7 +774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -838,7 +804,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -869,7 +834,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -900,7 +864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -919,7 +882,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -943,7 +905,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -962,7 +923,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -981,7 +941,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -1001,7 +960,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1021,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1041,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1062,7 +1018,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1082,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1098,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1119,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1150,7 +1102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1169,7 +1120,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1190,7 +1140,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1222,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1241,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1260,7 +1207,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1294,7 +1240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1313,7 +1258,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1332,7 +1276,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1351,7 +1294,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1396,7 +1338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1441,7 +1382,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1475,7 +1415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1494,7 +1433,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1513,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1533,7 +1470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1557,7 +1493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1576,7 +1511,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1595,7 +1529,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1615,7 +1548,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1669,7 +1601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1688,7 +1619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1707,7 +1637,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1727,7 +1656,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1746,7 +1674,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1765,7 +1692,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1784,7 +1710,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1804,7 +1729,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1823,7 +1747,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1842,7 +1765,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1861,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1926,7 +1847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1957,7 +1877,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1976,7 +1895,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2007,7 +1925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">url </t>
     </r>
@@ -2068,7 +1985,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3329,7 +3245,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -3339,7 +3254,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>TART_VALUE</t>
     </r>
@@ -3351,7 +3265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
@@ -3361,7 +3274,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>URRENT_VALUE</t>
     </r>
@@ -3373,7 +3285,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3383,7 +3294,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>ESET_FREQUENCY</t>
     </r>
@@ -3395,7 +3305,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3405,7 +3314,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>ESET_DATE</t>
     </r>
@@ -5547,7 +5455,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5566,7 +5473,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -7539,7 +7445,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>/good.html</t>
     </r>
@@ -7718,7 +7623,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>/unit_assign.html</t>
     </r>
@@ -7773,7 +7677,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>/assign_unit.html</t>
     </r>
@@ -8012,6 +7915,48 @@
   <si>
     <t>Item Code</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOD.STATUS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品状态</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Status</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVALID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -8046,7 +7991,6 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8059,27 +8003,23 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8099,7 +8039,6 @@
       <b/>
       <sz val="12"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8119,7 +8058,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8180,25 +8118,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -12075,7 +12009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F374" sqref="F374"/>
     </sheetView>
   </sheetViews>
@@ -17289,10 +17223,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K230"/>
+  <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView topLeftCell="B119" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -18065,59 +17999,50 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="C55" s="37"/>
+      <c r="E55" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>1524</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="D56" s="6" t="s">
+      <c r="A56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="D57" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H57" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J56" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K57" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="E57" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F57" s="40" t="str">
-        <f>$E$8</f>
-        <v>CUSTOMER.SOURCE</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -18129,19 +18054,19 @@
         <v>CUSTOMER.SOURCE</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J58" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -18149,47 +18074,47 @@
         <v>107</v>
       </c>
       <c r="F59" s="40" t="str">
+        <f>$E$8</f>
+        <v>CUSTOMER.SOURCE</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="E60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="40" t="str">
         <f>$E$9</f>
         <v xml:space="preserve">CUSTOMER.CATEGORY </v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H60" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I60" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J60" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K60" s="8" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="E60" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="40" t="str">
-        <f t="shared" ref="F60:F61" si="0">$E$9</f>
-        <v xml:space="preserve">CUSTOMER.CATEGORY </v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -18197,47 +18122,47 @@
         <v>107</v>
       </c>
       <c r="F61" s="40" t="str">
+        <f t="shared" ref="F61:F62" si="0">$E$9</f>
+        <v xml:space="preserve">CUSTOMER.CATEGORY </v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="E62" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="40" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CUSTOMER.CATEGORY </v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H62" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="J61" s="37" t="s">
+      <c r="J62" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="E62" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="40" t="str">
-        <f>$E$10</f>
-        <v xml:space="preserve">CUSTOMER.CLASS </v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -18249,19 +18174,19 @@
         <v xml:space="preserve">CUSTOMER.CLASS </v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -18269,47 +18194,47 @@
         <v>107</v>
       </c>
       <c r="F64" s="40" t="str">
+        <f>$E$10</f>
+        <v xml:space="preserve">CUSTOMER.CLASS </v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H64" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11">
+      <c r="E65" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="40" t="str">
         <f>$E$11</f>
         <v>CUSTOMER.TYPE</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H65" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I65" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="J64" s="37" t="s">
+      <c r="J65" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K65" s="8" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="5:11">
-      <c r="E65" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="40" t="str">
-        <f t="shared" ref="F65:F69" si="1">$E$11</f>
-        <v>CUSTOMER.TYPE</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="66" spans="5:11">
@@ -18317,23 +18242,23 @@
         <v>107</v>
       </c>
       <c r="F66" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F66:F70" si="1">$E$11</f>
         <v>CUSTOMER.TYPE</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="5:11">
@@ -18345,19 +18270,19 @@
         <v>CUSTOMER.TYPE</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="5:11">
@@ -18369,19 +18294,19 @@
         <v>CUSTOMER.TYPE</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J68" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="5:11">
@@ -18393,19 +18318,19 @@
         <v>CUSTOMER.TYPE</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="J69" s="37" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="5:11">
@@ -18413,23 +18338,23 @@
         <v>107</v>
       </c>
       <c r="F70" s="40" t="str">
-        <f>$E$12</f>
-        <v>CASHFLOW.DIRECTION</v>
+        <f t="shared" si="1"/>
+        <v>CUSTOMER.TYPE</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="5:11">
@@ -18441,19 +18366,19 @@
         <v>CASHFLOW.DIRECTION</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J71" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="5:11">
@@ -18461,23 +18386,23 @@
         <v>107</v>
       </c>
       <c r="F72" s="40" t="str">
-        <f t="shared" ref="F72:F73" si="2">$E$12</f>
+        <f>$E$12</f>
         <v>CASHFLOW.DIRECTION</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J72" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="5:11">
@@ -18485,47 +18410,47 @@
         <v>107</v>
       </c>
       <c r="F73" s="40" t="str">
+        <f t="shared" ref="F73:F74" si="2">$E$12</f>
+        <v>CASHFLOW.DIRECTION</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="H73" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="J73" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11">
+      <c r="E74" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="40" t="str">
         <f t="shared" si="2"/>
         <v>CASHFLOW.DIRECTION</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H74" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="J73" s="37" t="s">
+      <c r="J74" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K74" s="8" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11">
-      <c r="E74" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="40" t="str">
-        <f>$E$13</f>
-        <v>BUSINESS.CATEGORY</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="75" spans="5:11">
@@ -18537,19 +18462,19 @@
         <v>BUSINESS.CATEGORY</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J75" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="5:11">
@@ -18557,23 +18482,23 @@
         <v>107</v>
       </c>
       <c r="F76" s="40" t="str">
-        <f>$E$14</f>
-        <v>BUSINESS.TYPE</v>
+        <f>$E$13</f>
+        <v>BUSINESS.CATEGORY</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H76" s="37" t="s">
-        <v>560</v>
+        <v>425</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>560</v>
+        <v>425</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="5:11">
@@ -18585,19 +18510,19 @@
         <v>BUSINESS.TYPE</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="5:11">
@@ -18605,23 +18530,23 @@
         <v>107</v>
       </c>
       <c r="F78" s="40" t="str">
-        <f>$E$15</f>
-        <v>BUSINESS.USEAGE</v>
+        <f>$E$14</f>
+        <v>BUSINESS.TYPE</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>559</v>
+        <v>432</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>564</v>
+        <v>436</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>564</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="5:11">
@@ -18633,19 +18558,19 @@
         <v>BUSINESS.USEAGE</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>422</v>
+        <v>559</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="5:11">
@@ -18657,19 +18582,19 @@
         <v>BUSINESS.USEAGE</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>434</v>
+        <v>563</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J80" s="37" t="s">
-        <v>434</v>
+        <v>563</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="5:11">
@@ -18677,47 +18602,47 @@
         <v>107</v>
       </c>
       <c r="F81" s="40" t="str">
+        <f>$E$15</f>
+        <v>BUSINESS.USEAGE</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J81" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11">
+      <c r="E82" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="40" t="str">
         <f>$E$16</f>
         <v>BUSINESS.CYCLE</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="H81" s="37" t="s">
+      <c r="H82" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I82" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="J81" s="37" t="s">
+      <c r="J82" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K82" s="8" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="5:11">
-      <c r="E82" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="40" t="str">
-        <f t="shared" ref="F82:F83" si="3">$E$16</f>
-        <v>BUSINESS.CYCLE</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="83" spans="5:11">
@@ -18725,71 +18650,71 @@
         <v>107</v>
       </c>
       <c r="F83" s="40" t="str">
+        <f t="shared" ref="F83:F84" si="3">$E$16</f>
+        <v>BUSINESS.CYCLE</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J83" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11">
+      <c r="E84" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="40" t="str">
         <f t="shared" si="3"/>
         <v>BUSINESS.CYCLE</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="H83" s="37" t="s">
+      <c r="H84" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I84" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="J83" s="37" t="s">
+      <c r="J84" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K84" s="8" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="84" spans="5:11">
-      <c r="E84" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F84" s="40" t="str">
+    <row r="85" spans="5:11">
+      <c r="E85" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="40" t="str">
         <f>$E$17</f>
         <v>PRODUCT.TYPE</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="H84" s="37" t="s">
+      <c r="H85" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I85" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="J84" s="37" t="s">
+      <c r="J85" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K85" s="8" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="85" spans="5:11">
-      <c r="E85" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="40" t="str">
-        <f t="shared" ref="F85:F87" si="4">$E$17</f>
-        <v>PRODUCT.TYPE</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H85" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="J85" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="86" spans="5:11">
@@ -18797,23 +18722,23 @@
         <v>107</v>
       </c>
       <c r="F86" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F86:F88" si="4">$E$17</f>
         <v>PRODUCT.TYPE</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H86" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J86" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="5:11">
@@ -18825,19 +18750,19 @@
         <v>PRODUCT.TYPE</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J87" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="5:11">
@@ -18845,47 +18770,47 @@
         <v>107</v>
       </c>
       <c r="F88" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>PRODUCT.TYPE</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J88" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11">
+      <c r="E89" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="40" t="str">
         <f>$E$18</f>
         <v>PRODUCT.CLASS</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G89" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H89" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I89" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="J88" s="37" t="s">
+      <c r="J89" s="37" t="s">
         <v>466</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K89" s="8" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="89" spans="5:11">
-      <c r="E89" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="40" t="str">
-        <f t="shared" ref="F89:F90" si="5">$E$18</f>
-        <v>PRODUCT.CLASS</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H89" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="J89" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="90" spans="5:11">
@@ -18893,71 +18818,71 @@
         <v>107</v>
       </c>
       <c r="F90" s="40" t="str">
+        <f t="shared" ref="F90:F91" si="5">$E$18</f>
+        <v>PRODUCT.CLASS</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="J90" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11">
+      <c r="E91" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="40" t="str">
         <f t="shared" si="5"/>
         <v>PRODUCT.CLASS</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G91" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="H90" s="37" t="s">
+      <c r="H91" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="J90" s="37" t="s">
+      <c r="J91" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K91" s="8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="5:11">
-      <c r="E91" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="40" t="str">
+    <row r="92" spans="5:11">
+      <c r="E92" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="40" t="str">
         <f>$E$19</f>
         <v>PRODUCT.CALCULATE</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G92" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="H91" s="37" t="s">
+      <c r="H92" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I92" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="J91" s="37" t="s">
+      <c r="J92" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K92" s="8" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="92" spans="5:11">
-      <c r="E92" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="40" t="str">
-        <f t="shared" ref="F92:F95" si="6">$E$19</f>
-        <v>PRODUCT.CALCULATE</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="H92" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="J92" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="93" spans="5:11">
@@ -18965,23 +18890,23 @@
         <v>107</v>
       </c>
       <c r="F93" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F93:F96" si="6">$E$19</f>
         <v>PRODUCT.CALCULATE</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H93" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J93" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="5:11">
@@ -18993,19 +18918,19 @@
         <v>PRODUCT.CALCULATE</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H94" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J94" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="5:11">
@@ -19017,43 +18942,43 @@
         <v>PRODUCT.CALCULATE</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H95" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J95" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="5:11">
       <c r="E96" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F96" s="51" t="str">
-        <f>$E$20</f>
-        <v>PRODUCT.RATETYPE</v>
+      <c r="F96" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v>PRODUCT.CALCULATE</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="H96" s="37" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="J96" s="37" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="5:11">
@@ -19065,19 +18990,19 @@
         <v>PRODUCT.RATETYPE</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J97" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="5:11">
@@ -19085,23 +19010,23 @@
         <v>107</v>
       </c>
       <c r="F98" s="51" t="str">
-        <f>$E$21</f>
-        <v>PRODUCT.DATATYPE</v>
+        <f>$E$20</f>
+        <v>PRODUCT.RATETYPE</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H98" s="37" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J98" s="37" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="5:11">
@@ -19113,19 +19038,19 @@
         <v>PRODUCT.DATATYPE</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J99" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="5:11">
@@ -19137,67 +19062,67 @@
         <v>PRODUCT.DATATYPE</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H100" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J100" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="5:11">
       <c r="E101" s="10" t="s">
-        <v>959</v>
+        <v>107</v>
       </c>
       <c r="F101" s="51" t="str">
-        <f>$E$22</f>
-        <v>PRODUCT.MATRIXTYPE</v>
+        <f>$E$21</f>
+        <v>PRODUCT.DATATYPE</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="H101" s="37" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="102" spans="5:11">
       <c r="E102" s="10" t="s">
-        <v>107</v>
+        <v>959</v>
       </c>
       <c r="F102" s="51" t="str">
         <f>$E$22</f>
         <v>PRODUCT.MATRIXTYPE</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="H102" s="37" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="J102" s="37" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="5:11">
@@ -19205,47 +19130,47 @@
         <v>107</v>
       </c>
       <c r="F103" s="51" t="str">
+        <f>$E$22</f>
+        <v>PRODUCT.MATRIXTYPE</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="H103" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="J103" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11">
+      <c r="E104" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="51" t="str">
         <f>$E$23</f>
         <v>EVALUATE.TYPE</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="H103" s="37" t="s">
+      <c r="H104" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I104" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="J103" s="37" t="s">
+      <c r="J104" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K104" s="8" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="5:11">
-      <c r="E104" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="51" t="str">
-        <f t="shared" ref="F104:F105" si="7">$E$23</f>
-        <v>EVALUATE.TYPE</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="H104" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="J104" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="105" spans="5:11">
@@ -19253,47 +19178,47 @@
         <v>107</v>
       </c>
       <c r="F105" s="51" t="str">
+        <f t="shared" ref="F105:F106" si="7">$E$23</f>
+        <v>EVALUATE.TYPE</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="H105" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="J105" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11">
+      <c r="E106" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" s="51" t="str">
         <f t="shared" si="7"/>
         <v>EVALUATE.TYPE</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="H105" s="37" t="s">
+      <c r="H106" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I106" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="J105" s="37" t="s">
+      <c r="J106" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K106" s="8" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="106" spans="5:11">
-      <c r="E106" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="F106" s="51" t="str">
-        <f>$E$24</f>
-        <v>ACCOUNT.TYPE</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="H106" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="J106" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="107" spans="5:11">
@@ -19305,19 +19230,19 @@
         <v>ACCOUNT.TYPE</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H107" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J107" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="5:11">
@@ -19329,19 +19254,19 @@
         <v>ACCOUNT.TYPE</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H108" s="37" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J108" s="37" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109" spans="5:11">
@@ -19353,19 +19278,19 @@
         <v>ACCOUNT.TYPE</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H109" s="37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J109" s="37" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="5:11">
@@ -19373,23 +19298,23 @@
         <v>538</v>
       </c>
       <c r="F110" s="51" t="str">
-        <f>$E$25</f>
-        <v>ACCOUNT.CLASS</v>
+        <f>$E$24</f>
+        <v>ACCOUNT.TYPE</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H110" s="37" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="J110" s="37" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="5:11">
@@ -19401,19 +19326,19 @@
         <v>ACCOUNT.CLASS</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H111" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J111" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="5:11">
@@ -19421,20 +19346,20 @@
         <v>538</v>
       </c>
       <c r="F112" s="51" t="str">
-        <f>$E$26</f>
-        <v>ACCOUNT.OWNERTYPE</v>
+        <f>$E$25</f>
+        <v>ACCOUNT.CLASS</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>551</v>
       </c>
       <c r="H112" s="37" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>556</v>
       </c>
       <c r="J112" s="37" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>556</v>
@@ -19445,23 +19370,23 @@
         <v>538</v>
       </c>
       <c r="F113" s="51" t="str">
-        <f t="shared" ref="F113:F115" si="8">$E$26</f>
+        <f>$E$26</f>
         <v>ACCOUNT.OWNERTYPE</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="J113" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="114" spans="5:11">
@@ -19469,23 +19394,23 @@
         <v>538</v>
       </c>
       <c r="F114" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F114:F116" si="8">$E$26</f>
         <v>ACCOUNT.OWNERTYPE</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J114" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="115" spans="5:11">
@@ -19497,19 +19422,19 @@
         <v>ACCOUNT.OWNERTYPE</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H115" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J115" s="37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="5:11">
@@ -19517,23 +19442,23 @@
         <v>538</v>
       </c>
       <c r="F116" s="51" t="str">
-        <f>$E$27</f>
-        <v>CAR.TYPE</v>
+        <f t="shared" si="8"/>
+        <v>ACCOUNT.OWNERTYPE</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H116" s="37" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="J116" s="37" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="5:11">
@@ -19545,19 +19470,19 @@
         <v>CAR.TYPE</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H117" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J117" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="5:11">
@@ -19565,23 +19490,23 @@
         <v>538</v>
       </c>
       <c r="F118" s="51" t="str">
-        <f>$E$28</f>
-        <v>LOAN.TYPE</v>
+        <f>$E$27</f>
+        <v>CAR.TYPE</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="H118" s="37" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="J118" s="37" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="119" spans="5:11">
@@ -19589,23 +19514,23 @@
         <v>538</v>
       </c>
       <c r="F119" s="51" t="str">
-        <f t="shared" ref="F119:F120" si="9">$E$28</f>
+        <f>$E$28</f>
         <v>LOAN.TYPE</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>593</v>
+        <v>530</v>
       </c>
       <c r="J119" s="37" t="s">
-        <v>592</v>
+        <v>527</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>593</v>
+        <v>530</v>
       </c>
     </row>
     <row r="120" spans="5:11">
@@ -19613,23 +19538,23 @@
         <v>538</v>
       </c>
       <c r="F120" s="51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F120:F121" si="9">$E$28</f>
         <v>LOAN.TYPE</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J120" s="37" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="5:11">
@@ -19637,23 +19562,23 @@
         <v>538</v>
       </c>
       <c r="F121" s="51" t="str">
-        <f>$E$29</f>
-        <v>STOCK.TYPE</v>
+        <f t="shared" si="9"/>
+        <v>LOAN.TYPE</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H121" s="37" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="J121" s="37" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="5:11">
@@ -19665,19 +19590,19 @@
         <v>STOCK.TYPE</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J122" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="5:11">
@@ -19685,23 +19610,23 @@
         <v>538</v>
       </c>
       <c r="F123" s="51" t="str">
-        <f>$E$30</f>
-        <v>CONDITION.TYPE</v>
+        <f>$E$29</f>
+        <v>STOCK.TYPE</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="H123" s="37" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="J123" s="37" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="5:11">
@@ -19713,19 +19638,19 @@
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="H124" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J124" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="5:11">
@@ -19733,23 +19658,23 @@
         <v>538</v>
       </c>
       <c r="F125" s="51" t="str">
-        <f t="shared" ref="F125:F129" si="10">$E$30</f>
+        <f>$E$30</f>
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H125" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J125" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="5:11">
@@ -19757,23 +19682,23 @@
         <v>538</v>
       </c>
       <c r="F126" s="51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F126:F130" si="10">$E$30</f>
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H126" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J126" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="5:11">
@@ -19785,19 +19710,19 @@
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H127" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J127" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="5:11">
@@ -19809,19 +19734,19 @@
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H128" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J128" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="5:11">
@@ -19833,19 +19758,19 @@
         <v>CONDITION.TYPE</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H129" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J129" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="130" spans="5:11">
@@ -19853,23 +19778,23 @@
         <v>538</v>
       </c>
       <c r="F130" s="51" t="str">
-        <f>$E$31</f>
-        <v>CHANGE.STATUS</v>
+        <f t="shared" si="10"/>
+        <v>CONDITION.TYPE</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="H130" s="37" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="J130" s="37" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="5:11">
@@ -19877,23 +19802,23 @@
         <v>538</v>
       </c>
       <c r="F131" s="51" t="str">
-        <f t="shared" ref="F131:F134" si="11">$E$31</f>
+        <f>$E$31</f>
         <v>CHANGE.STATUS</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H131" s="37" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J131" s="37" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132" spans="5:11">
@@ -19901,23 +19826,23 @@
         <v>538</v>
       </c>
       <c r="F132" s="51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="F132:F135" si="11">$E$31</f>
         <v>CHANGE.STATUS</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J132" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="133" spans="5:11">
@@ -19929,19 +19854,19 @@
         <v>CHANGE.STATUS</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H133" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J133" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="5:11">
@@ -19953,19 +19878,19 @@
         <v>CHANGE.STATUS</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H134" s="37" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J134" s="37" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="135" spans="5:11">
@@ -19973,23 +19898,23 @@
         <v>538</v>
       </c>
       <c r="F135" s="51" t="str">
-        <f>$E$32</f>
-        <v>ORDER.STATUS</v>
+        <f t="shared" si="11"/>
+        <v>CHANGE.STATUS</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="H135" s="37" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J135" s="37" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="136" spans="5:11">
@@ -19997,23 +19922,23 @@
         <v>538</v>
       </c>
       <c r="F136" s="51" t="str">
-        <f t="shared" ref="F136:F149" si="12">$E$32</f>
+        <f>$E$32</f>
         <v>ORDER.STATUS</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H136" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="J136" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="5:11">
@@ -20021,23 +19946,23 @@
         <v>538</v>
       </c>
       <c r="F137" s="51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F137:F150" si="12">$E$32</f>
         <v>ORDER.STATUS</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H137" s="37" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="J137" s="37" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138" spans="5:11">
@@ -20049,19 +19974,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H138" s="37" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
       <c r="J138" s="37" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>648</v>
+        <v>692</v>
       </c>
     </row>
     <row r="139" spans="5:11">
@@ -20073,19 +19998,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="H139" s="37" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="J139" s="37" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="5:11">
@@ -20097,19 +20022,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H140" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J140" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="141" spans="5:11">
@@ -20121,19 +20046,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H141" s="37" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J141" s="37" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="142" spans="5:11">
@@ -20145,19 +20070,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="H142" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J142" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="143" spans="5:11">
@@ -20169,19 +20094,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H143" s="37" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J143" s="37" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="144" spans="5:11">
@@ -20193,19 +20118,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H144" s="37" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J144" s="37" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="145" spans="5:11">
@@ -20217,19 +20142,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J145" s="37" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="5:11">
@@ -20241,19 +20166,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H146" s="37" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J146" s="37" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="5:11">
@@ -20265,19 +20190,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H147" s="37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J147" s="37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="5:11">
@@ -20289,19 +20214,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H148" s="37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J148" s="37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="149" spans="5:11">
@@ -20313,19 +20238,19 @@
         <v>ORDER.STATUS</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H149" s="37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J149" s="37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="150" spans="5:11">
@@ -20333,23 +20258,23 @@
         <v>538</v>
       </c>
       <c r="F150" s="51" t="str">
-        <f>$E$33</f>
-        <v>ORDER.PAYTYPE</v>
-      </c>
-      <c r="G150" s="52">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>ORDER.STATUS</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>679</v>
       </c>
       <c r="H150" s="37" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J150" s="37" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="151" spans="5:11">
@@ -20357,23 +20282,23 @@
         <v>538</v>
       </c>
       <c r="F151" s="51" t="str">
-        <f t="shared" ref="F151" si="13">$E$33</f>
+        <f>$E$33</f>
         <v>ORDER.PAYTYPE</v>
       </c>
       <c r="G151" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J151" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="152" spans="5:11">
@@ -20381,23 +20306,23 @@
         <v>538</v>
       </c>
       <c r="F152" s="51" t="str">
-        <f>$E$34</f>
-        <v>ORDER.BILLSTATUS</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>703</v>
+        <f t="shared" ref="F152" si="13">$E$33</f>
+        <v>ORDER.PAYTYPE</v>
+      </c>
+      <c r="G152" s="52">
+        <v>0</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="J152" s="37" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="153" spans="5:11">
@@ -20409,19 +20334,19 @@
         <v>ORDER.BILLSTATUS</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H153" s="37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J153" s="37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="154" spans="5:11">
@@ -20433,19 +20358,19 @@
         <v>ORDER.BILLSTATUS</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H154" s="37" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J154" s="37" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="155" spans="5:11">
@@ -20453,23 +20378,23 @@
         <v>538</v>
       </c>
       <c r="F155" s="51" t="str">
-        <f>$E$35</f>
-        <v>ORDER.DATACLASS</v>
+        <f>$E$34</f>
+        <v>ORDER.BILLSTATUS</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="H155" s="37" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="J155" s="37" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="156" spans="5:11">
@@ -20477,23 +20402,23 @@
         <v>538</v>
       </c>
       <c r="F156" s="51" t="str">
-        <f t="shared" ref="F156:F157" si="14">$E$35</f>
+        <f>$E$35</f>
         <v>ORDER.DATACLASS</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H156" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J156" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="157" spans="5:11">
@@ -20501,23 +20426,23 @@
         <v>538</v>
       </c>
       <c r="F157" s="51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F157:F158" si="14">$E$35</f>
         <v>ORDER.DATACLASS</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>629</v>
+        <v>716</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J157" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="158" spans="5:11">
@@ -20525,23 +20450,23 @@
         <v>538</v>
       </c>
       <c r="F158" s="51" t="str">
-        <f>$E$36</f>
-        <v>CASHFLOW.STATUS</v>
+        <f t="shared" si="14"/>
+        <v>ORDER.DATACLASS</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="J158" s="37" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="159" spans="5:11">
@@ -20549,23 +20474,23 @@
         <v>538</v>
       </c>
       <c r="F159" s="51" t="str">
-        <f t="shared" ref="F159:F160" si="15">$E$36</f>
+        <f>$E$36</f>
         <v>CASHFLOW.STATUS</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>726</v>
+        <v>663</v>
       </c>
       <c r="H159" s="37" t="s">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J159" s="37" t="s">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="160" spans="5:11">
@@ -20573,23 +20498,23 @@
         <v>538</v>
       </c>
       <c r="F160" s="51" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F160:F161" si="15">$E$36</f>
         <v>CASHFLOW.STATUS</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J160" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="161" spans="5:11">
@@ -20597,23 +20522,23 @@
         <v>538</v>
       </c>
       <c r="F161" s="51" t="str">
-        <f>$E$37</f>
-        <v>CASHFLOW.SOURCETYPE</v>
+        <f t="shared" si="15"/>
+        <v>CASHFLOW.STATUS</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="J161" s="37" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="162" spans="5:11">
@@ -20621,23 +20546,23 @@
         <v>538</v>
       </c>
       <c r="F162" s="51" t="str">
-        <f t="shared" ref="F162:F164" si="16">$E$37</f>
+        <f>$E$37</f>
         <v>CASHFLOW.SOURCETYPE</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="J162" s="37" t="s">
-        <v>673</v>
+        <v>740</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="5:11">
@@ -20645,23 +20570,23 @@
         <v>538</v>
       </c>
       <c r="F163" s="51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F163:F165" si="16">$E$37</f>
         <v>CASHFLOW.SOURCETYPE</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H163" s="37" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="J163" s="37" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="164" spans="5:11">
@@ -20673,19 +20598,19 @@
         <v>CASHFLOW.SOURCETYPE</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H164" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J164" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="165" spans="5:11">
@@ -20693,23 +20618,23 @@
         <v>538</v>
       </c>
       <c r="F165" s="51" t="str">
-        <f>$E$38</f>
-        <v>CASHFLOW.OVERDUESTATUS</v>
+        <f t="shared" si="16"/>
+        <v>CASHFLOW.SOURCETYPE</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="J165" s="37" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166" spans="5:11">
@@ -20721,43 +20646,43 @@
         <v>CASHFLOW.OVERDUESTATUS</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J166" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="167" spans="5:11">
       <c r="E167" s="10" t="s">
-        <v>108</v>
+        <v>538</v>
       </c>
       <c r="F167" s="51" t="str">
-        <f>$E$39</f>
-        <v>CASHFLOW.WRITEOFFSTATUS</v>
+        <f>$E$38</f>
+        <v>CASHFLOW.OVERDUESTATUS</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="H167" s="37" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="J167" s="37" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="168" spans="5:11">
@@ -20765,23 +20690,23 @@
         <v>108</v>
       </c>
       <c r="F168" s="51" t="str">
-        <f t="shared" ref="F168:F169" si="17">$E$39</f>
+        <f>$E$39</f>
         <v>CASHFLOW.WRITEOFFSTATUS</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>704</v>
+        <v>758</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J168" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="169" spans="5:11">
@@ -20789,23 +20714,23 @@
         <v>108</v>
       </c>
       <c r="F169" s="51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F169:F170" si="17">$E$39</f>
         <v>CASHFLOW.WRITEOFFSTATUS</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J169" s="37" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="170" spans="5:11">
@@ -20813,23 +20738,23 @@
         <v>108</v>
       </c>
       <c r="F170" s="51" t="str">
-        <f>$E$40</f>
-        <v>CASHFLOW.PENALTYSTATUS</v>
+        <f t="shared" si="17"/>
+        <v>CASHFLOW.WRITEOFFSTATUS</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="J170" s="37" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="171" spans="5:11">
@@ -20837,23 +20762,23 @@
         <v>108</v>
       </c>
       <c r="F171" s="51" t="str">
-        <f t="shared" ref="F171:F172" si="18">$E$40</f>
+        <f>$E$40</f>
         <v>CASHFLOW.PENALTYSTATUS</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H171" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J171" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172" spans="5:11">
@@ -20861,23 +20786,23 @@
         <v>108</v>
       </c>
       <c r="F172" s="51" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F172:F173" si="18">$E$40</f>
         <v>CASHFLOW.PENALTYSTATUS</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H172" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J172" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="173" spans="5:11">
@@ -20885,23 +20810,23 @@
         <v>108</v>
       </c>
       <c r="F173" s="51" t="str">
-        <f>$E$41</f>
-        <v>TRANSACTION.CATEGORY</v>
+        <f t="shared" si="18"/>
+        <v>CASHFLOW.PENALTYSTATUS</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="H173" s="37" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="J173" s="37" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
     </row>
     <row r="174" spans="5:11">
@@ -20909,23 +20834,23 @@
         <v>108</v>
       </c>
       <c r="F174" s="51" t="str">
-        <f t="shared" ref="F174:F175" si="19">$E$41</f>
+        <f>$E$41</f>
         <v>TRANSACTION.CATEGORY</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="J174" s="37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="175" spans="5:11">
@@ -20933,23 +20858,23 @@
         <v>108</v>
       </c>
       <c r="F175" s="51" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="F175:F176" si="19">$E$41</f>
         <v>TRANSACTION.CATEGORY</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H175" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J175" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K175" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="176" spans="5:11">
@@ -20957,23 +20882,23 @@
         <v>108</v>
       </c>
       <c r="F176" s="51" t="str">
-        <f>$E$42</f>
-        <v>TRANSACTION.TYPE</v>
+        <f t="shared" si="19"/>
+        <v>TRANSACTION.CATEGORY</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H176" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="J176" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K176" s="8" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="177" spans="5:11">
@@ -20981,23 +20906,23 @@
         <v>108</v>
       </c>
       <c r="F177" s="51" t="str">
-        <f t="shared" ref="F177:F181" si="20">$E$42</f>
+        <f>$E$42</f>
         <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H177" s="37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I177" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J177" s="37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K177" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="178" spans="5:11">
@@ -21005,23 +20930,23 @@
         <v>108</v>
       </c>
       <c r="F178" s="51" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F178:F182" si="20">$E$42</f>
         <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H178" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="J178" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K178" s="8" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="179" spans="5:11">
@@ -21033,19 +20958,19 @@
         <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H179" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J179" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="180" spans="5:11">
@@ -21057,19 +20982,19 @@
         <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H180" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="J180" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K180" s="8" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="181" spans="5:11">
@@ -21081,19 +21006,19 @@
         <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H181" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J181" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="182" spans="5:11">
@@ -21101,23 +21026,23 @@
         <v>108</v>
       </c>
       <c r="F182" s="51" t="str">
-        <f>$E$43</f>
-        <v>TRANSACTION.REVERSEDFLAG</v>
+        <f t="shared" si="20"/>
+        <v>TRANSACTION.TYPE</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="H182" s="37" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="J182" s="37" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="183" spans="5:11">
@@ -21125,23 +21050,23 @@
         <v>108</v>
       </c>
       <c r="F183" s="51" t="str">
-        <f t="shared" ref="F183:F184" si="21">$E$43</f>
+        <f>$E$43</f>
         <v>TRANSACTION.REVERSEDFLAG</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H183" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J183" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="184" spans="5:11">
@@ -21149,23 +21074,23 @@
         <v>108</v>
       </c>
       <c r="F184" s="51" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F184:F185" si="21">$E$43</f>
         <v>TRANSACTION.REVERSEDFLAG</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H184" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I184" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J184" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="185" spans="5:11">
@@ -21173,23 +21098,23 @@
         <v>108</v>
       </c>
       <c r="F185" s="51" t="str">
-        <f>$E$44</f>
-        <v>TRANSACTION.RETURNEDFLAG</v>
+        <f t="shared" si="21"/>
+        <v>TRANSACTION.REVERSEDFLAG</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>758</v>
+        <v>822</v>
       </c>
       <c r="H185" s="37" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="J185" s="37" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="186" spans="5:11">
@@ -21197,23 +21122,23 @@
         <v>108</v>
       </c>
       <c r="F186" s="51" t="str">
-        <f t="shared" ref="F186:F188" si="22">$E$44</f>
+        <f>$E$44</f>
         <v>TRANSACTION.RETURNEDFLAG</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>829</v>
+        <v>758</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J186" s="37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="187" spans="5:11">
@@ -21221,23 +21146,23 @@
         <v>108</v>
       </c>
       <c r="F187" s="51" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F187:F189" si="22">$E$44</f>
         <v>TRANSACTION.RETURNEDFLAG</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J187" s="37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="188" spans="5:11">
@@ -21249,19 +21174,19 @@
         <v>TRANSACTION.RETURNEDFLAG</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J188" s="37" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="189" spans="5:11">
@@ -21269,23 +21194,23 @@
         <v>108</v>
       </c>
       <c r="F189" s="51" t="str">
-        <f>$E$45</f>
-        <v>TRANSACTION.JEMETHOD</v>
+        <f t="shared" si="22"/>
+        <v>TRANSACTION.RETURNEDFLAG</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="J189" s="37" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="K189" s="8" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="190" spans="5:11">
@@ -21297,19 +21222,19 @@
         <v>TRANSACTION.JEMETHOD</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J190" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K190" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="191" spans="5:11">
@@ -21317,23 +21242,23 @@
         <v>108</v>
       </c>
       <c r="F191" s="51" t="str">
-        <f>$E$46</f>
-        <v>WRITEOFF.REVERSEDFLAG</v>
+        <f>$E$45</f>
+        <v>TRANSACTION.JEMETHOD</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="J191" s="37" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="K191" s="8" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="192" spans="5:11">
@@ -21341,23 +21266,23 @@
         <v>108</v>
       </c>
       <c r="F192" s="51" t="str">
-        <f t="shared" ref="F192:F193" si="23">$E$46</f>
+        <f>$E$46</f>
         <v>WRITEOFF.REVERSEDFLAG</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I192" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J192" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K192" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="193" spans="5:11">
@@ -21365,23 +21290,23 @@
         <v>108</v>
       </c>
       <c r="F193" s="51" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F193:F194" si="23">$E$46</f>
         <v>WRITEOFF.REVERSEDFLAG</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H193" s="37" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="J193" s="37" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="K193" s="8" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
     </row>
     <row r="194" spans="5:11">
@@ -21389,23 +21314,23 @@
         <v>108</v>
       </c>
       <c r="F194" s="51" t="str">
-        <f>$E$47</f>
-        <v>PAYMENT.STATUS</v>
+        <f t="shared" si="23"/>
+        <v>WRITEOFF.REVERSEDFLAG</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>323</v>
+        <v>822</v>
       </c>
       <c r="H194" s="37" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="I194" s="8" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="J194" s="37" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="K194" s="8" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="195" spans="5:11">
@@ -21413,23 +21338,23 @@
         <v>108</v>
       </c>
       <c r="F195" s="51" t="str">
-        <f t="shared" ref="F195:F199" si="24">$E$47</f>
+        <f>$E$47</f>
         <v>PAYMENT.STATUS</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>634</v>
+        <v>323</v>
       </c>
       <c r="H195" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
       <c r="J195" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K195" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
     </row>
     <row r="196" spans="5:11">
@@ -21437,23 +21362,23 @@
         <v>108</v>
       </c>
       <c r="F196" s="51" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="F196:F200" si="24">$E$47</f>
         <v>PAYMENT.STATUS</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H196" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J196" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="197" spans="5:11">
@@ -21465,19 +21390,19 @@
         <v>PAYMENT.STATUS</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H197" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J197" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="198" spans="5:11">
@@ -21489,19 +21414,19 @@
         <v>PAYMENT.STATUS</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="H198" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I198" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="J198" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
     </row>
     <row r="199" spans="5:11">
@@ -21513,19 +21438,19 @@
         <v>PAYMENT.STATUS</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="H199" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J199" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K199" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="200" spans="5:11">
@@ -21533,23 +21458,23 @@
         <v>108</v>
       </c>
       <c r="F200" s="51" t="str">
-        <f>$E$48</f>
-        <v>PAYMENT.METHOD</v>
+        <f t="shared" si="24"/>
+        <v>PAYMENT.STATUS</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>881</v>
+        <v>679</v>
       </c>
       <c r="H200" s="37" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>889</v>
+        <v>691</v>
       </c>
       <c r="J200" s="37" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="K200" s="8" t="s">
-        <v>889</v>
+        <v>691</v>
       </c>
     </row>
     <row r="201" spans="5:11">
@@ -21557,23 +21482,23 @@
         <v>108</v>
       </c>
       <c r="F201" s="51" t="str">
-        <f t="shared" ref="F201:F203" si="25">$E$48</f>
+        <f>$E$48</f>
         <v>PAYMENT.METHOD</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H201" s="37" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J201" s="37" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="202" spans="5:11">
@@ -21581,23 +21506,23 @@
         <v>108</v>
       </c>
       <c r="F202" s="51" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F202:F204" si="25">$E$48</f>
         <v>PAYMENT.METHOD</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H202" s="37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J202" s="37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K202" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="203" spans="5:11">
@@ -21609,19 +21534,19 @@
         <v>PAYMENT.METHOD</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H203" s="37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I203" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J203" s="37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K203" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="204" spans="5:11">
@@ -21629,23 +21554,23 @@
         <v>108</v>
       </c>
       <c r="F204" s="51" t="str">
-        <f>$E$49</f>
-        <v>PAYMENT.TYPE</v>
+        <f t="shared" si="25"/>
+        <v>PAYMENT.METHOD</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>799</v>
+        <v>884</v>
       </c>
       <c r="H204" s="37" t="s">
-        <v>808</v>
+        <v>888</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="J204" s="37" t="s">
-        <v>808</v>
+        <v>888</v>
       </c>
       <c r="K204" s="8" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="205" spans="5:11">
@@ -21653,23 +21578,23 @@
         <v>108</v>
       </c>
       <c r="F205" s="51" t="str">
-        <f t="shared" ref="F205:F207" si="26">$E$49</f>
+        <f>$E$49</f>
         <v>PAYMENT.TYPE</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>893</v>
+        <v>799</v>
       </c>
       <c r="H205" s="37" t="s">
-        <v>896</v>
+        <v>808</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J205" s="37" t="s">
-        <v>896</v>
+        <v>808</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="206" spans="5:11">
@@ -21677,23 +21602,23 @@
         <v>108</v>
       </c>
       <c r="F206" s="51" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="F206:F208" si="26">$E$49</f>
         <v>PAYMENT.TYPE</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H206" s="37" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="I206" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J206" s="37" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="207" spans="5:11">
@@ -21705,19 +21630,19 @@
         <v>PAYMENT.TYPE</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H207" s="37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="I207" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J207" s="37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K207" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="208" spans="5:11">
@@ -21725,23 +21650,23 @@
         <v>108</v>
       </c>
       <c r="F208" s="51" t="str">
-        <f>$E$50</f>
-        <v>PAY.STATUS</v>
+        <f t="shared" si="26"/>
+        <v>PAYMENT.TYPE</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>758</v>
+        <v>895</v>
       </c>
       <c r="H208" s="37" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I208" s="8" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="J208" s="37" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="209" spans="5:11">
@@ -21749,23 +21674,23 @@
         <v>108</v>
       </c>
       <c r="F209" s="51" t="str">
-        <f t="shared" ref="F209:F210" si="27">$E$50</f>
+        <f>$E$50</f>
         <v>PAY.STATUS</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>829</v>
+        <v>758</v>
       </c>
       <c r="H209" s="37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I209" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J209" s="37" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K209" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="210" spans="5:11">
@@ -21773,23 +21698,23 @@
         <v>108</v>
       </c>
       <c r="F210" s="51" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="F210:F211" si="27">$E$50</f>
         <v>PAY.STATUS</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H210" s="37" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I210" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J210" s="37" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="211" spans="5:11">
@@ -21797,23 +21722,23 @@
         <v>108</v>
       </c>
       <c r="F211" s="51" t="str">
-        <f>$E$51</f>
-        <v>SETTLE.TYPE</v>
+        <f t="shared" si="27"/>
+        <v>PAY.STATUS</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>912</v>
+        <v>830</v>
       </c>
       <c r="H211" s="37" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J211" s="37" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="212" spans="5:11">
@@ -21821,23 +21746,23 @@
         <v>108</v>
       </c>
       <c r="F212" s="51" t="str">
-        <f t="shared" ref="F212" si="28">$E$51</f>
+        <f>$E$51</f>
         <v>SETTLE.TYPE</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H212" s="37" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I212" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J212" s="37" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="5:11">
@@ -21845,23 +21770,23 @@
         <v>108</v>
       </c>
       <c r="F213" s="51" t="str">
-        <f>$E$52</f>
-        <v>SETTLE.STATUS</v>
+        <f t="shared" ref="F213" si="28">$E$51</f>
+        <v>SETTLE.TYPE</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>323</v>
+        <v>913</v>
       </c>
       <c r="H213" s="37" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
       <c r="J213" s="37" t="s">
-        <v>853</v>
+        <v>910</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>859</v>
+        <v>914</v>
       </c>
     </row>
     <row r="214" spans="5:11">
@@ -21869,23 +21794,23 @@
         <v>108</v>
       </c>
       <c r="F214" s="51" t="str">
-        <f t="shared" ref="F214:F218" si="29">$E$52</f>
+        <f>$E$52</f>
         <v>SETTLE.STATUS</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>634</v>
+        <v>323</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I214" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
       <c r="J214" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K214" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
     </row>
     <row r="215" spans="5:11">
@@ -21893,23 +21818,23 @@
         <v>108</v>
       </c>
       <c r="F215" s="51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="F215:F219" si="29">$E$52</f>
         <v>SETTLE.STATUS</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H215" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I215" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J215" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="216" spans="5:11">
@@ -21921,19 +21846,19 @@
         <v>SETTLE.STATUS</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H216" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I216" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J216" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="217" spans="5:11">
@@ -21945,19 +21870,19 @@
         <v>SETTLE.STATUS</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="H217" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="J217" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K217" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="5:11">
@@ -21969,19 +21894,19 @@
         <v>SETTLE.STATUS</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="H218" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I218" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J218" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="219" spans="5:11">
@@ -21989,23 +21914,23 @@
         <v>108</v>
       </c>
       <c r="F219" s="51" t="str">
-        <f>$E$53</f>
-        <v>RETRIEVE.STATUS</v>
+        <f t="shared" si="29"/>
+        <v>SETTLE.STATUS</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>323</v>
+        <v>679</v>
       </c>
       <c r="H219" s="37" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>859</v>
+        <v>691</v>
       </c>
       <c r="J219" s="37" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>859</v>
+        <v>691</v>
       </c>
     </row>
     <row r="220" spans="5:11">
@@ -22013,23 +21938,23 @@
         <v>108</v>
       </c>
       <c r="F220" s="51" t="str">
-        <f t="shared" ref="F220:F224" si="30">$E$53</f>
+        <f>$E$53</f>
         <v>RETRIEVE.STATUS</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>634</v>
+        <v>323</v>
       </c>
       <c r="H220" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
       <c r="J220" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>646</v>
+        <v>859</v>
       </c>
     </row>
     <row r="221" spans="5:11">
@@ -22037,23 +21962,23 @@
         <v>108</v>
       </c>
       <c r="F221" s="51" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="F221:F225" si="30">$E$53</f>
         <v>RETRIEVE.STATUS</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H221" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J221" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="222" spans="5:11">
@@ -22065,19 +21990,19 @@
         <v>RETRIEVE.STATUS</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H222" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J222" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="223" spans="5:11">
@@ -22089,19 +22014,19 @@
         <v>RETRIEVE.STATUS</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="H223" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
       <c r="J223" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>686</v>
+        <v>648</v>
       </c>
     </row>
     <row r="224" spans="5:11">
@@ -22113,142 +22038,142 @@
         <v>RETRIEVE.STATUS</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="H224" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I224" s="8" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J224" s="37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="225" spans="5:11">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="225" spans="5:12">
       <c r="E225" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F225" s="51" t="str">
+        <f t="shared" si="30"/>
+        <v>RETRIEVE.STATUS</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="H225" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="J225" s="37" t="s">
+        <v>858</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="226" spans="5:12">
+      <c r="E226" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F226" s="51" t="str">
         <f>$E$54</f>
         <v>DISPOSE.STATUS</v>
       </c>
-      <c r="G225" s="8" t="s">
+      <c r="G226" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="H225" s="37" t="s">
+      <c r="H226" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="I225" s="8" t="s">
+      <c r="I226" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="J225" s="37" t="s">
+      <c r="J226" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="K225" s="8" t="s">
+      <c r="K226" s="8" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="226" spans="5:11">
-      <c r="E226" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F226" s="51" t="str">
-        <f t="shared" ref="F226:F230" si="31">$E$54</f>
-        <v>DISPOSE.STATUS</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="H226" s="37" t="s">
-        <v>854</v>
-      </c>
-      <c r="I226" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="J226" s="37" t="s">
-        <v>854</v>
-      </c>
-      <c r="K226" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="227" spans="5:11">
+    <row r="227" spans="5:12">
       <c r="E227" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F227" s="51" t="str">
+        <f t="shared" ref="F227:F230" si="31">$E$54</f>
+        <v>DISPOSE.STATUS</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="H227" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="I227" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="J227" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="228" spans="5:12">
+      <c r="E228" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F228" s="51" t="str">
         <f t="shared" si="31"/>
         <v>DISPOSE.STATUS</v>
       </c>
-      <c r="G227" s="8" t="s">
+      <c r="G228" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="H227" s="37" t="s">
+      <c r="H228" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="I227" s="8" t="s">
+      <c r="I228" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="J227" s="37" t="s">
+      <c r="J228" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="K227" s="8" t="s">
+      <c r="K228" s="8" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="228" spans="5:11">
-      <c r="E228" s="10" t="s">
+    <row r="229" spans="5:12">
+      <c r="E229" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F228" s="51" t="str">
+      <c r="F229" s="51" t="str">
         <f>$E$54</f>
         <v>DISPOSE.STATUS</v>
       </c>
-      <c r="G228" s="8" t="s">
+      <c r="G229" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="H228" s="37" t="s">
+      <c r="H229" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="I228" s="8" t="s">
+      <c r="I229" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="J228" s="37" t="s">
+      <c r="J229" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="K228" s="8" t="s">
+      <c r="K229" s="8" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="229" spans="5:11">
-      <c r="E229" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F229" s="51" t="str">
-        <f t="shared" si="31"/>
-        <v>DISPOSE.STATUS</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="H229" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="I229" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="J229" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="K229" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="230" spans="5:11">
+    <row r="230" spans="5:12">
       <c r="E230" s="10" t="s">
         <v>108</v>
       </c>
@@ -22257,20 +22182,169 @@
         <v>DISPOSE.STATUS</v>
       </c>
       <c r="G230" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="H230" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="J230" s="37" t="s">
+        <v>857</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="231" spans="5:12">
+      <c r="E231" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F231" s="51" t="str">
+        <f>$E$54</f>
+        <v>DISPOSE.STATUS</v>
+      </c>
+      <c r="G231" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="H230" s="37" t="s">
+      <c r="H231" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="I230" s="8" t="s">
+      <c r="I231" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="J230" s="37" t="s">
+      <c r="J231" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="K230" s="8" t="s">
+      <c r="K231" s="8" t="s">
         <v>691</v>
       </c>
+    </row>
+    <row r="232" spans="5:12">
+      <c r="E232" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F232" s="51" t="str">
+        <f>$E$55</f>
+        <v>GOOD.STATUS</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H232" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J232" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L232" s="37"/>
+    </row>
+    <row r="233" spans="5:12">
+      <c r="E233" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F233" s="51" t="str">
+        <f t="shared" ref="F233:F236" si="32">$E$55</f>
+        <v>GOOD.STATUS</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="H233" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="J233" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="L233" s="37"/>
+    </row>
+    <row r="234" spans="5:12">
+      <c r="E234" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234" s="51" t="str">
+        <f t="shared" si="32"/>
+        <v>GOOD.STATUS</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H234" s="37" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="J234" s="37" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L234" s="37"/>
+    </row>
+    <row r="235" spans="5:12">
+      <c r="E235" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F235" s="51" t="str">
+        <f t="shared" si="32"/>
+        <v>GOOD.STATUS</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H235" s="37" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J235" s="37" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L235" s="37"/>
+    </row>
+    <row r="236" spans="5:12">
+      <c r="E236" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F236" s="51" t="str">
+        <f>$E$55</f>
+        <v>GOOD.STATUS</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="H236" s="37" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="J236" s="37" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="L236" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3AACA6-964B-4E18-85A1-C7DDC10AA9F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F739D77-66E3-49CD-8228-E10168AC061A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1533">
   <si>
     <r>
       <rPr>
@@ -59,6 +59,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -90,6 +91,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -108,6 +110,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -126,6 +129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -176,6 +180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -194,6 +199,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -212,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -234,6 +241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -254,6 +262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -275,6 +284,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -295,6 +305,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -325,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -355,6 +367,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -373,6 +386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -391,6 +405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -409,6 +424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -427,6 +443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -455,6 +472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -473,6 +491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -491,6 +510,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -509,6 +529,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -539,6 +560,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -557,6 +579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -575,6 +598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -594,6 +618,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -612,6 +637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -631,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -661,6 +688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -679,6 +707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -702,6 +731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -720,6 +750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -738,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -756,6 +788,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -774,6 +807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -804,6 +838,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -834,6 +869,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -864,6 +900,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -882,6 +919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -905,6 +943,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -923,6 +962,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -941,6 +981,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -960,6 +1001,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -979,6 +1021,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -998,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1018,6 +1062,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1037,6 +1082,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1052,6 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1072,6 +1119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1102,6 +1150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1120,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1140,6 +1190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1222,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1241,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1207,6 +1260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1240,6 +1294,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1258,6 +1313,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1276,6 +1332,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1294,6 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1338,6 +1396,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1382,6 +1441,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1415,6 +1475,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1433,6 +1494,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1451,6 +1513,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1470,6 +1533,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1493,6 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1511,6 +1576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1529,6 +1595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1548,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1601,6 +1669,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1619,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1637,6 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1656,6 +1727,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1674,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1692,6 +1765,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1710,6 +1784,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1729,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1747,6 +1823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1765,6 +1842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1783,6 +1861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1847,6 +1926,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1877,6 +1957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1895,6 +1976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1925,6 +2007,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">url </t>
     </r>
@@ -1985,6 +2068,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3245,6 +3329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>S</t>
     </r>
@@ -3254,6 +3339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>TART_VALUE</t>
     </r>
@@ -3265,6 +3351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>C</t>
     </r>
@@ -3274,6 +3361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>URRENT_VALUE</t>
     </r>
@@ -3285,6 +3373,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3294,6 +3383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>ESET_FREQUENCY</t>
     </r>
@@ -3305,6 +3395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
@@ -3314,6 +3405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>ESET_DATE</t>
     </r>
@@ -5455,6 +5547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -5473,6 +5566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -7445,6 +7539,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>/good.html</t>
     </r>
@@ -7623,6 +7718,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>/unit_assign.html</t>
     </r>
@@ -7677,6 +7773,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>/assign_unit.html</t>
     </r>
@@ -7735,10 +7832,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>product/product_calculate.html</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>fa fa-calculator</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7751,10 +7844,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>产品测算</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Product Cacalate</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7764,10 +7853,6 @@
   </si>
   <si>
     <t>PRO1080</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO1090 </t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -7857,22 +7942,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>产品</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>ProductMapper.select</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>productCode</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>itemmodel.select</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7881,18 +7954,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>产品</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Product </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>product.product</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>LOV_PRODUCT</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -7957,6 +8018,42 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>产品选择</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product.columnvalue</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/product_calcselect.html</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算器</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Select</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品计算器</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7991,6 +8088,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8003,23 +8101,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8039,6 +8141,7 @@
       <b/>
       <sz val="12"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8058,6 +8161,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8118,21 +8222,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -9474,10 +9582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10361,7 +10469,7 @@
     </row>
     <row r="35" spans="5:13">
       <c r="E35" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>1481</v>
@@ -10379,13 +10487,42 @@
         <v>1478</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>1479</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>1485</v>
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13">
+      <c r="E36" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>
@@ -10398,10 +10535,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10999,13 +11136,13 @@
     </row>
     <row r="19" spans="1:17">
       <c r="E19" s="8" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>1419</v>
@@ -11042,20 +11179,20 @@
     </row>
     <row r="20" spans="1:17">
       <c r="E20" s="8" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I20" s="51" t="str">
-        <f>RESOURCE!E35</f>
-        <v>product/product_calculate.html</v>
+        <f>RESOURCE!E36</f>
+        <v>product/product_calcselect.html</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>1029</v>
@@ -11067,19 +11204,19 @@
         <v>90</v>
       </c>
       <c r="M20" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>1484</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>1486</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>1486</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -11577,34 +11714,29 @@
         <v>108</v>
       </c>
       <c r="F49" s="51" t="str">
+        <f>$E$20</f>
+        <v xml:space="preserve">PRO1090 </v>
+      </c>
+      <c r="G49" s="51" t="str">
+        <f>RESOURCE!E36</f>
+        <v>product/product_calcselect.html</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="E50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="51" t="str">
         <f>E22</f>
         <v>FIN1010</v>
       </c>
-      <c r="G49" s="40" t="str">
+      <c r="G50" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="D50" s="6"/>
-      <c r="E50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="51" t="str">
-        <f>E24</f>
-        <v>ITM1010</v>
-      </c>
-      <c r="G50" s="40" t="str">
-        <f>RESOURCE!E28</f>
-        <v>item/item.html</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="39"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="10" t="s">
         <v>108</v>
       </c>
@@ -11613,12 +11745,16 @@
         <v>ITM1010</v>
       </c>
       <c r="G51" s="40" t="str">
-        <f>RESOURCE!E27</f>
-        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
-      </c>
-      <c r="H51" s="37"/>
+        <f>RESOURCE!E28</f>
+        <v>item/item.html</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:10">
+      <c r="A52" s="39"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="E52" s="10" t="s">
         <v>108</v>
       </c>
@@ -11627,12 +11763,10 @@
         <v>ITM1010</v>
       </c>
       <c r="G52" s="40" t="str">
-        <f>RESOURCE!E26</f>
-        <v>item/item_evaluate.html</v>
+        <f>RESOURCE!E27</f>
+        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
       </c>
       <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
     </row>
     <row r="53" spans="1:10">
       <c r="E53" s="10" t="s">
@@ -11643,6 +11777,22 @@
         <v>ITM1010</v>
       </c>
       <c r="G53" s="40" t="str">
+        <f>RESOURCE!E26</f>
+        <v>item/item_evaluate.html</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="E54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="51" t="str">
+        <f>E24</f>
+        <v>ITM1010</v>
+      </c>
+      <c r="G54" s="40" t="str">
         <f>RESOURCE!E32</f>
         <v>item/item_edit.html</v>
       </c>
@@ -12007,10 +12157,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView topLeftCell="D357" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F374" sqref="F374"/>
+      <selection activeCell="F372" sqref="F372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17106,13 +17256,13 @@
         <v>107</v>
       </c>
       <c r="F366" s="8" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G366" s="8" t="s">
         <v>1289</v>
       </c>
       <c r="H366" s="8" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="367" spans="5:8">
@@ -17120,13 +17270,13 @@
         <v>107</v>
       </c>
       <c r="F367" s="8" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G367" s="8" t="s">
         <v>1290</v>
       </c>
       <c r="H367" s="8" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="368" spans="5:8">
@@ -17134,13 +17284,13 @@
         <v>107</v>
       </c>
       <c r="F368" s="8" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G368" s="8" t="s">
         <v>1289</v>
       </c>
       <c r="H368" s="8" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="369" spans="5:8">
@@ -17148,13 +17298,13 @@
         <v>107</v>
       </c>
       <c r="F369" s="8" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G369" s="8" t="s">
         <v>1290</v>
       </c>
       <c r="H369" s="8" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="370" spans="5:8">
@@ -17162,13 +17312,13 @@
         <v>107</v>
       </c>
       <c r="F370" s="8" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G370" s="8" t="s">
         <v>1289</v>
       </c>
       <c r="H370" s="8" t="s">
-        <v>1513</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="371" spans="5:8">
@@ -17176,13 +17326,13 @@
         <v>107</v>
       </c>
       <c r="F371" s="8" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G371" s="8" t="s">
         <v>1290</v>
       </c>
       <c r="H371" s="8" t="s">
-        <v>1514</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="372" spans="5:8">
@@ -17190,13 +17340,13 @@
         <v>107</v>
       </c>
       <c r="F372" s="8" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="G372" s="8" t="s">
-        <v>1518</v>
+        <v>1289</v>
       </c>
       <c r="H372" s="8" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="373" spans="5:8">
@@ -17204,13 +17354,41 @@
         <v>107</v>
       </c>
       <c r="F373" s="8" t="s">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="G373" s="8" t="s">
-        <v>1520</v>
+        <v>1290</v>
       </c>
       <c r="H373" s="8" t="s">
-        <v>1521</v>
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="374" spans="5:8">
+      <c r="E374" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F374" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G374" s="8" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H374" s="8" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="375" spans="5:8">
+      <c r="E375" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F375" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>1512</v>
       </c>
     </row>
   </sheetData>
@@ -17225,7 +17403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" workbookViewId="0">
+    <sheetView topLeftCell="D38" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -18001,16 +18179,16 @@
     <row r="55" spans="1:11">
       <c r="C55" s="37"/>
       <c r="E55" s="10" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -22236,13 +22414,13 @@
         <v>638</v>
       </c>
       <c r="I232" s="8" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="J232" s="37" t="s">
         <v>638</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="L232" s="37"/>
     </row>
@@ -22251,7 +22429,7 @@
         <v>108</v>
       </c>
       <c r="F233" s="51" t="str">
-        <f t="shared" ref="F233:F236" si="32">$E$55</f>
+        <f t="shared" ref="F233:F235" si="32">$E$55</f>
         <v>GOOD.STATUS</v>
       </c>
       <c r="G233" s="8" t="s">
@@ -22280,19 +22458,19 @@
         <v>GOOD.STATUS</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="H234" s="37" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="I234" s="8" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="J234" s="37" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="K234" s="8" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="L234" s="37"/>
     </row>
@@ -22305,19 +22483,19 @@
         <v>GOOD.STATUS</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="H235" s="37" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="I235" s="8" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="J235" s="37" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="K235" s="8" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="L235" s="37"/>
     </row>
@@ -22333,13 +22511,13 @@
         <v>665</v>
       </c>
       <c r="H236" s="37" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="I236" s="8" t="s">
         <v>686</v>
       </c>
       <c r="J236" s="37" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="K236" s="8" t="s">
         <v>686</v>
@@ -22357,8 +22535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22583,7 +22761,7 @@
         <v>1199</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="L10">
         <v>800</v>
@@ -22609,25 +22787,25 @@
       <c r="B11" s="8"/>
       <c r="D11" s="47"/>
       <c r="E11" s="10" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>1506</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>1507</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>1509</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>1515</v>
       </c>
       <c r="L11">
         <v>600</v>
@@ -23094,7 +23272,7 @@
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="10" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="F22" s="51" t="str">
         <f t="shared" si="2"/>
@@ -23143,7 +23321,7 @@
         <v>LOV_ITEM_MODEL</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>1164</v>
@@ -23185,13 +23363,13 @@
         <v>LOV_PRODUCT</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="H24" s="37" t="s">
+        <v>1490</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>1493</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>1496</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -23227,13 +23405,13 @@
         <v>LOV_PRODUCT</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H25" s="37" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>1494</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>1497</v>
       </c>
       <c r="J25">
         <v>1</v>

--- a/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
+++ b/jrap-crm-db/src/main/java/com/jingrui/jrap/db/data/crm-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hap\MyProject\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jrap_lease\jrap-crm-db\src\main\java\com\jingrui\jrap\db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6345BFB3-AC91-4C0F-BA9E-3146E551B866}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE30C40-3C1E-4C34-B85C-C5B456F3ECFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="744" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="1762">
   <si>
     <r>
       <rPr>
@@ -8909,10 +8909,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>select.employee</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>employee.name</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -8986,6 +8982,10 @@
   </si>
   <si>
     <t>计算</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee.selectemployee</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -10086,22 +10086,22 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.2109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.2109375" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="49.5">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="C14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="33">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -10298,7 +10298,7 @@
       </c>
       <c r="E26" s="56"/>
     </row>
-    <row r="27" spans="3:5" ht="49.5">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -10327,11 +10327,11 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="23.0703125" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10812,26 +10812,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.58203125" customWidth="1"/>
+    <col min="6" max="6" width="34.58203125" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="29.58203125" customWidth="1"/>
+    <col min="11" max="11" width="19.58203125" customWidth="1"/>
+    <col min="12" max="12" width="29.58203125" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="14" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11755,39 +11755,39 @@
     </row>
     <row r="37" spans="5:13">
       <c r="E37" s="10" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>1757</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>1757</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>1758</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>1759</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="L37" s="8" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>1759</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>1760</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="38" spans="5:13">
       <c r="E38" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>1355</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="39" spans="5:13">
       <c r="E39" s="10" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>1355</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="40" spans="5:13">
       <c r="E40" s="10" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>1355</v>
@@ -11871,10 +11871,10 @@
     </row>
     <row r="41" spans="5:13">
       <c r="E41" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>1355</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="42" spans="5:13">
       <c r="E42" s="10" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>1355</v>
@@ -11929,10 +11929,10 @@
     </row>
     <row r="43" spans="5:13">
       <c r="E43" s="10" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>1355</v>
@@ -12082,30 +12082,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.2109375" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.2109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="21.58203125" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="42.58203125" customWidth="1"/>
+    <col min="8" max="8" width="19.4140625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="21.58203125" customWidth="1"/>
+    <col min="15" max="15" width="16.58203125" customWidth="1"/>
     <col min="16" max="17" width="28" customWidth="1"/>
-    <col min="18" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="18" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -13089,32 +13089,32 @@
         <v>18</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>1687</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>1687</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="39"/>
       <c r="B29" s="37"/>
       <c r="E29" s="10" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>1637</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>1638</v>
@@ -13359,7 +13359,7 @@
         <v>108</v>
       </c>
       <c r="F45" s="51" t="str">
-        <f t="shared" ref="F45:F51" si="2">$E$18</f>
+        <f t="shared" ref="F45:F52" si="2">$E$18</f>
         <v>PRO1070</v>
       </c>
       <c r="G45" s="40" t="str">
@@ -13450,12 +13450,12 @@
         <v>108</v>
       </c>
       <c r="F52" s="51" t="str">
-        <f>$E$19</f>
-        <v>PRO1080</v>
+        <f t="shared" si="2"/>
+        <v>PRO1070</v>
       </c>
       <c r="G52" s="40" t="str">
-        <f>RESOURCE!E29</f>
-        <v>product/good.html</v>
+        <f>RESOURCE!E45</f>
+        <v>product/good_apply.html</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -13463,12 +13463,12 @@
         <v>108</v>
       </c>
       <c r="F53" s="51" t="str">
-        <f>$E$20</f>
-        <v xml:space="preserve">PRO1090 </v>
-      </c>
-      <c r="G53" s="51" t="str">
-        <f>RESOURCE!E36</f>
-        <v>product/product_calcselect.html</v>
+        <f>$E$19</f>
+        <v>PRO1080</v>
+      </c>
+      <c r="G53" s="40" t="str">
+        <f>RESOURCE!E29</f>
+        <v>product/good.html</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -13480,8 +13480,8 @@
         <v xml:space="preserve">PRO1090 </v>
       </c>
       <c r="G54" s="51" t="str">
-        <f>RESOURCE!E35</f>
-        <v>product/product_calculate.html</v>
+        <f>RESOURCE!E36</f>
+        <v>product/product_calcselect.html</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -13493,8 +13493,8 @@
         <v xml:space="preserve">PRO1090 </v>
       </c>
       <c r="G55" s="51" t="str">
-        <f>RESOURCE!E37</f>
-        <v>product/calculate</v>
+        <f>RESOURCE!E35</f>
+        <v>product/product_calculate.html</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -13502,34 +13502,29 @@
         <v>108</v>
       </c>
       <c r="F56" s="51" t="str">
+        <f>$E$20</f>
+        <v xml:space="preserve">PRO1090 </v>
+      </c>
+      <c r="G56" s="51" t="str">
+        <f>RESOURCE!E37</f>
+        <v>product/calculate</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="E57" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="51" t="str">
         <f>E22</f>
         <v>FIN1010</v>
       </c>
-      <c r="G56" s="40" t="str">
+      <c r="G57" s="40" t="str">
         <f>RESOURCE!E25</f>
         <v>finance/bank.html</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="D57" s="6"/>
-      <c r="E57" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="51" t="str">
-        <f>E24</f>
-        <v>ITM1010</v>
-      </c>
-      <c r="G57" s="40" t="str">
-        <f>RESOURCE!E28</f>
-        <v>item/item.html</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="39"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="10" t="s">
         <v>108</v>
       </c>
@@ -13538,12 +13533,16 @@
         <v>ITM1010</v>
       </c>
       <c r="G58" s="40" t="str">
-        <f>RESOURCE!E27</f>
-        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
-      </c>
-      <c r="H58" s="37"/>
+        <f>RESOURCE!E28</f>
+        <v>item/item.html</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:10">
+      <c r="A59" s="39"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
       <c r="E59" s="10" t="s">
         <v>108</v>
       </c>
@@ -13552,12 +13551,10 @@
         <v>ITM1010</v>
       </c>
       <c r="G59" s="40" t="str">
-        <f>RESOURCE!E26</f>
-        <v>item/item_evaluate.html</v>
+        <f>RESOURCE!E27</f>
+        <v>afd/item/evaluate/selectByItemId/{itemId}</v>
       </c>
       <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
     </row>
     <row r="60" spans="1:10">
       <c r="E60" s="10" t="s">
@@ -13568,21 +13565,24 @@
         <v>ITM1010</v>
       </c>
       <c r="G60" s="40" t="str">
-        <f>RESOURCE!E32</f>
-        <v>item/item_edit.html</v>
-      </c>
+        <f>RESOURCE!E26</f>
+        <v>item/item_evaluate.html</v>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="1:10">
       <c r="E61" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F61" s="51" t="str">
-        <f>E26</f>
-        <v xml:space="preserve">CHA1010 </v>
+        <f>E24</f>
+        <v>ITM1010</v>
       </c>
       <c r="G61" s="40" t="str">
-        <f>RESOURCE!E38</f>
-        <v>change/change.html</v>
+        <f>RESOURCE!E32</f>
+        <v>item/item_edit.html</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -13594,8 +13594,8 @@
         <v xml:space="preserve">CHA1010 </v>
       </c>
       <c r="G62" s="40" t="str">
-        <f>RESOURCE!E39</f>
-        <v>change/change_edit.html</v>
+        <f>RESOURCE!E38</f>
+        <v>change/change.html</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -13603,12 +13603,12 @@
         <v>108</v>
       </c>
       <c r="F63" s="51" t="str">
-        <f>E27</f>
-        <v>CHA1020</v>
+        <f>E26</f>
+        <v xml:space="preserve">CHA1010 </v>
       </c>
       <c r="G63" s="40" t="str">
-        <f>RESOURCE!E40</f>
-        <v>change/change_assign.html</v>
+        <f>RESOURCE!E39</f>
+        <v>change/change_edit.html</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -13620,8 +13620,8 @@
         <v>CHA1020</v>
       </c>
       <c r="G64" s="40" t="str">
-        <f>RESOURCE!E42</f>
-        <v>change/contact.html</v>
+        <f>RESOURCE!E40</f>
+        <v>change/change_assign.html</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -13633,8 +13633,8 @@
         <v>CHA1020</v>
       </c>
       <c r="G65" s="40" t="str">
-        <f>RESOURCE!E43</f>
-        <v>change/contact_edit.html</v>
+        <f>RESOURCE!E42</f>
+        <v>change/contact.html</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -13646,8 +13646,8 @@
         <v>CHA1020</v>
       </c>
       <c r="G66" s="40" t="str">
-        <f>RESOURCE!E44</f>
-        <v>con/contact/batchassign</v>
+        <f>RESOURCE!E43</f>
+        <v>change/contact_edit.html</v>
       </c>
     </row>
     <row r="67" spans="5:7">
@@ -13655,10 +13655,23 @@
         <v>108</v>
       </c>
       <c r="F67" s="51" t="str">
+        <f>E27</f>
+        <v>CHA1020</v>
+      </c>
+      <c r="G67" s="40" t="str">
+        <f>RESOURCE!E44</f>
+        <v>con/contact/batchassign</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="51" t="str">
         <f>E29</f>
         <v>FND1020</v>
       </c>
-      <c r="G67" s="40" t="str">
+      <c r="G68" s="40" t="str">
         <f>RESOURCE!E47</f>
         <v>fnd/company_apply.html</v>
       </c>
@@ -13678,11 +13691,11 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.92578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.92578125" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13699,7 +13712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="34.799999999999997">
       <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
@@ -14081,16 +14094,16 @@
       <selection activeCell="G423" sqref="G423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.92578125" customWidth="1"/>
+    <col min="1" max="1" width="11.58203125" customWidth="1"/>
+    <col min="2" max="2" width="5.9140625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.2109375" customWidth="1"/>
+    <col min="4" max="5" width="13.58203125" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="9" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19824,7 +19837,7 @@
         <v>1279</v>
       </c>
       <c r="H412" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="413" spans="5:8">
@@ -20723,24 +20736,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.4140625" customWidth="1"/>
+    <col min="8" max="8" width="33.4140625" customWidth="1"/>
+    <col min="9" max="9" width="34.58203125" customWidth="1"/>
+    <col min="10" max="10" width="19.4140625" customWidth="1"/>
+    <col min="11" max="11" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21481,7 +21494,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17" customHeight="1">
+    <row r="54" spans="1:11" ht="16.95" customHeight="1">
       <c r="C54" s="37"/>
       <c r="E54" s="10" t="s">
         <v>1497</v>
@@ -21496,7 +21509,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17" customHeight="1">
+    <row r="55" spans="1:11" ht="16.95" customHeight="1">
       <c r="C55" s="37"/>
       <c r="E55" s="10" t="s">
         <v>1590</v>
@@ -21511,7 +21524,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17" customHeight="1">
+    <row r="56" spans="1:11" ht="16.95" customHeight="1">
       <c r="C56" s="37"/>
       <c r="E56" s="10" t="s">
         <v>1594</v>
@@ -21526,7 +21539,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17" customHeight="1">
+    <row r="57" spans="1:11" ht="16.95" customHeight="1">
       <c r="C57" s="37"/>
       <c r="E57" s="10" t="s">
         <v>1726</v>
@@ -25955,19 +25968,19 @@
         <v>COMPANY.CLASS</v>
       </c>
       <c r="G242" s="8" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H242" s="37" t="s">
         <v>1753</v>
       </c>
-      <c r="H242" s="37" t="s">
+      <c r="I242" s="8" t="s">
         <v>1754</v>
       </c>
-      <c r="I242" s="8" t="s">
-        <v>1755</v>
-      </c>
       <c r="J242" s="37" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K242" s="8" t="s">
         <v>1754</v>
-      </c>
-      <c r="K242" s="8" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="243" spans="5:11">
@@ -26053,32 +26066,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.35546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.2109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.92578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="20" width="10.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.58203125" customWidth="1"/>
+    <col min="12" max="12" width="10.4140625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.58203125" customWidth="1"/>
+    <col min="19" max="20" width="10.4140625" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -26114,7 +26127,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="47">
+    <row r="7" spans="1:26" ht="48">
       <c r="A7" s="9">
         <v>43189</v>
       </c>
@@ -26367,7 +26380,7 @@
         <v>1741</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1742</v>
+        <v>1761</v>
       </c>
       <c r="L12">
         <v>500</v>
@@ -27009,7 +27022,7 @@
         <v>LOV_EMPLOYEEUID</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>86</v>
@@ -27057,23 +27070,23 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.5703125" customWidth="1"/>
-    <col min="10" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" customWidth="1"/>
+    <col min="2" max="3" width="10.4140625" customWidth="1"/>
+    <col min="4" max="4" width="24.58203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="35.4140625" customWidth="1"/>
+    <col min="8" max="8" width="33.4140625" customWidth="1"/>
+    <col min="9" max="9" width="34.58203125" customWidth="1"/>
+    <col min="10" max="11" width="19.4140625" customWidth="1"/>
+    <col min="12" max="12" width="17.58203125" customWidth="1"/>
+    <col min="13" max="13" width="19.58203125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="1025" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="17" max="1025" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
